--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
   <si>
     <r>
       <rPr>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>Toqa Badry</t>
+  </si>
+  <si>
+    <t>BH</t>
   </si>
   <si>
     <t>Sarah Alzuhairi</t>
@@ -894,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +979,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBC04"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,7 +1836,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1851,16 +1860,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1869,89 +1878,89 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2112,12 +2121,15 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2130,40 +2142,40 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="12" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="12" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2172,31 +2184,31 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="14" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2220,31 +2232,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2253,13 +2265,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2597,342 +2609,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="86"/>
+      <c r="A2" s="87"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="89">
+      <c r="B4" s="90">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="97" t="s">
+      <c r="L4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="98" t="s">
+      <c r="M4" s="99" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="92">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="100" t="s">
+      <c r="K5" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="101">
+      <c r="L5" s="102">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="102" t="s">
+      <c r="M5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="103" t="s">
+      <c r="N5" s="104" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="92">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="99" t="s">
+      <c r="J6" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="104" t="s">
+      <c r="K6" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="104">
+      <c r="L6" s="105">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="102" t="s">
+      <c r="M6" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="103" t="s">
+      <c r="N6" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="92">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="105" t="s">
+      <c r="K7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="104">
+      <c r="L7" s="105">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="92">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="105">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="102" t="s">
+      <c r="M8" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="99" t="s">
+      <c r="J9" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="104" t="s">
+      <c r="K9" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="104">
+      <c r="L9" s="105">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="102" t="s">
+      <c r="M9" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="99" t="s">
+      <c r="J10" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="104" t="s">
+      <c r="K10" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="104">
+      <c r="L10" s="105">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="102" t="s">
+      <c r="M10" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="103" t="s">
+      <c r="N10" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="104">
+      <c r="L11" s="105">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="102" t="s">
+      <c r="M11" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="103" t="s">
+      <c r="N11" s="104" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="92">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="K12" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="104">
+      <c r="L12" s="105">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="102" t="s">
+      <c r="M12" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="103" t="s">
+      <c r="N12" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="99" t="s">
+      <c r="J13" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="105">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="102" t="s">
+      <c r="M13" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="104" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="92">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="99" t="s">
+      <c r="J14" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="104" t="s">
+      <c r="K14" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="105">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="102" t="s">
+      <c r="M14" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="103" t="s">
+      <c r="N14" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="92">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="92" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="92">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="92" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2969,336 +2981,336 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="61">
+      <c r="A4" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="62">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="60" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="61">
+      <c r="A6" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="62">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="61">
+      <c r="A7" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="62">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="61">
+      <c r="A8" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="62">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="59">
+      <c r="A9" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="60">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="59">
+      <c r="A10" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="60">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="59">
+      <c r="A11" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="60">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="59">
+      <c r="A12" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="60">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="60" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="59">
+      <c r="A13" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="60">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="60" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="59">
+      <c r="A14" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="60">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="60" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="60">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="60">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="59">
+      <c r="A15" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="60">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="64" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="64">
+      <c r="A18" s="65">
         <v>10259455</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="66">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="66">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="65">
+      <c r="C18" s="67">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="67">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="66">
         <v>1150764124</v>
       </c>
     </row>
@@ -3309,10 +3321,10 @@
       <c r="B19" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="67">
+      <c r="C19" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E19" s="22">
@@ -3326,10 +3338,10 @@
       <c r="B20" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="67">
+      <c r="C20" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E20" s="22">
@@ -3343,10 +3355,10 @@
       <c r="B21" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="67">
+      <c r="C21" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E21" s="22">
@@ -3360,10 +3372,10 @@
       <c r="B22" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="67">
+      <c r="C22" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E22" s="22">
@@ -3374,26 +3386,26 @@
       <c r="A23" s="21">
         <v>10323953</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="67">
+      <c r="C23" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E23" s="22"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="69"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="67">
+      <c r="C24" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E24" s="22">
@@ -3401,14 +3413,14 @@
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="67">
+      <c r="C25" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E25" s="22">
@@ -3416,14 +3428,14 @@
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="67">
+      <c r="C26" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E26" s="22">
@@ -3431,14 +3443,14 @@
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="69"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="67">
+      <c r="C27" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E27" s="22">
@@ -3446,14 +3458,14 @@
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="67">
+      <c r="C28" s="68">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="68">
         <v>0.833333333333333</v>
       </c>
       <c r="E28" s="22">
@@ -3461,135 +3473,135 @@
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="70"/>
-      <c r="D33" s="71" t="s">
+      <c r="C33" s="71"/>
+      <c r="D33" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="72" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="74">
         <v>45756</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="74">
         <v>45757</v>
       </c>
-      <c r="F34" s="73">
+      <c r="F34" s="74">
         <v>45758</v>
       </c>
-      <c r="G34" s="73">
+      <c r="G34" s="74">
         <v>45759</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="74">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="75" t="s">
+      <c r="H35" s="76" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="79">
         <v>45762</v>
       </c>
-      <c r="F37" s="78">
+      <c r="F37" s="79">
         <v>45763</v>
       </c>
-      <c r="G37" s="78">
+      <c r="G37" s="79">
         <v>45764</v>
       </c>
-      <c r="H37" s="78">
+      <c r="H37" s="79">
         <v>45765</v>
       </c>
-      <c r="I37" s="78">
+      <c r="I37" s="79">
         <v>45766</v>
       </c>
-      <c r="J37" s="78">
+      <c r="J37" s="79">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="79">
+      <c r="C38" s="80">
         <v>10323953</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="81">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="81">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="81">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="82" t="s">
+      <c r="E38" s="82">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="82">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="82">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="82" t="s">
+      <c r="I38" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="81">
+      <c r="J38" s="82">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="83"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="81">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="81">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="81">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="82" t="s">
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="82">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="82">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="82">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="82" t="s">
+      <c r="I39" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="81">
+      <c r="J39" s="82">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3609,7 +3621,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:I33"/>
+      <selection activeCell="J32" sqref="J32:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4381,7 +4393,7 @@
       <c r="P22" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="Q22" s="58" t="s">
+      <c r="Q22" s="59" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4422,15 +4434,15 @@
       <c r="L23" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="56"/>
+      <c r="M23" s="55"/>
       <c r="N23" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="O23" s="56"/>
+      <c r="O23" s="55"/>
       <c r="P23" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="Q23" s="56"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="25" ht="15.25" spans="1:1">
       <c r="A25" t="s">
@@ -4514,10 +4526,10 @@
       <c r="M27" s="46">
         <v>0.75</v>
       </c>
-      <c r="N27" s="57" t="s">
+      <c r="N27" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="57" t="s">
+      <c r="O27" s="56" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4561,10 +4573,10 @@
       <c r="M28" s="46">
         <v>0.75</v>
       </c>
-      <c r="N28" s="57" t="s">
+      <c r="N28" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="O28" s="57" t="s">
+      <c r="O28" s="56" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4671,23 +4683,23 @@
       <c r="I32" s="24">
         <v>0.75</v>
       </c>
-      <c r="J32" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="K32" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="L32" s="53" t="s">
+      <c r="J32" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="M32" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="M32" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="N32" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="O32" s="24">
-        <v>0.75</v>
+      <c r="N32" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="O32" s="57" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:15">
@@ -4695,10 +4707,10 @@
         <v>10304876</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D33" s="24">
         <v>0.375</v>
@@ -4718,23 +4730,23 @@
       <c r="I33" s="24">
         <v>0.75</v>
       </c>
-      <c r="J33" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="K33" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="L33" s="53" t="s">
+      <c r="J33" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="M33" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="N33" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="O33" s="24">
-        <v>0.75</v>
+      <c r="N33" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="O33" s="57" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -598,6 +598,33 @@
   </si>
   <si>
     <t>Trainer 聽- Talabat</t>
+  </si>
+  <si>
+    <t>Monday, June 9</t>
+  </si>
+  <si>
+    <t>Tuesday, June 10</t>
+  </si>
+  <si>
+    <t>Wednesday, June 11</t>
+  </si>
+  <si>
+    <t>Thursday, June 12</t>
+  </si>
+  <si>
+    <t>Friday, June 13</t>
+  </si>
+  <si>
+    <t>Saturday, June 14</t>
+  </si>
+  <si>
+    <t>Sunday, June 15</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Talabat Trainer</t>
   </si>
 </sst>
 </file>
@@ -972,6 +999,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFBBC04"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -984,12 +1017,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBBC04"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF46BDC6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1223,7 +1250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1568,6 +1595,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -1673,30 +1735,6 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1836,7 +1874,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1848,34 +1886,34 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1960,7 +1998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2106,43 +2144,91 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,25 +2252,25 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="12" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="12" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2193,10 +2279,10 @@
     <xf numFmtId="16" fontId="14" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2220,25 +2306,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2265,7 +2351,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2609,342 +2695,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="87"/>
+      <c r="A2" s="103"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="106">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="99" t="s">
+      <c r="M4" s="115" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="108">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="102">
+      <c r="L5" s="118">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="103" t="s">
+      <c r="M5" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="104" t="s">
+      <c r="N5" s="120" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="108">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="121">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="103" t="s">
+      <c r="M6" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="120" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="108">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="100" t="s">
+      <c r="J7" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="121">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="120" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="108">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="100" t="s">
+      <c r="J8" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="121">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="103" t="s">
+      <c r="M8" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="120" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="121">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="104" t="s">
+      <c r="N9" s="120" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="121">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="104" t="s">
+      <c r="N10" s="120" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="105" t="s">
+      <c r="K11" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="105">
+      <c r="L11" s="121">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="120" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="108">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="105" t="s">
+      <c r="K12" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="105">
+      <c r="L12" s="121">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="103" t="s">
+      <c r="M12" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="N12" s="120" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="105" t="s">
+      <c r="K13" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="105">
+      <c r="L13" s="121">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="103" t="s">
+      <c r="M13" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="104" t="s">
+      <c r="N13" s="120" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="108">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="105" t="s">
+      <c r="K14" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="105">
+      <c r="L14" s="121">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="104" t="s">
+      <c r="N14" s="120" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="108">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="108" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="108">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="108" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2981,336 +3067,336 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="76" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="62">
+      <c r="A4" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="78">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="76" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="62" t="s">
+      <c r="A5" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="76" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="62">
+      <c r="A6" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="78">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="76" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="62">
+      <c r="A7" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="78">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="76" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="62">
+      <c r="A8" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="78">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="76" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="60">
+      <c r="A9" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="76">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="76" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="60">
+      <c r="A10" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="76">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="60">
+      <c r="A11" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="76">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="76" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="60">
+      <c r="A12" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="76">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="76" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="60">
+      <c r="A13" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="76">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="60">
+      <c r="A14" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="76">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="76" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="60">
+      <c r="A15" s="77">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="77">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="76">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="76" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="80" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="65">
+      <c r="A18" s="81">
         <v>10259455</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="67">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="66">
+      <c r="C18" s="83">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="83">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="82">
         <v>1150764124</v>
       </c>
     </row>
@@ -3321,10 +3407,10 @@
       <c r="B19" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="68">
+      <c r="C19" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E19" s="22">
@@ -3338,10 +3424,10 @@
       <c r="B20" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="68">
+      <c r="C20" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E20" s="22">
@@ -3355,10 +3441,10 @@
       <c r="B21" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="68">
+      <c r="C21" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E21" s="22">
@@ -3372,10 +3458,10 @@
       <c r="B22" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="68">
+      <c r="C22" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E22" s="22">
@@ -3386,26 +3472,26 @@
       <c r="A23" s="21">
         <v>10323953</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="68">
+      <c r="C23" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E23" s="22"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="70"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="68">
+      <c r="C24" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E24" s="22">
@@ -3413,14 +3499,14 @@
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="70"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="68">
+      <c r="C25" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E25" s="22">
@@ -3428,14 +3514,14 @@
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="70"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="68">
+      <c r="C26" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E26" s="22">
@@ -3443,14 +3529,14 @@
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="70"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="68">
+      <c r="C27" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E27" s="22">
@@ -3458,14 +3544,14 @@
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="70"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="68">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="68">
+      <c r="C28" s="84">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="84">
         <v>0.833333333333333</v>
       </c>
       <c r="E28" s="22">
@@ -3473,135 +3559,135 @@
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="71"/>
-      <c r="D33" s="72" t="s">
+      <c r="C33" s="87"/>
+      <c r="D33" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="88" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="90">
         <v>45756</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E34" s="90">
         <v>45757</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="90">
         <v>45758</v>
       </c>
-      <c r="G34" s="74">
+      <c r="G34" s="90">
         <v>45759</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="90">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="76" t="s">
+      <c r="F35" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="92" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="95">
         <v>45762</v>
       </c>
-      <c r="F37" s="79">
+      <c r="F37" s="95">
         <v>45763</v>
       </c>
-      <c r="G37" s="79">
+      <c r="G37" s="95">
         <v>45764</v>
       </c>
-      <c r="H37" s="79">
+      <c r="H37" s="95">
         <v>45765</v>
       </c>
-      <c r="I37" s="79">
+      <c r="I37" s="95">
         <v>45766</v>
       </c>
-      <c r="J37" s="79">
+      <c r="J37" s="95">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="80">
+      <c r="C38" s="96">
         <v>10323953</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="82">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="82">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="82">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="83" t="s">
+      <c r="E38" s="98">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="98">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="98">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="83" t="s">
+      <c r="I38" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="82">
+      <c r="J38" s="98">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="84"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="82">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="82">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="82">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="83" t="s">
+      <c r="C39" s="100"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="98">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="98">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="98">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="83" t="s">
+      <c r="I39" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="82">
+      <c r="J39" s="98">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3618,10 +3704,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:O33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3637,8 +3723,8 @@
     <col min="9" max="9" width="10.2727272727273" customWidth="1"/>
     <col min="10" max="10" width="11.3636363636364" customWidth="1"/>
     <col min="11" max="11" width="10.2727272727273" customWidth="1"/>
-    <col min="12" max="12" width="10.1818181818182" customWidth="1"/>
-    <col min="13" max="13" width="11.0909090909091" customWidth="1"/>
+    <col min="12" max="12" width="12.0909090909091" customWidth="1"/>
+    <col min="13" max="13" width="15.8181818181818" customWidth="1"/>
     <col min="14" max="14" width="10.3636363636364" customWidth="1"/>
     <col min="15" max="15" width="9.45454545454546" customWidth="1"/>
     <col min="16" max="16" width="12.2727272727273"/>
@@ -3669,7 +3755,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="15.25" spans="1:14">
+    <row r="3" ht="16" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -3696,10 +3782,10 @@
         <v>101</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="66" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3739,7 +3825,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" ht="15.25" spans="1:14">
+    <row r="5" ht="16" customHeight="1" spans="1:14">
       <c r="A5" s="11">
         <v>10305637</v>
       </c>
@@ -3776,14 +3862,14 @@
       <c r="L5" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="67" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="1:14">
+    <row r="6" ht="16" customHeight="1" spans="1:14">
       <c r="A6" s="11">
         <v>10322035</v>
       </c>
@@ -3820,10 +3906,10 @@
       <c r="L6" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3864,10 +3950,10 @@
       <c r="L7" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3908,10 +3994,10 @@
       <c r="L8" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3952,10 +4038,10 @@
       <c r="L9" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="M9" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="52" t="s">
+      <c r="N9" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3996,10 +4082,10 @@
       <c r="L10" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="M10" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4040,10 +4126,10 @@
       <c r="L11" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="52" t="s">
+      <c r="N11" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4084,10 +4170,10 @@
       <c r="L12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M12" s="52" t="s">
+      <c r="M12" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4128,10 +4214,10 @@
       <c r="L13" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4250,10 +4336,10 @@
       <c r="M17" s="24">
         <v>0.875</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="53" t="s">
+      <c r="O17" s="68" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4291,10 +4377,10 @@
       <c r="K18" s="27">
         <v>0.833333333333333</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="68" t="s">
         <v>119</v>
       </c>
       <c r="N18" s="27">
@@ -4390,10 +4476,10 @@
       <c r="O22" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="54" t="s">
+      <c r="P22" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="Q22" s="59" t="s">
+      <c r="Q22" s="75" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4431,18 +4517,18 @@
       <c r="K23" s="39">
         <v>0.791666666666667</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55" t="s">
+      <c r="M23" s="70"/>
+      <c r="N23" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55" t="s">
+      <c r="O23" s="70"/>
+      <c r="P23" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="Q23" s="55"/>
+      <c r="Q23" s="70"/>
     </row>
     <row r="25" ht="15.25" spans="1:1">
       <c r="A25" t="s">
@@ -4526,10 +4612,10 @@
       <c r="M27" s="46">
         <v>0.75</v>
       </c>
-      <c r="N27" s="56" t="s">
+      <c r="N27" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="56" t="s">
+      <c r="O27" s="71" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4573,10 +4659,10 @@
       <c r="M28" s="46">
         <v>0.75</v>
       </c>
-      <c r="N28" s="56" t="s">
+      <c r="N28" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="O28" s="71" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4683,22 +4769,22 @@
       <c r="I32" s="24">
         <v>0.75</v>
       </c>
-      <c r="J32" s="57" t="s">
+      <c r="J32" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="57" t="s">
+      <c r="K32" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="L32" s="57" t="s">
+      <c r="L32" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="M32" s="58" t="s">
+      <c r="M32" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="N32" s="57" t="s">
+      <c r="N32" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="O32" s="57" t="s">
+      <c r="O32" s="72" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4730,27 +4816,281 @@
       <c r="I33" s="24">
         <v>0.75</v>
       </c>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="K33" s="57" t="s">
+      <c r="K33" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="57" t="s">
+      <c r="L33" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="58" t="s">
+      <c r="M33" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="N33" s="57" t="s">
+      <c r="N33" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="O33" s="57" t="s">
+      <c r="O33" s="72" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="54"/>
+      <c r="L36" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="M36" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="O36" s="54"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="O37" s="57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="58">
+        <v>10210885</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H38" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I38" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J38" s="61">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K38" s="61">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L38" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="M38" s="59"/>
+      <c r="N38" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O38" s="74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="62">
+        <v>10259455</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="64">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E39" s="64">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="64">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G39" s="64">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="64">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I39" s="64">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J39" s="64">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K39" s="64">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L39" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" s="64">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O39" s="64">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="58">
+        <v>10293907</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="61">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G40" s="61">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H40" s="61">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I40" s="61">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J40" s="61">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K40" s="61">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L40" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="N40" s="61">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O40" s="61">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="58">
+        <v>10304876</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="61">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G41" s="61">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H41" s="61">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I41" s="61">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J41" s="61">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K41" s="61">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L41" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="M41" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="N41" s="61">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O41" s="61">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="57">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -4782,18 +5122,32 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="N30:O30"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L36:L37"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M36:M37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="Belal.gamal@transcom.com" tooltip="mailto:Belal.gamal@transcom.com"/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="144">
   <si>
     <r>
       <rPr>
@@ -471,34 +471,94 @@
     <t>Mohamed Mahmoud Abdelaziz</t>
   </si>
   <si>
+    <t>Talabat - Quality</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Tuesday, June 10, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 11, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 12, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 13, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 14, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 15, 2025</t>
+  </si>
+  <si>
     <t>Employee ID</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Shift Start</t>
+  </si>
+  <si>
+    <t>Shift End</t>
+  </si>
+  <si>
+    <t>Yara Emad</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Talabat - Overheads</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Belal Gamal</t>
+  </si>
+  <si>
+    <t>Belal.gamal@transcom.com</t>
+  </si>
+  <si>
+    <t>Mohamed Tarek</t>
+  </si>
+  <si>
+    <t>mohamed.tarek@transcom.com</t>
+  </si>
+  <si>
     <t>Employee Name</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Monday, June 2</t>
-  </si>
-  <si>
-    <t>Tuesday, June 3</t>
-  </si>
-  <si>
-    <t>Tuesday, June 4</t>
-  </si>
-  <si>
-    <t>Tuesday, June 5</t>
-  </si>
-  <si>
-    <t>Friday, June 6</t>
-  </si>
-  <si>
-    <t>Saturday, June 7</t>
-  </si>
-  <si>
-    <t>Sunday, June 8</t>
+    <t>Monday, June 9</t>
+  </si>
+  <si>
+    <t>Tuesday, June 10</t>
+  </si>
+  <si>
+    <t>Wednesday, June 11</t>
+  </si>
+  <si>
+    <t>Thursday, June 12</t>
+  </si>
+  <si>
+    <t>Friday, June 13</t>
+  </si>
+  <si>
+    <t>Saturday, June 14</t>
+  </si>
+  <si>
+    <t>Sunday, June 15</t>
   </si>
   <si>
     <t>From</t>
@@ -513,79 +573,10 @@
     <t>Training Manager</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Trainer - Talabat</t>
-  </si>
-  <si>
-    <t>Talabat - Quality</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Monday, June 2, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 3, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 4, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 5, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 6, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 7, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 8, 2025</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Shift Start</t>
-  </si>
-  <si>
-    <t>Shift End</t>
-  </si>
-  <si>
-    <t>Yara Emad</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Talabat - Overheads</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Belal Gamal</t>
-  </si>
-  <si>
-    <t>Belal.gamal@transcom.com</t>
-  </si>
-  <si>
-    <t>Mohamed Tarek</t>
-  </si>
-  <si>
-    <t>mohamed.tarek@transcom.com</t>
-  </si>
-  <si>
-    <t>Wednesday, June 4</t>
-  </si>
-  <si>
-    <t>Thursday, June 5</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Talabat Trainer</t>
   </si>
   <si>
     <t>Toqa Badry</t>
@@ -595,36 +586,6 @@
   </si>
   <si>
     <t>Sarah Alzuhairi</t>
-  </si>
-  <si>
-    <t>Trainer 聽- Talabat</t>
-  </si>
-  <si>
-    <t>Monday, June 9</t>
-  </si>
-  <si>
-    <t>Tuesday, June 10</t>
-  </si>
-  <si>
-    <t>Wednesday, June 11</t>
-  </si>
-  <si>
-    <t>Thursday, June 12</t>
-  </si>
-  <si>
-    <t>Friday, June 13</t>
-  </si>
-  <si>
-    <t>Saturday, June 14</t>
-  </si>
-  <si>
-    <t>Sunday, June 15</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Talabat Trainer</t>
   </si>
 </sst>
 </file>
@@ -666,12 +627,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -720,6 +675,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -945,6 +906,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF434343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0C343D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -957,66 +954,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBBC04"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF46BDC6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1250,7 +1211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1383,6 +1344,292 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -1395,8 +1642,155 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1404,7 +1798,9 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1429,20 +1825,9 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1464,217 +1849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1735,6 +1909,19 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1874,7 +2061,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1886,34 +2073,34 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1998,7 +2185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2035,329 +2222,314 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="12" fillId="19" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="20" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="22" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="12" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2695,342 +2867,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="103"/>
+      <c r="A2" s="98"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="101">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="112" t="s">
+      <c r="J4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="115" t="s">
+      <c r="M4" s="110" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="108">
+      <c r="B5" s="103">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="117" t="s">
+      <c r="K5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="118">
+      <c r="L5" s="113">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="119" t="s">
+      <c r="M5" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="120" t="s">
+      <c r="N5" s="115" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="108">
+      <c r="B6" s="103">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="121" t="s">
+      <c r="K6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="116">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="119" t="s">
+      <c r="M6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="120" t="s">
+      <c r="N6" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="108">
+      <c r="B7" s="103">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="116" t="s">
+      <c r="J7" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="122" t="s">
+      <c r="K7" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="116">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="120" t="s">
+      <c r="N7" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="108">
+      <c r="B8" s="103">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="121" t="s">
+      <c r="K8" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L8" s="116">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="119" t="s">
+      <c r="M8" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="116" t="s">
+      <c r="J9" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="121">
+      <c r="L9" s="116">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="119" t="s">
+      <c r="M9" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="120" t="s">
+      <c r="N9" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="116" t="s">
+      <c r="J10" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="116">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="120" t="s">
+      <c r="N10" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="116" t="s">
+      <c r="J11" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="121" t="s">
+      <c r="K11" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="121">
+      <c r="L11" s="116">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="119" t="s">
+      <c r="M11" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="120" t="s">
+      <c r="N11" s="115" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="103">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="116" t="s">
+      <c r="J12" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="121" t="s">
+      <c r="K12" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="121">
+      <c r="L12" s="116">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="119" t="s">
+      <c r="M12" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="120" t="s">
+      <c r="N12" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="116" t="s">
+      <c r="J13" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="121" t="s">
+      <c r="K13" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="121">
+      <c r="L13" s="116">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="119" t="s">
+      <c r="M13" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="120" t="s">
+      <c r="N13" s="115" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="103">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="116" t="s">
+      <c r="J14" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="121" t="s">
+      <c r="K14" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="121">
+      <c r="L14" s="116">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="119" t="s">
+      <c r="M14" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="120" t="s">
+      <c r="N14" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="103">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="103" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="108">
+      <c r="B16" s="103">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="103" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3067,627 +3239,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="69" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="78">
+      <c r="A4" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="71">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="69" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="69" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="78">
+      <c r="A6" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="71">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="78">
+      <c r="A7" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="71">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="78">
+      <c r="A8" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="71">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="69" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="76">
+      <c r="A9" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="69">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="76">
+      <c r="A10" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="69">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="76">
+      <c r="A11" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="69">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="76">
+      <c r="A12" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="69">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="76">
+      <c r="A13" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="69">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="69" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="76">
+      <c r="A14" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="69">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="69" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="77">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="77">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="76">
+      <c r="A15" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="69">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="69" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="81">
+      <c r="A18" s="74">
         <v>10259455</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="83">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="83">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="82">
+      <c r="C18" s="76">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="76">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="75">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="21">
+      <c r="A19" s="77">
         <v>10318223</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="C19" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="78">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="21">
+      <c r="A20" s="77">
         <v>10314749</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="C20" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="78">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="21">
+      <c r="A21" s="77">
         <v>10305637</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="C21" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="78">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="21">
+      <c r="A22" s="77">
         <v>10322035</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="C22" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="78">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="21">
+      <c r="A23" s="77">
         <v>10323953</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="22"/>
+      <c r="C23" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="86"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="81"/>
+      <c r="B24" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="22">
+      <c r="C24" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="78">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="86"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="C25" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="78">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="86"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="C26" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="78">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="86"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="81"/>
+      <c r="B27" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="C27" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="78">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="86"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="81"/>
+      <c r="B28" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="84">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="84">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="22">
+      <c r="C28" s="79">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="79">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="78">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="87"/>
-      <c r="D33" s="88" t="s">
+      <c r="C33" s="82"/>
+      <c r="D33" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="88" t="s">
+      <c r="E33" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="88" t="s">
+      <c r="F33" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="88" t="s">
+      <c r="G33" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="88" t="s">
+      <c r="H33" s="83" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="85">
         <v>45756</v>
       </c>
-      <c r="E34" s="90">
+      <c r="E34" s="85">
         <v>45757</v>
       </c>
-      <c r="F34" s="90">
+      <c r="F34" s="85">
         <v>45758</v>
       </c>
-      <c r="G34" s="90">
+      <c r="G34" s="85">
         <v>45759</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="85">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="92" t="s">
+      <c r="G35" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="87" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="95">
+      <c r="E37" s="90">
         <v>45762</v>
       </c>
-      <c r="F37" s="95">
+      <c r="F37" s="90">
         <v>45763</v>
       </c>
-      <c r="G37" s="95">
+      <c r="G37" s="90">
         <v>45764</v>
       </c>
-      <c r="H37" s="95">
+      <c r="H37" s="90">
         <v>45765</v>
       </c>
-      <c r="I37" s="95">
+      <c r="I37" s="90">
         <v>45766</v>
       </c>
-      <c r="J37" s="95">
+      <c r="J37" s="90">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="96">
+      <c r="C38" s="91">
         <v>10323953</v>
       </c>
-      <c r="D38" s="97" t="s">
+      <c r="D38" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="98">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="98">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="98">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="99" t="s">
+      <c r="E38" s="93">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="93">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="93">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="99" t="s">
+      <c r="I38" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="98">
+      <c r="J38" s="93">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="100"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="98">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="98">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="98">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="99" t="s">
+      <c r="C39" s="95"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="93">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="93">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="93">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="99" t="s">
+      <c r="I39" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="98">
+      <c r="J39" s="93">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3704,10 +3876,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:O41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3755,7 +3927,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="16" customHeight="1" spans="1:14">
+    <row r="3" ht="16.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -3782,10 +3954,10 @@
         <v>101</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="58" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3862,10 +4034,10 @@
       <c r="L5" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3906,10 +4078,10 @@
       <c r="L6" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3950,10 +4122,10 @@
       <c r="L7" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3994,10 +4166,10 @@
       <c r="L8" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4038,10 +4210,10 @@
       <c r="L9" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4082,10 +4254,10 @@
       <c r="L10" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4126,10 +4298,10 @@
       <c r="L11" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M11" s="67" t="s">
+      <c r="M11" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4170,10 +4342,10 @@
       <c r="L12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M12" s="67" t="s">
+      <c r="M12" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4214,944 +4386,571 @@
       <c r="L13" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M13" s="67" t="s">
+      <c r="M13" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="59" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" ht="15.25"/>
-    <row r="15" ht="15.25" spans="1:15">
-      <c r="A15" s="14" t="s">
+    <row r="16" ht="15.25" spans="1:1">
+      <c r="A16" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="15" t="s">
+    </row>
+    <row r="17" customFormat="1" spans="1:15">
+      <c r="A17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="15" t="s">
+      <c r="M17" s="20"/>
+      <c r="N17" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:15">
+      <c r="A18" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="B18" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="D18" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E18" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F18" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H18" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J18" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20" t="s">
+      <c r="L18" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="M18" s="61" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:15">
-      <c r="A17" s="21">
+      <c r="N18" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:15">
+      <c r="A19" s="29">
+        <v>10250874</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I19" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="66"/>
+      <c r="N19" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O19" s="33">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:1">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:15">
+      <c r="A22" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="39"/>
+      <c r="N22" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:15">
+      <c r="A23" s="40">
+        <v>10273571</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="F23" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="I23" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="J23" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="K23" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="L23" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="M23" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:15">
+      <c r="A24" s="40">
+        <v>10267962</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="I24" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="J24" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="K24" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="L24" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="M24" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="N24" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25"/>
+    <row r="27" ht="15.25" spans="1:15">
+      <c r="A27" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" s="46"/>
+    </row>
+    <row r="28" ht="15.25" spans="1:15">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" s="49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:15">
+      <c r="A29" s="50">
         <v>10210885</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="F17" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="G17" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="I17" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="24">
-        <v>0.875</v>
-      </c>
-      <c r="L17" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="24">
-        <v>0.875</v>
-      </c>
-      <c r="N17" s="68" t="s">
+      <c r="B29" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G29" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H29" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I29" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J29" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K29" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" s="51"/>
+      <c r="N29" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="68" t="s">
+      <c r="O29" s="68" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" ht="15.25" spans="1:15">
-      <c r="A18" s="25">
+    <row r="30" ht="15.25" spans="1:15">
+      <c r="A30" s="54">
         <v>10259455</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B30" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E18" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F18" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I18" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J18" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K18" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L18" s="68" t="s">
+      <c r="C30" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E30" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F30" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G30" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H30" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I30" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J30" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K30" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L30" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="68" t="s">
+      <c r="M30" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O18" s="27">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:1">
-      <c r="A20" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:17">
-      <c r="A21" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" ht="15.25" spans="1:17">
-      <c r="A22" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:17">
-      <c r="A23" s="35">
-        <v>10250874</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="38">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E23" s="38">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F23" s="38">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G23" s="38">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H23" s="39">
+      <c r="N30" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O30" s="56">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:15">
+      <c r="A31" s="50">
+        <v>10293907</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="I23" s="39">
+      <c r="G31" s="53">
         <v>0.791666666666667</v>
       </c>
-      <c r="J23" s="39">
+      <c r="H31" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="K23" s="39">
+      <c r="I31" s="53">
         <v>0.791666666666667</v>
       </c>
-      <c r="L23" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q23" s="70"/>
-    </row>
-    <row r="25" ht="15.25" spans="1:1">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:15">
-      <c r="A26" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" s="43"/>
-      <c r="N26" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:15">
-      <c r="A27" s="44">
-        <v>10273571</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="E27" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="F27" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="G27" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="I27" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="J27" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="K27" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="L27" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="M27" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="N27" s="71" t="s">
+      <c r="J31" s="53">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K31" s="53">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L31" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="71" t="s">
+      <c r="M31" s="68" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:15">
-      <c r="A28" s="44">
-        <v>10267962</v>
-      </c>
-      <c r="B28" s="45" t="s">
+      <c r="N31" s="53">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O31" s="53">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:15">
+      <c r="A32" s="50">
+        <v>10304876</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="E28" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="F28" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="G28" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="H28" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="I28" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="J28" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="K28" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="L28" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="M28" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="N28" s="71" t="s">
+      <c r="D32" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="57"/>
+      <c r="F32" s="53">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G32" s="53">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H32" s="53">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I32" s="53">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J32" s="53">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K32" s="53">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L32" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="O28" s="71" t="s">
+      <c r="M32" s="68" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" ht="15.25"/>
-    <row r="30" ht="15.25" spans="1:15">
-      <c r="A30" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="M30" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="O30" s="17"/>
-    </row>
-    <row r="31" ht="15.25" spans="1:15">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:15">
-      <c r="A32" s="21">
-        <v>10293907</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="E32" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="F32" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="G32" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="H32" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="I32" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="J32" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="K32" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="M32" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="N32" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="O32" s="72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:15">
-      <c r="A33" s="21">
-        <v>10304876</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="E33" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="F33" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="G33" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="H33" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="I33" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="J33" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="K33" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="N33" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="O33" s="72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K36" s="54"/>
-      <c r="L36" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="M36" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="N36" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="O36" s="54"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="K37" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="O37" s="57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="58">
-        <v>10210885</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H38" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I38" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J38" s="61">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K38" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L38" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="M38" s="59"/>
-      <c r="N38" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="O38" s="74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="62">
-        <v>10259455</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="64">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E39" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="64">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G39" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="64">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I39" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J39" s="64">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K39" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L39" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="M39" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="N39" s="64">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O39" s="64">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="58">
-        <v>10293907</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="61">
+      <c r="N32" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="G40" s="61">
+      <c r="O32" s="53">
         <v>0.791666666666667</v>
       </c>
-      <c r="H40" s="61">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I40" s="61">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J40" s="61">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K40" s="61">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L40" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="M40" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="N40" s="61">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O40" s="61">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="58">
-        <v>10304876</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="61">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G41" s="61">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H41" s="61">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I41" s="61">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J41" s="61">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K41" s="61">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L41" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="M41" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="N41" s="61">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O41" s="61">
-        <v>0.791666666666667</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="35">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" display="Belal.gamal@transcom.com" tooltip="mailto:Belal.gamal@transcom.com"/>
-    <hyperlink ref="C28" r:id="rId2" display="mohamed.tarek@transcom.com" tooltip="mailto:mohamed.tarek@transcom.com"/>
+    <hyperlink ref="C23" r:id="rId1" display="Belal.gamal@transcom.com" tooltip="mailto:Belal.gamal@transcom.com"/>
+    <hyperlink ref="C24" r:id="rId2" display="mohamed.tarek@transcom.com" tooltip="mailto:mohamed.tarek@transcom.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -477,22 +477,25 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Tuesday, June 10, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 11, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 12, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 13, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 14, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 15, 2025</t>
+    <t>Monday, June 16, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 17, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 18, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 19, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 20, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 21, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 22, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -516,49 +519,31 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Talabat - Overheads</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Belal Gamal</t>
-  </si>
-  <si>
-    <t>Belal.gamal@transcom.com</t>
-  </si>
-  <si>
-    <t>Mohamed Tarek</t>
-  </si>
-  <si>
-    <t>mohamed.tarek@transcom.com</t>
-  </si>
-  <si>
     <t>Employee Name</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Monday, June 9</t>
-  </si>
-  <si>
-    <t>Tuesday, June 10</t>
-  </si>
-  <si>
-    <t>Wednesday, June 11</t>
-  </si>
-  <si>
-    <t>Thursday, June 12</t>
-  </si>
-  <si>
-    <t>Friday, June 13</t>
-  </si>
-  <si>
-    <t>Saturday, June 14</t>
-  </si>
-  <si>
-    <t>Sunday, June 15</t>
+    <t>Monday, June 16</t>
+  </si>
+  <si>
+    <t>Tuesday, June 17</t>
+  </si>
+  <si>
+    <t>Wednesday, June 18</t>
+  </si>
+  <si>
+    <t>Thursday, June 19</t>
+  </si>
+  <si>
+    <t>Friday, June 20</t>
+  </si>
+  <si>
+    <t>Saturday, June 21</t>
+  </si>
+  <si>
+    <t>Sunday, June 22</t>
   </si>
   <si>
     <t>From</t>
@@ -576,16 +561,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>Talabat Trainer</t>
+    <t>Trainer</t>
   </si>
   <si>
     <t>Toqa Badry</t>
   </si>
   <si>
-    <t>BH</t>
-  </si>
-  <si>
     <t>Sarah Alzuhairi</t>
+  </si>
+  <si>
+    <t>Fatma Hamdy</t>
   </si>
 </sst>
 </file>
@@ -602,7 +587,7 @@
     <numFmt numFmtId="180" formatCode="00000000000"/>
     <numFmt numFmtId="181" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,8 +632,19 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="IBM Plex Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="IBM Plex Sans"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -659,28 +655,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -885,7 +862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,12 +913,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0C343D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -960,12 +931,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBBC04"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1211,7 +1176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1359,69 +1324,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF999999"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color rgb="FF999999"/>
@@ -1462,19 +1371,6 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color rgb="FF999999"/>
       </right>
@@ -1491,137 +1387,10 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color rgb="FFB7B7B7"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
       </top>
       <bottom style="medium">
         <color rgb="FF999999"/>
@@ -1701,75 +1470,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2055,70 +1755,76 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2127,10 +1833,10 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2139,10 +1845,10 @@
     <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2151,10 +1857,10 @@
     <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2163,10 +1869,10 @@
     <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2175,17 +1881,11 @@
     <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2226,310 +1926,220 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="12" fillId="19" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="11" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="20" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="18" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="22" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2867,342 +2477,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="98"/>
+      <c r="A2" s="68"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="71">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="80" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="73">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="112" t="s">
+      <c r="K5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="113">
+      <c r="L5" s="83">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="115" t="s">
+      <c r="N5" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="103">
+      <c r="B6" s="73">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="111" t="s">
+      <c r="J6" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="116">
+      <c r="L6" s="86">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="114" t="s">
+      <c r="M6" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="115" t="s">
+      <c r="N6" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="73">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="111" t="s">
+      <c r="J7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="116">
+      <c r="L7" s="86">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="115" t="s">
+      <c r="N7" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="73">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="116" t="s">
+      <c r="K8" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="116">
+      <c r="L8" s="86">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="114" t="s">
+      <c r="M8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="115" t="s">
+      <c r="N8" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="111" t="s">
+      <c r="J9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="116" t="s">
+      <c r="K9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="116">
+      <c r="L9" s="86">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="114" t="s">
+      <c r="M9" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="115" t="s">
+      <c r="N9" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="116" t="s">
+      <c r="K10" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="116">
+      <c r="L10" s="86">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="115" t="s">
+      <c r="N10" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="111" t="s">
+      <c r="J11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="116" t="s">
+      <c r="K11" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="116">
+      <c r="L11" s="86">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="115" t="s">
+      <c r="N11" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="73">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="116" t="s">
+      <c r="K12" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="116">
+      <c r="L12" s="86">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="114" t="s">
+      <c r="M12" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="115" t="s">
+      <c r="N12" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="111" t="s">
+      <c r="J13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="116" t="s">
+      <c r="K13" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="116">
+      <c r="L13" s="86">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="114" t="s">
+      <c r="M13" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="115" t="s">
+      <c r="N13" s="85" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="73">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="111" t="s">
+      <c r="J14" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="116" t="s">
+      <c r="K14" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="116">
+      <c r="L14" s="86">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="114" t="s">
+      <c r="M14" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="115" t="s">
+      <c r="N14" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="73">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="73" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="73">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="73" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3239,627 +2849,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="39" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="71">
+      <c r="A4" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="41">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="71" t="s">
+      <c r="A5" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="71">
+      <c r="A6" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="41">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="71">
+      <c r="A7" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="41">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="71">
+      <c r="A8" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="41">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="69">
+      <c r="A9" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="39">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="69">
+      <c r="A10" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="39">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="69">
+      <c r="A11" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="39">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="69">
+      <c r="A12" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="39">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="69">
+      <c r="A13" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="39">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="69">
+      <c r="A14" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="39">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="69">
+      <c r="A15" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="40">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="39">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="74">
+      <c r="A18" s="44">
         <v>10259455</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="76">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="76">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="75">
+      <c r="C18" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="45">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="77">
+      <c r="A19" s="47">
         <v>10318223</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="78">
+      <c r="C19" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="48">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="77">
+      <c r="A20" s="47">
         <v>10314749</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="78">
+      <c r="C20" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="48">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="77">
+      <c r="A21" s="47">
         <v>10305637</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="78">
+      <c r="C21" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="48">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="77">
+      <c r="A22" s="47">
         <v>10322035</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="78">
+      <c r="C22" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="48">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="77">
+      <c r="A23" s="47">
         <v>10323953</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="78"/>
+      <c r="C23" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="81"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="78">
+      <c r="C24" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="48">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="81"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="78">
+      <c r="C25" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="48">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="81"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="78">
+      <c r="C26" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="48">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="81"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="78">
+      <c r="C27" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="48">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="81"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="79">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="79">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="78">
+      <c r="C28" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="48">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="82"/>
-      <c r="D33" s="83" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="83" t="s">
+      <c r="G33" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="83" t="s">
+      <c r="H33" s="53" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="85">
+      <c r="D34" s="55">
         <v>45756</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="55">
         <v>45757</v>
       </c>
-      <c r="F34" s="85">
+      <c r="F34" s="55">
         <v>45758</v>
       </c>
-      <c r="G34" s="85">
+      <c r="G34" s="55">
         <v>45759</v>
       </c>
-      <c r="H34" s="85">
+      <c r="H34" s="55">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="87" t="s">
+      <c r="E35" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="87" t="s">
+      <c r="H35" s="57" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="D37" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="90">
+      <c r="E37" s="60">
         <v>45762</v>
       </c>
-      <c r="F37" s="90">
+      <c r="F37" s="60">
         <v>45763</v>
       </c>
-      <c r="G37" s="90">
+      <c r="G37" s="60">
         <v>45764</v>
       </c>
-      <c r="H37" s="90">
+      <c r="H37" s="60">
         <v>45765</v>
       </c>
-      <c r="I37" s="90">
+      <c r="I37" s="60">
         <v>45766</v>
       </c>
-      <c r="J37" s="90">
+      <c r="J37" s="60">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="91">
+      <c r="C38" s="61">
         <v>10323953</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="93">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="93">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="93">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="94" t="s">
+      <c r="E38" s="63">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="63">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="63">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="94" t="s">
+      <c r="I38" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="93">
+      <c r="J38" s="63">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="95"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="93">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="93">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="93">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="94" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="63">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="63">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="63">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="94" t="s">
+      <c r="I39" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="93">
+      <c r="J39" s="63">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3876,10 +3486,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D24" sqref="D24:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3927,7 +3537,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="16.75" customHeight="1" spans="1:14">
+    <row r="3" ht="18.25" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -3954,10 +3564,10 @@
         <v>101</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="35" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4034,10 +3644,10 @@
       <c r="L5" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4078,10 +3688,10 @@
       <c r="L6" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4122,10 +3732,10 @@
       <c r="L7" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="59" t="s">
+      <c r="N7" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4166,10 +3776,10 @@
       <c r="L8" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="59" t="s">
+      <c r="N8" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4210,10 +3820,10 @@
       <c r="L9" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4254,10 +3864,10 @@
       <c r="L10" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M10" s="59" t="s">
+      <c r="M10" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="59" t="s">
+      <c r="N10" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4298,10 +3908,10 @@
       <c r="L11" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4342,10 +3952,10 @@
       <c r="L12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4386,10 +3996,10 @@
       <c r="L13" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4398,520 +4008,450 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:15">
+    <row r="17" customFormat="1" ht="15.25" spans="1:17">
       <c r="A17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21" t="s">
+      <c r="I17" s="16"/>
+      <c r="J17" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:15">
-      <c r="A18" s="22" t="s">
+      <c r="O17" s="16"/>
+      <c r="P17" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A18" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A19" s="21">
+        <v>10250874</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="37"/>
+      <c r="P19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="M18" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="N18" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:15">
-      <c r="A19" s="29">
-        <v>10250874</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="32">
+      <c r="B22" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="31">
+        <v>10210885</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E24" s="34">
         <v>0.791666666666667</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F24" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="G19" s="34">
+      <c r="I24" s="34">
         <v>0.791666666666667</v>
       </c>
-      <c r="H19" s="35">
+      <c r="J24" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="I19" s="34">
+      <c r="K24" s="34">
         <v>0.791666666666667</v>
       </c>
-      <c r="J19" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="66"/>
-      <c r="N19" s="35">
+      <c r="L24" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:15">
+      <c r="A25" s="31">
+        <v>10259455</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I25" s="34">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J25" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K25" s="34">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O25" s="34">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:15">
+      <c r="A26" s="31">
+        <v>10293907</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="O19" s="33">
+      <c r="E26" s="34">
         <v>0.791666666666667</v>
       </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:1">
-      <c r="A21" t="s">
+      <c r="F26" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G26" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H26" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I26" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K26" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L26" s="38" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:15">
-      <c r="A22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="O22" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:15">
-      <c r="A23" s="40">
-        <v>10273571</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="F23" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="G23" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="H23" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="I23" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="J23" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="K23" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="L23" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="M23" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="N23" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" s="67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:15">
-      <c r="A24" s="40">
-        <v>10267962</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="E24" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="F24" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="G24" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="H24" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="I24" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="J24" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="K24" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="L24" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="M24" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="N24" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="O24" s="67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25"/>
+      <c r="M26" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O26" s="34">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
     <row r="27" ht="15.25" spans="1:15">
-      <c r="A27" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="M27" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="N27" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" s="46"/>
+      <c r="A27" s="31">
+        <v>10304876</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I27" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J27" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K27" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O27" s="34">
+        <v>0.791666666666667</v>
+      </c>
     </row>
     <row r="28" ht="15.25" spans="1:15">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49" t="s">
+      <c r="A28" s="31">
+        <v>10310365</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="J28" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="O28" s="49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="1:15">
-      <c r="A29" s="50">
-        <v>10210885</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G29" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H29" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I29" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J29" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K29" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L29" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" s="51"/>
-      <c r="N29" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="O29" s="68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:15">
-      <c r="A30" s="54">
-        <v>10259455</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E30" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F30" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G30" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H30" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I30" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J30" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K30" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L30" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="M30" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O30" s="56">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:15">
-      <c r="A31" s="50">
-        <v>10293907</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="53">
+      <c r="D28" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="G31" s="53">
+      <c r="E28" s="34">
         <v>0.791666666666667</v>
       </c>
-      <c r="H31" s="53">
+      <c r="F28" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="I31" s="53">
+      <c r="G28" s="34">
         <v>0.791666666666667</v>
       </c>
-      <c r="J31" s="53">
+      <c r="H28" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="K31" s="53">
+      <c r="I28" s="34">
         <v>0.791666666666667</v>
       </c>
-      <c r="L31" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="M31" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" s="53">
+      <c r="J28" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="O31" s="53">
+      <c r="K28" s="34">
         <v>0.791666666666667</v>
       </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:15">
-      <c r="A32" s="50">
-        <v>10304876</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="53">
+      <c r="L28" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="G32" s="53">
+      <c r="O28" s="34">
         <v>0.791666666666667</v>
       </c>
-      <c r="H32" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I32" s="53">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J32" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K32" s="53">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L32" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N32" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O32" s="53">
-        <v>0.791666666666667</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="29">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -4924,34 +4464,24 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" display="Belal.gamal@transcom.com" tooltip="mailto:Belal.gamal@transcom.com"/>
-    <hyperlink ref="C24" r:id="rId2" display="mohamed.tarek@transcom.com" tooltip="mailto:mohamed.tarek@transcom.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -477,25 +477,25 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 16, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 17, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 18, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 19, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 20, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 21, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 22, 2025</t>
+    <t>Monday, June 23, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 24, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 25, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 26, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 27, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 28, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 29, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -519,31 +519,13 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>Karim Fawzy</t>
+  </si>
+  <si>
     <t>Employee Name</t>
   </si>
   <si>
     <t>Role</t>
-  </si>
-  <si>
-    <t>Monday, June 16</t>
-  </si>
-  <si>
-    <t>Tuesday, June 17</t>
-  </si>
-  <si>
-    <t>Wednesday, June 18</t>
-  </si>
-  <si>
-    <t>Thursday, June 19</t>
-  </si>
-  <si>
-    <t>Friday, June 20</t>
-  </si>
-  <si>
-    <t>Saturday, June 21</t>
-  </si>
-  <si>
-    <t>Sunday, June 22</t>
   </si>
   <si>
     <t>From</t>
@@ -587,7 +569,7 @@
     <numFmt numFmtId="180" formatCode="00000000000"/>
     <numFmt numFmtId="181" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,23 +614,18 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="IBM Plex Sans"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1755,137 +1732,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1924,75 +1901,93 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2010,13 +2005,13 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2031,61 +2026,61 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="10" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="18" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="18" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2100,13 +2095,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2115,31 +2110,31 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2477,342 +2472,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="68"/>
+      <c r="A2" s="74"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="77">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="86" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="79">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="89">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="85" t="s">
+      <c r="N5" s="91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="79">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="92">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="85" t="s">
+      <c r="N6" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="79">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="87" t="s">
+      <c r="K7" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="92">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="85" t="s">
+      <c r="N7" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="79">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="92">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="84" t="s">
+      <c r="M8" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="85" t="s">
+      <c r="N8" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="86">
+      <c r="L9" s="92">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="84" t="s">
+      <c r="M9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="85" t="s">
+      <c r="N9" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="92">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="84" t="s">
+      <c r="M10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="85" t="s">
+      <c r="N10" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="86">
+      <c r="L11" s="92">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="85" t="s">
+      <c r="N11" s="91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="79">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="86">
+      <c r="L12" s="92">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="81" t="s">
+      <c r="J13" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="86">
+      <c r="L13" s="92">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="84" t="s">
+      <c r="M13" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="85" t="s">
+      <c r="N13" s="91" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="79">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="81" t="s">
+      <c r="J14" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="86">
+      <c r="L14" s="92">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="84" t="s">
+      <c r="M14" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="85" t="s">
+      <c r="N14" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="79">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="79" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="79">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="79" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2849,627 +2844,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="41">
+      <c r="A4" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="47">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="41">
+      <c r="A6" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="47">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="A7" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="47">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="41">
+      <c r="A8" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="47">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="39">
+      <c r="A9" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="45">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="39">
+      <c r="A10" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="45">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="39">
+      <c r="A11" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="45">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="A12" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="45">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="45" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="A13" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="45">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="39">
+      <c r="A14" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="45">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="39">
+      <c r="A15" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="45">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="44">
+      <c r="A18" s="50">
         <v>10259455</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="45">
+      <c r="C18" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="51">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="47">
+      <c r="A19" s="53">
         <v>10318223</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="48">
+      <c r="C19" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="54">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="47">
+      <c r="A20" s="53">
         <v>10314749</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="48">
+      <c r="C20" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="54">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="47">
+      <c r="A21" s="53">
         <v>10305637</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="48">
+      <c r="C21" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="54">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="47">
+      <c r="A22" s="53">
         <v>10322035</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="48">
+      <c r="C22" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="54">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="47">
+      <c r="A23" s="53">
         <v>10323953</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="48"/>
+      <c r="C23" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="51"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="48">
+      <c r="C24" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="54">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="51"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="48">
+      <c r="C25" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="54">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="51"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="48">
+      <c r="C26" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="54">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="48">
+      <c r="C27" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="54">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="51"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="48">
+      <c r="C28" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="54">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="52"/>
-      <c r="D33" s="53" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="61">
         <v>45756</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="61">
         <v>45757</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="61">
         <v>45758</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="61">
         <v>45759</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="61">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="H35" s="63" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="66">
         <v>45762</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="66">
         <v>45763</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="66">
         <v>45764</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="66">
         <v>45765</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="66">
         <v>45766</v>
       </c>
-      <c r="J37" s="60">
+      <c r="J37" s="66">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="61">
+      <c r="C38" s="67">
         <v>10323953</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="63">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="63">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="63">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="64" t="s">
+      <c r="E38" s="69">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="69">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="69">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="64" t="s">
+      <c r="I38" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="63">
+      <c r="J38" s="69">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="65"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="63">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="63">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="63">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="64" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="69">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="69">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="69">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="64" t="s">
+      <c r="I39" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="63">
+      <c r="J39" s="69">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3489,7 +3484,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E28"/>
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3537,7 +3532,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="18.25" customHeight="1" spans="1:14">
+    <row r="3" ht="19.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -3564,14 +3559,14 @@
         <v>101</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="1:14">
+    <row r="4" ht="16" customHeight="1" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -3644,10 +3639,10 @@
       <c r="L5" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3688,10 +3683,10 @@
       <c r="L6" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3732,10 +3727,10 @@
       <c r="L7" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3776,10 +3771,10 @@
       <c r="L8" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3820,10 +3815,10 @@
       <c r="L9" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3864,10 +3859,10 @@
       <c r="L10" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="N10" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3908,10 +3903,10 @@
       <c r="L11" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3952,10 +3947,10 @@
       <c r="L12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3996,10 +3991,10 @@
       <c r="L13" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="40" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4124,20 +4119,18 @@
       <c r="I19" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K19" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L19" s="37" t="s">
+      <c r="J19" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37" t="s">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="37"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="41"/>
       <c r="P19" s="24">
         <v>0.416666666666667</v>
       </c>
@@ -4145,313 +4138,357 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="20" ht="15.25" spans="1:17">
+      <c r="A20" s="21">
+        <v>10334697</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="41"/>
+      <c r="P20" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25"/>
+    <row r="22" customFormat="1" ht="15.25" spans="1:15">
       <c r="A22" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
+      <c r="E23" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27" t="s">
+      <c r="F23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A24" s="32">
+        <v>10210885</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="26" t="s">
+      <c r="C24" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="D24" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="35">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="O24" s="35">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:15">
+      <c r="A25" s="36">
+        <v>10259455</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="O22" s="27"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30" t="s">
+      <c r="D25" s="38">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G25" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H25" s="38">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J25" s="38">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K25" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="38">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O25" s="38">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:15">
+      <c r="A26" s="32">
+        <v>10293907</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="C26" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E26" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G26" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I26" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J26" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K26" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O26" s="35">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:15">
+      <c r="A27" s="32">
+        <v>10304876</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="O23" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="31">
-        <v>10210885</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="C27" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E27" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I27" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J27" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K27" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O27" s="35">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:15">
+      <c r="A28" s="32">
+        <v>10310365</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="34">
+      <c r="C28" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="35">
         <v>0.416666666666667</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E28" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="34">
+      <c r="F28" s="35">
         <v>0.416666666666667</v>
       </c>
-      <c r="I24" s="34">
+      <c r="G28" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="J24" s="34">
+      <c r="H28" s="35">
         <v>0.416666666666667</v>
       </c>
-      <c r="K24" s="34">
+      <c r="I28" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="L24" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="38" t="s">
+      <c r="J28" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K28" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L28" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="O24" s="38" t="s">
+      <c r="M28" s="44" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:15">
-      <c r="A25" s="31">
-        <v>10259455</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E25" s="34">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F25" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G25" s="34">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H25" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I25" s="34">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J25" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K25" s="34">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="N25" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O25" s="34">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:15">
-      <c r="A26" s="31">
-        <v>10293907</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="34">
+      <c r="N28" s="35">
         <v>0.416666666666667</v>
       </c>
-      <c r="E26" s="34">
+      <c r="O28" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="F26" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G26" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I26" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J26" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K26" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O26" s="34">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:15">
-      <c r="A27" s="31">
-        <v>10304876</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E27" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F27" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H27" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I27" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J27" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K27" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="M27" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="N27" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O27" s="34">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:15">
-      <c r="A28" s="31">
-        <v>10310365</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E28" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F28" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G28" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H28" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I28" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J28" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K28" s="34">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="N28" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O28" s="34">
-        <v>0.791666666666667</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="35">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -4465,14 +4502,20 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A22:A23"/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -1862,7 +1862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1976,6 +1976,9 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2472,342 +2475,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="74"/>
+      <c r="A2" s="75"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="78">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="87" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="80">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="89">
+      <c r="L5" s="90">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="N5" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="80">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="92">
+      <c r="L6" s="93">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="91" t="s">
+      <c r="N6" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="80">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="92">
+      <c r="L7" s="93">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="91" t="s">
+      <c r="N7" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="80">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="87" t="s">
+      <c r="J8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="92">
+      <c r="L8" s="93">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="90" t="s">
+      <c r="M8" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="91" t="s">
+      <c r="N8" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="92" t="s">
+      <c r="K9" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="92">
+      <c r="L9" s="93">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="91" t="s">
+      <c r="N9" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="92">
+      <c r="L10" s="93">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="91" t="s">
+      <c r="N10" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="92" t="s">
+      <c r="K11" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="93">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="90" t="s">
+      <c r="M11" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="91" t="s">
+      <c r="N11" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="80">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="92">
+      <c r="L12" s="93">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="90" t="s">
+      <c r="M12" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="91" t="s">
+      <c r="N12" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="87" t="s">
+      <c r="J13" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="92" t="s">
+      <c r="K13" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="92">
+      <c r="L13" s="93">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="90" t="s">
+      <c r="M13" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="91" t="s">
+      <c r="N13" s="92" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B14" s="80">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K14" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="92">
+      <c r="L14" s="93">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="90" t="s">
+      <c r="M14" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="91" t="s">
+      <c r="N14" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="80">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="80">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="80" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2844,627 +2847,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="47">
+      <c r="A4" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="48">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="47">
+      <c r="A6" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="48">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="47">
+      <c r="A7" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="48">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="47">
+      <c r="A8" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="48">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="45">
+      <c r="A9" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="46">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="45">
+      <c r="A10" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="46">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="45">
+      <c r="A11" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="46">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="45">
+      <c r="A12" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="46">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="45">
+      <c r="A13" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="46">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="46" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="45">
+      <c r="A14" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="46">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="45">
+      <c r="A15" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="46">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="50">
+      <c r="A18" s="51">
         <v>10259455</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="51">
+      <c r="C18" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="52">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="53">
+      <c r="A19" s="54">
         <v>10318223</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="54">
+      <c r="C19" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="55">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="53">
+      <c r="A20" s="54">
         <v>10314749</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="54">
+      <c r="C20" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="55">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="53">
+      <c r="A21" s="54">
         <v>10305637</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="54">
+      <c r="C21" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="55">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="53">
+      <c r="A22" s="54">
         <v>10322035</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="54">
+      <c r="C22" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="55">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="53">
+      <c r="A23" s="54">
         <v>10323953</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="54"/>
+      <c r="C23" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="57"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="54">
+      <c r="C24" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="55">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="57"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="54">
+      <c r="C25" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="55">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="57"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="54">
+      <c r="C26" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="55">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="54">
+      <c r="C27" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="55">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="57"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="55">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="54">
+      <c r="C28" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="55">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="58"/>
-      <c r="D33" s="59" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="62">
         <v>45756</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="62">
         <v>45757</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="62">
         <v>45758</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="62">
         <v>45759</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="62">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="64" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="67">
         <v>45762</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="67">
         <v>45763</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="67">
         <v>45764</v>
       </c>
-      <c r="H37" s="66">
+      <c r="H37" s="67">
         <v>45765</v>
       </c>
-      <c r="I37" s="66">
+      <c r="I37" s="67">
         <v>45766</v>
       </c>
-      <c r="J37" s="66">
+      <c r="J37" s="67">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="67">
+      <c r="C38" s="68">
         <v>10323953</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="69">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="69">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="69">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="70" t="s">
+      <c r="E38" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="70" t="s">
+      <c r="I38" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="69">
+      <c r="J38" s="70">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="69">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="69">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="69">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="70" t="s">
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="70" t="s">
+      <c r="I39" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="69">
+      <c r="J39" s="70">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3483,8 +3486,8 @@
   <sheetPr/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4119,18 +4122,20 @@
       <c r="I19" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="41">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K19" s="41">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L19" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41" t="s">
+      <c r="M19" s="42"/>
+      <c r="N19" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="24">
         <v>0.416666666666667</v>
       </c>
@@ -4166,18 +4171,20 @@
       <c r="I20" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="41">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K20" s="41">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L20" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41" t="s">
+      <c r="M20" s="42"/>
+      <c r="N20" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="O20" s="41"/>
+      <c r="O20" s="42"/>
       <c r="P20" s="24">
         <v>0.416666666666667</v>
       </c>
@@ -4185,7 +4192,6 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="21" ht="15.25"/>
     <row r="22" customFormat="1" ht="15.25" spans="1:15">
       <c r="A22" s="25" t="s">
         <v>114</v>
@@ -4212,10 +4218,10 @@
         <v>110</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="43" t="s">
         <v>112</v>
       </c>
       <c r="N22" s="28" t="s">
@@ -4251,8 +4257,8 @@
       <c r="K23" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="31" t="s">
         <v>124</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:15">
+    <row r="25" customFormat="1" ht="15.25" spans="1:15">
       <c r="A25" s="36">
         <v>10259455</v>
       </c>
@@ -4333,10 +4339,10 @@
       <c r="K25" s="38">
         <v>0.833333333333333</v>
       </c>
-      <c r="L25" s="44" t="s">
+      <c r="L25" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="44" t="s">
+      <c r="M25" s="45" t="s">
         <v>120</v>
       </c>
       <c r="N25" s="38">
@@ -4346,7 +4352,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:15">
+    <row r="26" customFormat="1" ht="15.25" spans="1:15">
       <c r="A26" s="32">
         <v>10293907</v>
       </c>
@@ -4380,10 +4386,10 @@
       <c r="K26" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="L26" s="44" t="s">
+      <c r="L26" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="44" t="s">
+      <c r="M26" s="45" t="s">
         <v>120</v>
       </c>
       <c r="N26" s="35">
@@ -4393,7 +4399,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:15">
+    <row r="27" customFormat="1" ht="15.25" spans="1:15">
       <c r="A27" s="32">
         <v>10304876</v>
       </c>
@@ -4427,10 +4433,10 @@
       <c r="K27" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="44" t="s">
+      <c r="M27" s="45" t="s">
         <v>120</v>
       </c>
       <c r="N27" s="35">
@@ -4440,7 +4446,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:15">
+    <row r="28" customFormat="1" ht="15.25" spans="1:15">
       <c r="A28" s="32">
         <v>10310365</v>
       </c>
@@ -4474,10 +4480,10 @@
       <c r="K28" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="M28" s="44" t="s">
+      <c r="M28" s="45" t="s">
         <v>120</v>
       </c>
       <c r="N28" s="35">
@@ -4488,7 +4494,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -4502,10 +4508,8 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="D22:E22"/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="140">
   <si>
     <r>
       <rPr>
@@ -477,25 +477,25 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 23, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 24, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 25, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 26, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 27, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 28, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 29, 2025</t>
+    <t>Monday, June 30, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, July 1, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, July 2, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, July 3, 2025</t>
+  </si>
+  <si>
+    <t>Friday, July 4, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, July 5, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, July 6, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -526,6 +526,27 @@
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>Monday, June 30</t>
+  </si>
+  <si>
+    <t>Tuesday, July 1</t>
+  </si>
+  <si>
+    <t>Wednesday, July 2</t>
+  </si>
+  <si>
+    <t>Thursday, July 3</t>
+  </si>
+  <si>
+    <t>Friday, July 4</t>
+  </si>
+  <si>
+    <t>Saturday, July 5</t>
+  </si>
+  <si>
+    <t>Sunday, July 6</t>
   </si>
   <si>
     <t>From</t>
@@ -1862,7 +1883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1901,34 +1922,34 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1978,17 +1999,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2475,342 +2487,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="75"/>
+      <c r="A2" s="72"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="75">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="84" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="77">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="87">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="91" t="s">
+      <c r="M5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="89" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="77">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="93" t="s">
+      <c r="K6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="90">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="92" t="s">
+      <c r="N6" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="77">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="93">
+      <c r="L7" s="90">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="77">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="93">
+      <c r="L8" s="90">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="91" t="s">
+      <c r="M8" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="88" t="s">
+      <c r="J9" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="K9" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="93">
+      <c r="L9" s="90">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="M9" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="88" t="s">
+      <c r="J10" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="93">
+      <c r="L10" s="90">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="91" t="s">
+      <c r="M10" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="92" t="s">
+      <c r="N10" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="88" t="s">
+      <c r="J11" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="93" t="s">
+      <c r="K11" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="93">
+      <c r="L11" s="90">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92" t="s">
+      <c r="N11" s="89" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="77">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="88" t="s">
+      <c r="J12" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="93">
+      <c r="L12" s="90">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="91" t="s">
+      <c r="M12" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="92" t="s">
+      <c r="N12" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="88" t="s">
+      <c r="J13" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="93">
+      <c r="L13" s="90">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="91" t="s">
+      <c r="M13" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="92" t="s">
+      <c r="N13" s="89" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="77">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="93" t="s">
+      <c r="K14" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="93">
+      <c r="L14" s="90">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="91" t="s">
+      <c r="M14" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="92" t="s">
+      <c r="N14" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="80">
+      <c r="B15" s="77">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="77" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="80">
+      <c r="B16" s="77">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="77" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2847,627 +2859,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="43" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="48">
+      <c r="A4" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="45">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="48">
+      <c r="A6" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="45">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="A7" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="45">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="48">
+      <c r="A8" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="45">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="A9" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="43">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="46">
+      <c r="A10" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="43">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="46">
+      <c r="A11" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="43">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="46">
+      <c r="A12" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="43">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="46">
+      <c r="A13" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="43">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="46">
+      <c r="A14" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="43">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="46">
+      <c r="A15" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="44">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="43">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="51">
+      <c r="A18" s="48">
         <v>10259455</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="52">
+      <c r="C18" s="50">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="49">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="54">
+      <c r="A19" s="51">
         <v>10318223</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="55">
+      <c r="C19" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="52">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="54">
+      <c r="A20" s="51">
         <v>10314749</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="55">
+      <c r="C20" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="52">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="54">
+      <c r="A21" s="51">
         <v>10305637</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="55">
+      <c r="C21" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="52">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="54">
+      <c r="A22" s="51">
         <v>10322035</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="55">
+      <c r="C22" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="52">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="54">
+      <c r="A23" s="51">
         <v>10323953</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="55"/>
+      <c r="C23" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="55">
+      <c r="C24" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="52">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="58"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="55">
+      <c r="C25" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="52">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="58"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="55">
+      <c r="C26" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="52">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="58"/>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="55">
+      <c r="C27" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="52">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="58"/>
-      <c r="B28" s="55" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="55">
+      <c r="C28" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="52">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="59"/>
-      <c r="D33" s="60" t="s">
+      <c r="C33" s="56"/>
+      <c r="D33" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="60" t="s">
+      <c r="H33" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="59">
         <v>45756</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="59">
         <v>45757</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="59">
         <v>45758</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="59">
         <v>45759</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="59">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="61" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="64">
         <v>45762</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="64">
         <v>45763</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="64">
         <v>45764</v>
       </c>
-      <c r="H37" s="67">
+      <c r="H37" s="64">
         <v>45765</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="64">
         <v>45766</v>
       </c>
-      <c r="J37" s="67">
+      <c r="J37" s="64">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="68">
+      <c r="C38" s="65">
         <v>10323953</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="71" t="s">
+      <c r="E38" s="67">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="67">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="67">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="71" t="s">
+      <c r="I38" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="70">
+      <c r="J38" s="67">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="71" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="67">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="67">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="67">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="71" t="s">
+      <c r="I39" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="70">
+      <c r="J39" s="67">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3486,8 +3498,8 @@
   <sheetPr/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3535,7 +3547,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="19.75" customHeight="1" spans="1:14">
+    <row r="3" ht="21.25" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:14">
+    <row r="4" ht="16.75" customHeight="1" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -4122,20 +4134,20 @@
       <c r="I19" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42" t="s">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="42"/>
+      <c r="O19" s="41"/>
       <c r="P19" s="24">
         <v>0.416666666666667</v>
       </c>
@@ -4143,7 +4155,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="20" ht="15.25" spans="1:17">
+    <row r="20" customFormat="1" ht="15.25" spans="1:17">
       <c r="A20" s="21">
         <v>10334697</v>
       </c>
@@ -4171,20 +4183,20 @@
       <c r="I20" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42" t="s">
+      <c r="M20" s="41"/>
+      <c r="N20" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="42"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="24">
         <v>0.416666666666667</v>
       </c>
@@ -4192,7 +4204,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.25" spans="1:15">
+    <row r="22" customFormat="1" spans="1:15">
       <c r="A22" s="25" t="s">
         <v>114</v>
       </c>
@@ -4203,109 +4215,109 @@
         <v>123</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="27"/>
+      <c r="F22" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="28"/>
       <c r="H22" s="28" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="L22" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>112</v>
+      <c r="L22" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" customFormat="1" ht="15.25" spans="1:15">
+    <row r="23" customFormat="1" spans="1:15">
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="31" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
+        <v>132</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
       <c r="N23" s="31" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="15.25" spans="1:15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:15">
       <c r="A24" s="32">
         <v>10210885</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D24" s="35">
-        <v>0.416666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="E24" s="35">
-        <v>0.791666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="35">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="O24" s="35">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="15.25" spans="1:15">
+        <v>135</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:15">
       <c r="A25" s="36">
         <v>10259455</v>
       </c>
@@ -4313,10 +4325,10 @@
         <v>79</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D25" s="38">
-        <v>0.375</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="E25" s="38">
         <v>0.833333333333333</v>
@@ -4339,10 +4351,10 @@
       <c r="K25" s="38">
         <v>0.833333333333333</v>
       </c>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="45" t="s">
+      <c r="M25" s="42" t="s">
         <v>120</v>
       </c>
       <c r="N25" s="38">
@@ -4352,15 +4364,15 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="15.25" spans="1:15">
+    <row r="26" customFormat="1" spans="1:15">
       <c r="A26" s="32">
         <v>10293907</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D26" s="35">
         <v>0.416666666666667</v>
@@ -4386,10 +4398,10 @@
       <c r="K26" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="L26" s="45" t="s">
+      <c r="L26" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="45" t="s">
+      <c r="M26" s="42" t="s">
         <v>120</v>
       </c>
       <c r="N26" s="35">
@@ -4399,15 +4411,15 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="15.25" spans="1:15">
+    <row r="27" customFormat="1" spans="1:15">
       <c r="A27" s="32">
         <v>10304876</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D27" s="35">
         <v>0.416666666666667</v>
@@ -4433,10 +4445,10 @@
       <c r="K27" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="L27" s="45" t="s">
+      <c r="L27" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="45" t="s">
+      <c r="M27" s="42" t="s">
         <v>120</v>
       </c>
       <c r="N27" s="35">
@@ -4446,15 +4458,15 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="15.25" spans="1:15">
+    <row r="28" customFormat="1" spans="1:15">
       <c r="A28" s="32">
         <v>10310365</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D28" s="35">
         <v>0.416666666666667</v>
@@ -4480,10 +4492,10 @@
       <c r="K28" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="42" t="s">
         <v>120</v>
       </c>
       <c r="N28" s="35">
@@ -4520,7 +4532,7 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B3:B4"/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="134">
   <si>
     <r>
       <rPr>
@@ -447,61 +447,100 @@
     <t>Agent Name</t>
   </si>
   <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Mohamed Mahmoud Abdelaziz</t>
-  </si>
-  <si>
-    <t>Talabat - Quality</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Monday, June 30, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, July 1, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, July 2, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, July 3, 2025</t>
-  </si>
-  <si>
-    <t>Friday, July 4, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, July 5, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, July 6, 2025</t>
+    <t>Start shift</t>
+  </si>
+  <si>
+    <t>End shift</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Fri - Sat</t>
+  </si>
+  <si>
+    <t>Youssef Fouad</t>
+  </si>
+  <si>
+    <t>Noureldin ibrahim</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Abdullah</t>
+  </si>
+  <si>
+    <t>Momen Medhat</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelaziz</t>
+  </si>
+  <si>
+    <t>Seifeldin Magdy</t>
+  </si>
+  <si>
+    <t>Karim Elsaid Gharib Omar</t>
+  </si>
+  <si>
+    <t>Abeer Ahmed</t>
+  </si>
+  <si>
+    <t>Adham Naser</t>
+  </si>
+  <si>
+    <t>Haidy Mashaly</t>
   </si>
   <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Module</t>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Monday, July 7</t>
+  </si>
+  <si>
+    <t>Tuesday, July 8</t>
+  </si>
+  <si>
+    <t>Wednesday, July 9</t>
+  </si>
+  <si>
+    <t>Thursday, July 10</t>
+  </si>
+  <si>
+    <t>Friday, July 11</t>
+  </si>
+  <si>
+    <t>Saturday, July 12</t>
+  </si>
+  <si>
+    <t>Sunday, July 13</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Toqa Badry</t>
+  </si>
+  <si>
+    <t>Sarah Alzuhairi</t>
+  </si>
+  <si>
+    <t>Fatma Hamdy</t>
+  </si>
+  <si>
+    <t>طلبات RTAs مواعيد ثابتة دائماً اجازة جمعة و سبت</t>
+  </si>
+  <si>
+    <t>HRID</t>
   </si>
   <si>
     <t>Shift Start</t>
@@ -510,88 +549,125 @@
     <t>Shift End</t>
   </si>
   <si>
-    <t>Yara Emad</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Karim Fawzy</t>
-  </si>
-  <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Monday, June 30</t>
-  </si>
-  <si>
-    <t>Tuesday, July 1</t>
-  </si>
-  <si>
-    <t>Wednesday, July 2</t>
-  </si>
-  <si>
-    <t>Thursday, July 3</t>
-  </si>
-  <si>
-    <t>Friday, July 4</t>
-  </si>
-  <si>
-    <t>Saturday, July 5</t>
-  </si>
-  <si>
-    <t>Sunday, July 6</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Ahmed Hafiz</t>
-  </si>
-  <si>
-    <t>Training Manager</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Trainer</t>
-  </si>
-  <si>
-    <t>Toqa Badry</t>
-  </si>
-  <si>
-    <t>Sarah Alzuhairi</t>
-  </si>
-  <si>
-    <t>Fatma Hamdy</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>احمد</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>عطية</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Moha</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ed hany</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ahme</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Sobhe</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="00000000000"/>
-    <numFmt numFmtId="181" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -605,22 +681,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,14 +691,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="IBM Plex Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="IBM Plex Sans"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -644,6 +699,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -687,6 +763,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -860,7 +942,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="53">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,37 +951,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5A00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFF85208"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C343D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B5394"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,25 +975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0C343D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,12 +1011,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1174,7 +1226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1184,214 +1236,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFB7B7B7"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,21 +1307,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,403 +1592,361 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="10" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="18" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2204,7 +2001,24 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F85208"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2487,342 +2301,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="72"/>
+      <c r="A2" s="58"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="61">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="63">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="87">
+      <c r="L5" s="73">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="88" t="s">
+      <c r="M5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="89" t="s">
+      <c r="N5" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="63">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L6" s="76">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="89" t="s">
+      <c r="N6" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="63">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="85" t="s">
+      <c r="J7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="76">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="63">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="76">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="88" t="s">
+      <c r="M8" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="89" t="s">
+      <c r="N8" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="90">
+      <c r="L9" s="76">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="89" t="s">
+      <c r="N9" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="76">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="88" t="s">
+      <c r="M10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="89" t="s">
+      <c r="N10" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="90" t="s">
+      <c r="K11" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="76">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="88" t="s">
+      <c r="M11" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="89" t="s">
+      <c r="N11" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="63">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="76">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="88" t="s">
+      <c r="M12" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="89" t="s">
+      <c r="N12" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="K13" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="76">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="88" t="s">
+      <c r="M13" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="89" t="s">
+      <c r="N13" s="75" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="63">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="85" t="s">
+      <c r="J14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="90" t="s">
+      <c r="K14" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="76">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="89" t="s">
+      <c r="N14" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="77">
+      <c r="B15" s="63">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="63" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="63">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="63" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2859,627 +2673,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="45">
+      <c r="A4" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="31">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="45">
+      <c r="A6" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="31">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="45">
+      <c r="A7" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="31">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="A8" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="31">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="43">
+      <c r="A9" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="29">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="43">
+      <c r="A10" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="29">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="43">
+      <c r="A11" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="29">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="43">
+      <c r="A12" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="29">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="43">
+      <c r="A13" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="29">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="43">
+      <c r="A14" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="29">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="44">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="43">
+      <c r="A15" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="29">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="48">
+      <c r="A18" s="34">
         <v>10259455</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="50">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="50">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="49">
+      <c r="C18" s="36">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="35">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="51">
+      <c r="A19" s="37">
         <v>10318223</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="52">
+      <c r="C19" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="38">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="51">
+      <c r="A20" s="37">
         <v>10314749</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="52">
+      <c r="C20" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="38">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="51">
+      <c r="A21" s="37">
         <v>10305637</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="52">
+      <c r="C21" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="38">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="51">
+      <c r="A22" s="37">
         <v>10322035</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="52">
+      <c r="C22" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="38">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="51">
+      <c r="A23" s="37">
         <v>10323953</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="52"/>
+      <c r="C23" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="55"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="52">
+      <c r="C24" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="38">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="55"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="52">
+      <c r="C25" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="38">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="55"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="52">
+      <c r="C26" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="38">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="52">
+      <c r="C27" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="38">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="55"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="52">
+      <c r="C28" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="38">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="56"/>
-      <c r="D33" s="57" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="45">
         <v>45756</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="45">
         <v>45757</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="45">
         <v>45758</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G34" s="45">
         <v>45759</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="45">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="47" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="50">
         <v>45762</v>
       </c>
-      <c r="F37" s="64">
+      <c r="F37" s="50">
         <v>45763</v>
       </c>
-      <c r="G37" s="64">
+      <c r="G37" s="50">
         <v>45764</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="50">
         <v>45765</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="50">
         <v>45766</v>
       </c>
-      <c r="J37" s="64">
+      <c r="J37" s="50">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="65">
+      <c r="C38" s="51">
         <v>10323953</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="67">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="68" t="s">
+      <c r="E38" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="68" t="s">
+      <c r="I38" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="67">
+      <c r="J38" s="53">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="67">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="67">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="67">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="68" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="68" t="s">
+      <c r="I39" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="67">
+      <c r="J39" s="53">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3496,10 +3310,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:O28"/>
+      <selection activeCell="A4" sqref="A4:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3524,1023 +3338,644 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" ht="15.25" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="21.25" customHeight="1" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.25"/>
+    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A4" s="5">
+        <v>10305637</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A5" s="5">
+        <v>10331412</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A6" s="5">
+        <v>10322712</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A7" s="5">
+        <v>10331426</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A8" s="5">
+        <v>10331422</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A9" s="5">
+        <v>10273655</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="39" t="s">
+      <c r="C9" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A10" s="5">
+        <v>10287526</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="C10" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A11" s="5">
+        <v>10334426</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" ht="16.75" customHeight="1" spans="1:14">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:14">
-      <c r="A5" s="11">
-        <v>10305637</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:14">
-      <c r="A6" s="11">
-        <v>10322035</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C11" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A12" s="5">
+        <v>10334497</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="1:14">
-      <c r="A7" s="11">
-        <v>10331412</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="1:14">
-      <c r="A8" s="11">
-        <v>10331413</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="1:14">
-      <c r="A9" s="11">
-        <v>10331414</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:14">
-      <c r="A10" s="11">
-        <v>10322712</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="11">
-        <v>10331426</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="1:14">
-      <c r="A12" s="11">
-        <v>10331422</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:14">
-      <c r="A13" s="11">
-        <v>10331421</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K13" s="13">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="C12" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A13" s="5">
+        <v>10334495</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A17" s="15" t="s">
+      <c r="C13" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A14" s="5">
+        <v>10335547</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16" t="s">
+      <c r="C14" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A15" s="5">
+        <v>10335550</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
+      <c r="C15" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A16" s="5">
+        <v>10335545</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="C16" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A17" s="5">
+        <v>10335548</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
+      <c r="C17" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A18" s="5">
+        <v>10335696</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16" t="s">
+      <c r="C18" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15.25"/>
+    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16" t="s">
+      <c r="B20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16" t="s">
+      <c r="C20" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A18" s="17" t="s">
+      <c r="D20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A22" s="14">
+        <v>10259455</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A23" s="18">
+        <v>10293907</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O23" s="20">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A24" s="18">
+        <v>10304876</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K24" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O24" s="20">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A25" s="18">
+        <v>10310365</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K25" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O25" s="20">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A19" s="21">
-        <v>10250874</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="24">
+      <c r="C29" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="25">
+        <v>10335595</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
+      <c r="A31" s="25">
+        <v>10238685</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="E19" s="24">
+      <c r="D31" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="F19" s="24">
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="25">
+        <v>10322837</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="G19" s="24">
+      <c r="D32" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="H19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I19" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K19" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L19" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A20" s="21">
-        <v>10334697</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E20" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F20" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I20" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J20" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K20" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="O20" s="41"/>
-      <c r="P20" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:15">
-      <c r="A22" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:15">
-      <c r="A24" s="32">
-        <v>10210885</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E24" s="35">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" s="33"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:15">
-      <c r="A25" s="36">
-        <v>10259455</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="38">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E25" s="38">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F25" s="38">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G25" s="38">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H25" s="38">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I25" s="38">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J25" s="38">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K25" s="38">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="N25" s="38">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O25" s="38">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:15">
-      <c r="A26" s="32">
-        <v>10293907</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E26" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F26" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G26" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H26" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I26" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J26" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K26" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O26" s="35">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:15">
-      <c r="A27" s="32">
-        <v>10304876</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E27" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F27" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G27" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I27" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J27" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K27" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L27" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="N27" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O27" s="35">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:15">
-      <c r="A28" s="32">
-        <v>10310365</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E28" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F28" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G28" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H28" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I28" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J28" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K28" s="35">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="N28" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O28" s="35">
-        <v>0.791666666666667</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L20:M20"/>
+  <mergeCells count="11">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
   </mergeCells>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -459,36 +459,39 @@
     <t>Fri - Sat</t>
   </si>
   <si>
+    <t>Momen Medhat</t>
+  </si>
+  <si>
+    <t>Sat - Sun</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelaziz</t>
+  </si>
+  <si>
+    <t>Seifeldin Magdy</t>
+  </si>
+  <si>
+    <t>Karim Elsaid Gharib Omar</t>
+  </si>
+  <si>
+    <t>Abeer Ahmed</t>
+  </si>
+  <si>
     <t>Youssef Fouad</t>
   </si>
   <si>
+    <t>Adham Naser</t>
+  </si>
+  <si>
     <t>Noureldin ibrahim</t>
   </si>
   <si>
+    <t>Haidy Mashaly</t>
+  </si>
+  <si>
     <t>Mohamed Ahmed Abdullah</t>
   </si>
   <si>
-    <t>Momen Medhat</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelaziz</t>
-  </si>
-  <si>
-    <t>Seifeldin Magdy</t>
-  </si>
-  <si>
-    <t>Karim Elsaid Gharib Omar</t>
-  </si>
-  <si>
-    <t>Abeer Ahmed</t>
-  </si>
-  <si>
-    <t>Adham Naser</t>
-  </si>
-  <si>
-    <t>Haidy Mashaly</t>
-  </si>
-  <si>
     <t>Employee ID</t>
   </si>
   <si>
@@ -498,31 +501,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Monday, July 7</t>
-  </si>
-  <si>
-    <t>Tuesday, July 8</t>
-  </si>
-  <si>
-    <t>Wednesday, July 9</t>
-  </si>
-  <si>
-    <t>Thursday, July 10</t>
-  </si>
-  <si>
-    <t>Friday, July 11</t>
-  </si>
-  <si>
-    <t>Saturday, July 12</t>
-  </si>
-  <si>
-    <t>Sunday, July 13</t>
+    <t>Monday, July 14</t>
+  </si>
+  <si>
+    <t>Tuesday, July 15</t>
+  </si>
+  <si>
+    <t>Wednesday, July 16</t>
+  </si>
+  <si>
+    <t>Thursday, July 17</t>
+  </si>
+  <si>
+    <t>Friday, July 18</t>
+  </si>
+  <si>
+    <t>Saturday, July 19</t>
+  </si>
+  <si>
+    <t>Sunday, July 20</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
     <t>To</t>
+  </si>
+  <si>
+    <t>Ahmed Hafiz</t>
+  </si>
+  <si>
+    <t>Training Manager</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Trainer</t>
@@ -695,7 +707,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -723,15 +740,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -942,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +969,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF5A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0C343D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -969,12 +993,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1226,7 +1244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1246,6 +1264,66 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1645F7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1645F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1645F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1645F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1645F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,6 +1389,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1645F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1645F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1358,21 +1466,6 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1598,7 +1691,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1610,119 +1703,119 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1730,53 +1823,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1784,106 +1877,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="11" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1894,59 +1996,59 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2301,342 +2403,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="64">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="73" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="66">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="76">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="N5" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="66">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="79">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="75" t="s">
+      <c r="N6" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="66">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="76">
+      <c r="L7" s="79">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="74" t="s">
+      <c r="M7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="66">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="76">
+      <c r="L8" s="79">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="74" t="s">
+      <c r="M8" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="75" t="s">
+      <c r="N8" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="76">
+      <c r="L9" s="79">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="74" t="s">
+      <c r="M9" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="N9" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="79">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="74" t="s">
+      <c r="M10" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="75" t="s">
+      <c r="N10" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="76" t="s">
+      <c r="K11" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="79">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="75" t="s">
+      <c r="N11" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="66">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="79">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="74" t="s">
+      <c r="M12" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="76">
+      <c r="L13" s="79">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="74" t="s">
+      <c r="M13" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="75" t="s">
+      <c r="N13" s="78" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="66">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="79">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="74" t="s">
+      <c r="M14" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="75" t="s">
+      <c r="N14" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="66">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="66" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="66">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="66" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2673,627 +2775,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="34">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="34">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="34">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="34">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="A9" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="32">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="A10" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="32">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="A11" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="32">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="A12" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="32">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="A13" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="32">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="A14" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="32">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="A15" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="32">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="34">
+      <c r="A18" s="37">
         <v>10259455</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="36">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="36">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="35">
+      <c r="C18" s="39">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="38">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="37">
+      <c r="A19" s="40">
         <v>10318223</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="C19" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="41">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="37">
+      <c r="A20" s="40">
         <v>10314749</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="C20" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="41">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="37">
+      <c r="A21" s="40">
         <v>10305637</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="C21" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="41">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="37">
+      <c r="A22" s="40">
         <v>10322035</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="C22" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="41">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="37">
+      <c r="A23" s="40">
         <v>10323953</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="38"/>
+      <c r="C23" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="C24" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="41">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="38">
+      <c r="C25" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="41">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="41"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="38">
+      <c r="C26" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="41">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="38">
+      <c r="C27" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="41">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="41"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="38">
+      <c r="C28" s="42">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="42">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="41">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="42"/>
-      <c r="D33" s="43" t="s">
+      <c r="C33" s="45"/>
+      <c r="D33" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="46" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="48">
         <v>45756</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="48">
         <v>45757</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="48">
         <v>45758</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="48">
         <v>45759</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="48">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="47" t="s">
+      <c r="H35" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="53">
         <v>45762</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="53">
         <v>45763</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37" s="53">
         <v>45764</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="53">
         <v>45765</v>
       </c>
-      <c r="I37" s="50">
+      <c r="I37" s="53">
         <v>45766</v>
       </c>
-      <c r="J37" s="50">
+      <c r="J37" s="53">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="51">
+      <c r="C38" s="54">
         <v>10323953</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="54" t="s">
+      <c r="E38" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="54" t="s">
+      <c r="I38" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="56">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="54" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="54" t="s">
+      <c r="I39" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="56">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3313,7 +3415,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D18"/>
+      <selection activeCell="G4" sqref="G4:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3324,11 +3426,11 @@
     <col min="4" max="4" width="11.3636363636364" customWidth="1"/>
     <col min="5" max="5" width="10.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="11.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="10.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="11.3636363636364" customWidth="1"/>
-    <col min="9" max="9" width="10.2727272727273" customWidth="1"/>
-    <col min="10" max="10" width="11.3636363636364" customWidth="1"/>
-    <col min="11" max="11" width="10.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="9.54545454545454" customWidth="1"/>
+    <col min="8" max="8" width="24.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="8.72727272727273" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="12.0909090909091" customWidth="1"/>
     <col min="13" max="13" width="15.8181818181818" customWidth="1"/>
     <col min="14" max="14" width="10.3636363636364" customWidth="1"/>
@@ -3351,7 +3453,7 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25"/>
-    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -3367,440 +3469,552 @@
       <c r="E3" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A4" s="5">
+      <c r="G3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="7">
         <v>10305637</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A5" s="5">
+      <c r="G4" s="9">
+        <v>10334497</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="7">
         <v>10331412</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A6" s="5">
+      <c r="G5" s="9">
+        <v>10334495</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="A6" s="7">
         <v>10322712</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A7" s="5">
+      <c r="G6" s="9">
+        <v>10335547</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="A7" s="7">
         <v>10331426</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A8" s="5">
+      <c r="G7" s="9">
+        <v>10335550</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="A8" s="7">
         <v>10331422</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A9" s="5">
+      <c r="G8" s="9">
+        <v>10335545</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="A9" s="7">
         <v>10273655</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9">
+        <v>10335548</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="A10" s="7">
+        <v>10287526</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="9">
+        <v>10335696</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A11" s="7">
+        <v>10334426</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A12" s="7">
+        <v>10334497</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C12" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A10" s="5">
-        <v>10287526</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E10" s="5" t="s">
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A13" s="7">
+        <v>10334495</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A11" s="5">
-        <v>10334426</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E11" s="5" t="s">
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A14" s="7">
+        <v>10335547</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A12" s="5">
-        <v>10334497</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E12" s="5" t="s">
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A15" s="7">
+        <v>10335550</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A13" s="5">
-        <v>10334495</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A16" s="7">
+        <v>10335545</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="5">
-        <v>10335547</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E14" s="5" t="s">
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A17" s="7">
+        <v>10335548</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="5">
-        <v>10335550</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E15" s="5" t="s">
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A18" s="7">
+        <v>10335696</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="5">
-        <v>10335545</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="5">
-        <v>10335548</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="5">
-        <v>10335696</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="19" s="1" customFormat="1" ht="15.25"/>
-    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="20" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
+      <c r="D20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="8" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="K20" s="13"/>
+      <c r="L20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="M20" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13" t="s">
+      <c r="N20" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="E21" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="13" t="s">
+      <c r="G21" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" s="13" t="s">
+      <c r="I21" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" s="13" t="s">
+      <c r="K21" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A22" s="14">
+      <c r="O21" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A22" s="17">
+        <v>10210885</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A23" s="17">
         <v>10259455</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K22" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L22" s="28" t="s">
+      <c r="C23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="N22" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O22" s="17">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A23" s="18">
+      <c r="N23" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O23" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A24" s="17">
         <v>10293907</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E23" s="20">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H23" s="20">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I23" s="20">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J23" s="20">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K23" s="20">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="N23" s="20">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O23" s="20">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A24" s="18">
-        <v>10304876</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>123</v>
+      <c r="B24" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="D24" s="20">
         <v>0.416666666666667</v>
@@ -3826,10 +4040,10 @@
       <c r="K24" s="20">
         <v>0.791666666666667</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="31" t="s">
         <v>99</v>
       </c>
       <c r="N24" s="20">
@@ -3839,15 +4053,15 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A25" s="18">
-        <v>10310365</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>123</v>
+    <row r="25" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A25" s="17">
+        <v>10304876</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="D25" s="20">
         <v>0.416666666666667</v>
@@ -3873,10 +4087,10 @@
       <c r="K25" s="20">
         <v>0.791666666666667</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="31" t="s">
         <v>99</v>
       </c>
       <c r="N25" s="20">
@@ -3886,18 +4100,62 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A26" s="17">
+        <v>10310365</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K26" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O26" s="20">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
     <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
     </row>
     <row r="28" ht="15.25" spans="1:4">
       <c r="A28" s="23" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -3905,16 +4163,16 @@
     </row>
     <row r="29" ht="15.25" spans="1:4">
       <c r="A29" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:4">
@@ -3922,7 +4180,7 @@
         <v>10335595</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C30" s="27">
         <v>0.458333333333333</v>
@@ -3936,7 +4194,7 @@
         <v>10238685</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C31" s="27">
         <v>0.416666666666667</v>
@@ -3950,7 +4208,7 @@
         <v>10322837</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C32" s="27">
         <v>0.416666666666667</v>
@@ -3960,12 +4218,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="N20:O20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="N22:O22"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
@@ -3973,7 +4235,7 @@
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="M20:M21"/>
   </mergeCells>
-  <conditionalFormatting sqref="A$1:A$1048576">
+  <conditionalFormatting sqref="A1:A19 A26:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="152">
   <si>
     <r>
       <rPr>
@@ -459,37 +459,55 @@
     <t>Fri - Sat</t>
   </si>
   <si>
-    <t>Momen Medhat</t>
-  </si>
-  <si>
-    <t>Sat - Sun</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelaziz</t>
-  </si>
-  <si>
-    <t>Seifeldin Magdy</t>
-  </si>
-  <si>
-    <t>Karim Elsaid Gharib Omar</t>
-  </si>
-  <si>
-    <t>Abeer Ahmed</t>
-  </si>
-  <si>
     <t>Youssef Fouad</t>
   </si>
   <si>
-    <t>Adham Naser</t>
-  </si>
-  <si>
     <t>Noureldin ibrahim</t>
   </si>
   <si>
-    <t>Haidy Mashaly</t>
-  </si>
-  <si>
     <t>Mohamed Ahmed Abdullah</t>
+  </si>
+  <si>
+    <t>Temp ID</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Omnia Gamal Abdelsalam</t>
+  </si>
+  <si>
+    <t>المريوطية</t>
+  </si>
+  <si>
+    <t>امنية جمال عبد السلام</t>
+  </si>
+  <si>
+    <t>Mariam Tarek</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
+    <t>مريم طارق</t>
+  </si>
+  <si>
+    <t>Rana Badr eldeen</t>
+  </si>
+  <si>
+    <t>البوابة 2 الجديدة</t>
+  </si>
+  <si>
+    <t>رنا بدر الدين</t>
+  </si>
+  <si>
+    <t>Menna Rehan</t>
+  </si>
+  <si>
+    <t>منة ريحان</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -656,6 +674,30 @@
       <t xml:space="preserve"> Sobhe</t>
     </r>
   </si>
+  <si>
+    <t>Momen Medhat</t>
+  </si>
+  <si>
+    <t>Sat - Sun</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelaziz</t>
+  </si>
+  <si>
+    <t>Seifeldin Magdy</t>
+  </si>
+  <si>
+    <t>Karim Elsaid Gharib Omar</t>
+  </si>
+  <si>
+    <t>Abeer Ahmed</t>
+  </si>
+  <si>
+    <t>Adham Naser</t>
+  </si>
+  <si>
+    <t>Haidy Mashaly</t>
+  </si>
 </sst>
 </file>
 
@@ -670,7 +712,7 @@
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,16 +742,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -737,6 +785,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -969,43 +1024,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C343D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B5394"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF5A00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0C343D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEAF6"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,12 +1114,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1101,12 +1162,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1244,7 +1299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1268,47 +1323,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF1645F7"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF1645F7"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color rgb="FF1645F7"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF1645F7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF1645F7"/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,7 +1361,20 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF999999"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,6 +1441,36 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF1645F7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1645F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1645F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1645F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1645F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -1405,6 +1486,21 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -1414,22 +1510,7 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1685,137 +1766,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1823,52 +1904,64 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1880,175 +1973,184 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="13" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2403,342 +2505,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="61"/>
+      <c r="A2" s="68"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="71">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="80" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="73">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="83">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="73">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="86">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="73">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="80" t="s">
+      <c r="K7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="86">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="77" t="s">
+      <c r="M7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="73">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="86">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="77" t="s">
+      <c r="M8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="79">
+      <c r="L9" s="86">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="77" t="s">
+      <c r="M9" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="78" t="s">
+      <c r="N9" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="86">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="77" t="s">
+      <c r="M10" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="78" t="s">
+      <c r="N10" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="86">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="73">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="86">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="78" t="s">
+      <c r="N12" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="86">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="77" t="s">
+      <c r="M13" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="78" t="s">
+      <c r="N13" s="85" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="73">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="74" t="s">
+      <c r="J14" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="79" t="s">
+      <c r="K14" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="86">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="77" t="s">
+      <c r="M14" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="78" t="s">
+      <c r="N14" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="73">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="73" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="73">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="73" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2775,627 +2877,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="39" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33">
+      <c r="A4" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="41">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33">
+      <c r="A5" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33">
+      <c r="A6" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="41">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33">
+      <c r="A7" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="41">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33">
+      <c r="A8" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="41">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33">
+      <c r="A9" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="39">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="33">
+      <c r="A10" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="39">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="33">
+      <c r="A11" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="39">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="33">
+      <c r="A12" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="39">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="33">
+      <c r="A13" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="39">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="33">
+      <c r="A14" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="39">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="33">
+      <c r="A15" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="39">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="37">
+      <c r="A18" s="44">
         <v>10259455</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="46">
         <v>0.833333333333333</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="45">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="40">
+      <c r="A19" s="47">
         <v>10318223</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="48">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="40">
+      <c r="A20" s="47">
         <v>10314749</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="48">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="40">
+      <c r="A21" s="47">
         <v>10305637</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="48">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="40">
+      <c r="A22" s="47">
         <v>10322035</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="48">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="40">
+      <c r="A23" s="47">
         <v>10323953</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="48">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="44"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="48">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="44"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="48">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="44"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="48">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="44"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="49">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="49">
         <v>0.833333333333333</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="48">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="45"/>
-      <c r="D33" s="46" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="53" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="55">
         <v>45756</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="55">
         <v>45757</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="55">
         <v>45758</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="55">
         <v>45759</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="55">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="57" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="60">
         <v>45762</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="60">
         <v>45763</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="60">
         <v>45764</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="60">
         <v>45765</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="60">
         <v>45766</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="60">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="54">
+      <c r="C38" s="61">
         <v>10323953</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38" s="63">
         <v>0.458333333333333</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="63">
         <v>0.458333333333333</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="63">
         <v>0.458333333333333</v>
       </c>
-      <c r="H38" s="57" t="s">
+      <c r="H38" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="57" t="s">
+      <c r="I38" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="56">
+      <c r="J38" s="63">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="56">
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="63">
         <v>0.833333333333333</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="63">
         <v>0.833333333333333</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="63">
         <v>0.833333333333333</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="H39" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="57" t="s">
+      <c r="I39" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="56">
+      <c r="J39" s="63">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3412,10 +3514,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3427,7 +3529,7 @@
     <col min="5" max="5" width="10.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="11.3636363636364" customWidth="1"/>
     <col min="7" max="7" width="9.54545454545454" customWidth="1"/>
-    <col min="8" max="8" width="24.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="10.7272727272727" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="8.72727272727273" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
@@ -3469,752 +3571,864 @@
       <c r="E3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A4" s="5">
+        <v>10305637</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A5" s="5">
+        <v>10331412</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A6" s="5">
+        <v>10322712</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A7" s="5">
+        <v>10331426</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A8" s="5">
+        <v>10331422</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A9" s="5">
+        <v>10273655</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A10" s="5">
+        <v>10287526</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A11" s="5">
+        <v>10334426</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="D13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="E13" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="7">
-        <v>10305637</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A14" s="9">
+        <v>30105102</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="9">
-        <v>10334497</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="J4" s="29">
+      <c r="F14" s="9">
+        <v>30105102</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1155998440</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A15" s="9">
+        <v>29901310</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D15" s="12">
         <v>0.25</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
-      <c r="A5" s="7">
-        <v>10331412</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="E15" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="9">
-        <v>10334495</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="J5" s="29">
+      <c r="F15" s="9">
+        <v>29901310</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1094405645</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A16" s="9">
+        <v>28711298</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D16" s="12">
         <v>0.25</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6" s="7">
-        <v>10322712</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="E16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="9">
-        <v>10335547</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="J6" s="29">
+      <c r="F16" s="9">
+        <v>28711298</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1280438382</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A17" s="9">
+        <v>29408200</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D17" s="12">
         <v>0.25</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="7">
-        <v>10331426</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="E17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="9">
-        <v>10335550</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="J7" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="7">
-        <v>10331422</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="9">
-        <v>10335545</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="J8" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:11">
-      <c r="A9" s="7">
-        <v>10273655</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="9">
-        <v>10335548</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="J9" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="7">
-        <v>10287526</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="9">
-        <v>10335696</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="J10" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A11" s="7">
-        <v>10334426</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="F17" s="9">
+        <v>29408200</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A12" s="7">
-        <v>10334497</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A13" s="7">
-        <v>10334495</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="7">
-        <v>10335547</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="7">
-        <v>10335550</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="7">
-        <v>10335545</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="7">
-        <v>10335548</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="7">
-        <v>10335696</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="H17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1095680472</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.25"/>
     <row r="20" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A20" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12" t="s">
+      <c r="B20" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="C20" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="D20" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="O20" s="13"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="17"/>
     </row>
     <row r="21" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>123</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A22" s="17">
+      <c r="A22" s="21">
         <v>10210885</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="20">
+      <c r="B22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="O22" s="18"/>
+      <c r="L22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A23" s="17">
+      <c r="A23" s="21">
         <v>10259455</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="20">
+      <c r="C23" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="24">
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A24" s="17">
+      <c r="A24" s="21">
         <v>10293907</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="20">
+      <c r="B24" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="L24" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="24">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A25" s="17">
+      <c r="A25" s="21">
         <v>10304876</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="20">
+      <c r="B25" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="24">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A26" s="17">
+      <c r="A26" s="21">
         <v>10310365</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="B26" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="24">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" ht="15.25" spans="1:4">
-      <c r="A28" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>134</v>
+      <c r="C29" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="25">
+      <c r="A30" s="29">
         <v>10335595</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="27">
+      <c r="B30" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="31">
         <v>0.458333333333333</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="31">
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="25">
+      <c r="A31" s="29">
         <v>10238685</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="27">
+      <c r="B31" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="31">
         <v>0.416666666666667</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="31">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="25">
+      <c r="A32" s="29">
         <v>10322837</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="B32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="31">
         <v>0.416666666666667</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="31">
         <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25"/>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="35">
+        <v>10334497</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:5">
+      <c r="A36" s="35">
+        <v>10334495</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:5">
+      <c r="A37" s="35">
+        <v>10335547</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:5">
+      <c r="A38" s="35">
+        <v>10335550</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:5">
+      <c r="A39" s="35">
+        <v>10335545</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:5">
+      <c r="A40" s="35">
+        <v>10335548</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:5">
+      <c r="A41" s="35">
+        <v>10335696</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4235,8 +4449,11 @@
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="M20:M21"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A19 A26:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A1:A11 A19:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A11 A19 A26:A33 A42:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -3798,7 +3798,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D14" s="12">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>100</v>
@@ -3830,7 +3830,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D15" s="12">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>100</v>
@@ -3862,7 +3862,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D16" s="12">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>100</v>
@@ -3894,7 +3894,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D17" s="12">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>100</v>
@@ -4295,7 +4295,7 @@
       </c>
     </row>
     <row r="33" ht="15.25"/>
-    <row r="34" ht="15.25" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="32" t="s">
         <v>94</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" ht="15.25" spans="1:5">
+    <row r="35" spans="1:5">
       <c r="A35" s="35">
         <v>10334497</v>
       </c>
@@ -4323,13 +4323,13 @@
         <v>0.375</v>
       </c>
       <c r="D35" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E35" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" ht="15.25" spans="1:5">
+    <row r="36" spans="1:5">
       <c r="A36" s="35">
         <v>10334495</v>
       </c>
@@ -4340,13 +4340,13 @@
         <v>0.375</v>
       </c>
       <c r="D36" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E36" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" ht="15.25" spans="1:5">
+    <row r="37" spans="1:5">
       <c r="A37" s="35">
         <v>10335547</v>
       </c>
@@ -4357,13 +4357,13 @@
         <v>0.375</v>
       </c>
       <c r="D37" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E37" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" ht="15.25" spans="1:5">
+    <row r="38" spans="1:5">
       <c r="A38" s="35">
         <v>10335550</v>
       </c>
@@ -4374,13 +4374,13 @@
         <v>0.375</v>
       </c>
       <c r="D38" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E38" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" ht="15.25" spans="1:5">
+    <row r="39" spans="1:5">
       <c r="A39" s="35">
         <v>10335545</v>
       </c>
@@ -4391,13 +4391,13 @@
         <v>0.375</v>
       </c>
       <c r="D39" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E39" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" ht="15.25" spans="1:5">
+    <row r="40" spans="1:5">
       <c r="A40" s="35">
         <v>10335548</v>
       </c>
@@ -4408,13 +4408,13 @@
         <v>0.375</v>
       </c>
       <c r="D40" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E40" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" ht="15.25" spans="1:5">
+    <row r="41" spans="1:5">
       <c r="A41" s="35">
         <v>10335696</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>0.375</v>
       </c>
       <c r="D41" s="11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E41" s="37" t="s">
         <v>145</v>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="160">
   <si>
     <r>
       <rPr>
@@ -468,6 +468,33 @@
     <t>Mohamed Ahmed Abdullah</t>
   </si>
   <si>
+    <t>Mohamed El Habashy</t>
+  </si>
+  <si>
+    <t>Ahmed Taha</t>
+  </si>
+  <si>
+    <t>Habiba Amr</t>
+  </si>
+  <si>
+    <t>Muhammad Attiyah</t>
+  </si>
+  <si>
+    <t>Passant Iraqi</t>
+  </si>
+  <si>
+    <t>Hassan Osama</t>
+  </si>
+  <si>
+    <t>Jescar Joseph Makar</t>
+  </si>
+  <si>
+    <t>Amr Ellethy</t>
+  </si>
+  <si>
+    <t>Salma Ahmed Taima</t>
+  </si>
+  <si>
     <t>Temp ID</t>
   </si>
   <si>
@@ -577,38 +604,6 @@
   </si>
   <si>
     <t>Shift End</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>احمد</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>عطية</t>
-    </r>
   </si>
   <si>
     <r>
@@ -742,14 +737,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1024,13 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,6 +1314,36 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,21 +1372,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,21 +1548,6 @@
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1823,7 +1818,7 @@
     <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1896,7 +1891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1910,58 +1905,67 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1985,67 +1989,67 @@
     <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2057,37 +2061,37 @@
     <xf numFmtId="58" fontId="13" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2099,10 +2103,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2111,46 +2112,49 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2505,342 +2509,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="68"/>
+      <c r="A2" s="71"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="74">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="83" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="76">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="86">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="85" t="s">
+      <c r="N5" s="88" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="76">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="89">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="85" t="s">
+      <c r="N6" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="76">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="87" t="s">
+      <c r="K7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="89">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="85" t="s">
+      <c r="N7" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="76">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="89">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="84" t="s">
+      <c r="M8" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="85" t="s">
+      <c r="N8" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="86">
+      <c r="L9" s="89">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="84" t="s">
+      <c r="M9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="85" t="s">
+      <c r="N9" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="89">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="84" t="s">
+      <c r="M10" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="85" t="s">
+      <c r="N10" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="86">
+      <c r="L11" s="89">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="85" t="s">
+      <c r="N11" s="88" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="76">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="86">
+      <c r="L12" s="89">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="81" t="s">
+      <c r="J13" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="86">
+      <c r="L13" s="89">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="84" t="s">
+      <c r="M13" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="85" t="s">
+      <c r="N13" s="88" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="76">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="81" t="s">
+      <c r="J14" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="86">
+      <c r="L14" s="89">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="84" t="s">
+      <c r="M14" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="85" t="s">
+      <c r="N14" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="76">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="76" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="76">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="76" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2877,627 +2881,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="41">
+      <c r="A4" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="44">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="41">
+      <c r="A6" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="44">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="A7" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="44">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="41">
+      <c r="A8" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="44">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="39">
+      <c r="A9" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="42">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="39">
+      <c r="A10" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="42">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="39">
+      <c r="A11" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="42">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="A12" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="42">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="A13" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="42">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="39">
+      <c r="A14" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="42">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="39">
+      <c r="A15" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="43">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="42">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="44">
+      <c r="A18" s="47">
         <v>10259455</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="45">
+      <c r="C18" s="49">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="49">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="48">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="47">
+      <c r="A19" s="50">
         <v>10318223</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="48">
+      <c r="C19" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="51">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="47">
+      <c r="A20" s="50">
         <v>10314749</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="48">
+      <c r="C20" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="51">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="47">
+      <c r="A21" s="50">
         <v>10305637</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="48">
+      <c r="C21" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="51">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="47">
+      <c r="A22" s="50">
         <v>10322035</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="48">
+      <c r="C22" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="51">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="47">
+      <c r="A23" s="50">
         <v>10323953</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="48"/>
+      <c r="C23" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="51"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="48">
+      <c r="C24" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="51">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="51"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="48">
+      <c r="C25" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="51">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="51"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="48">
+      <c r="C26" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="51">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="48">
+      <c r="C27" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="51">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="51"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="48">
+      <c r="C28" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="51">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="52"/>
-      <c r="D33" s="53" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="58">
         <v>45756</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="58">
         <v>45757</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="58">
         <v>45758</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="58">
         <v>45759</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="58">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="H35" s="60" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="63">
         <v>45762</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="63">
         <v>45763</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="63">
         <v>45764</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="63">
         <v>45765</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="63">
         <v>45766</v>
       </c>
-      <c r="J37" s="60">
+      <c r="J37" s="63">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="61">
+      <c r="C38" s="64">
         <v>10323953</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="63">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="63">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="63">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="64" t="s">
+      <c r="E38" s="66">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="66">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="66">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="64" t="s">
+      <c r="I38" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="63">
+      <c r="J38" s="66">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="65"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="63">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="63">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="63">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="64" t="s">
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="64" t="s">
+      <c r="I39" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="63">
+      <c r="J39" s="66">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3514,10 +3518,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3749,711 +3753,850 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A13" s="7" t="s">
+      <c r="A12" s="7">
+        <v>10335613</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="7">
+        <v>10335593</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="7">
+        <v>10335553</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="7">
+        <v>10335595</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="7">
+        <v>10335581</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="7">
+        <v>10335592</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="7">
+        <v>10335591</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="7">
+        <v>10335702</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="7">
+        <v>10335700</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="H22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A14" s="9">
+      <c r="J22" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A23" s="12">
         <v>30105102</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D23" s="15">
         <v>0.75</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E23" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F23" s="12">
         <v>30105102</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G23" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="12">
         <v>1155998440</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A15" s="9">
+    <row r="24" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A24" s="12">
         <v>29901310</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B24" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D24" s="15">
         <v>0.75</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F24" s="12">
         <v>29901310</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="G24" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="I24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="12">
         <v>1094405645</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A16" s="9">
+    <row r="25" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A25" s="12">
         <v>28711298</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B25" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D25" s="15">
         <v>0.75</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E25" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F25" s="12">
         <v>28711298</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="I25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="12">
         <v>1280438382</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A17" s="9">
+    <row r="26" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A26" s="12">
         <v>29408200</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B26" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D26" s="15">
         <v>0.75</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F26" s="12">
         <v>29408200</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="G26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="I26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="12">
         <v>1095680472</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15.25"/>
-    <row r="20" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A20" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="N20" s="17" t="s">
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15.25"/>
+    <row r="29" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A29" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A22" s="21">
+      <c r="D29" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A31" s="24">
         <v>10210885</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K22" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="O22" s="22"/>
-    </row>
-    <row r="23" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A23" s="21">
+      <c r="B31" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K31" s="27">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A32" s="24">
         <v>10259455</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B32" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I23" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J23" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K23" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L23" s="38" t="s">
+      <c r="C32" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K32" s="27">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L32" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M32" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N23" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O23" s="24">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A24" s="21">
+      <c r="N32" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O32" s="27">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A33" s="24">
         <v>10293907</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="24">
+      <c r="B33" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E33" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F33" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G33" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H33" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I33" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J33" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K33" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L33" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M33" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N33" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O33" s="27">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A25" s="21">
+    <row r="34" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A34" s="24">
         <v>10304876</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="B34" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E34" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F34" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G34" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H34" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I34" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J34" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K34" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L34" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M34" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N34" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O34" s="27">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A26" s="21">
+    <row r="35" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A35" s="24">
         <v>10310365</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="24">
+      <c r="B35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E35" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F35" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G35" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H35" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I35" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J35" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K35" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L35" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M35" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N35" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O35" s="27">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="28" t="s">
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="29">
-        <v>10335595</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D30" s="31">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="29">
+      <c r="C38" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="32">
         <v>10238685</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="B39" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D39" s="34">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="29">
+    <row r="40" spans="1:4">
+      <c r="A40" s="32">
         <v>10322837</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="B40" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D40" s="34">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="33" ht="15.25"/>
-    <row r="34" spans="1:5">
-      <c r="A34" s="32" t="s">
+    <row r="41" ht="15.25"/>
+    <row r="42" ht="15.25" spans="1:5">
+      <c r="A42" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B42" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C42" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D42" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E42" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="35">
+    <row r="43" ht="15.25" spans="1:5">
+      <c r="A43" s="38">
         <v>10334497</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B43" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="14">
         <v>0.375</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D43" s="14">
         <v>0.75</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="35">
+      <c r="E43" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="38">
         <v>10334495</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B44" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="14">
         <v>0.375</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D44" s="14">
         <v>0.75</v>
       </c>
-      <c r="E36" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="35">
+      <c r="E44" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="38">
         <v>10335547</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B45" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="14">
         <v>0.375</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D45" s="14">
         <v>0.75</v>
       </c>
-      <c r="E37" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="35">
+      <c r="E45" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:5">
+      <c r="A46" s="38">
         <v>10335550</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="B46" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="14">
         <v>0.375</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D46" s="14">
         <v>0.75</v>
       </c>
-      <c r="E38" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="35">
+      <c r="E46" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:5">
+      <c r="A47" s="38">
         <v>10335545</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="11">
+      <c r="B47" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="14">
         <v>0.375</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D47" s="14">
         <v>0.75</v>
       </c>
-      <c r="E39" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="35">
+      <c r="E47" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="38">
         <v>10335548</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B48" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="14">
         <v>0.375</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D48" s="14">
         <v>0.75</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="35">
+      <c r="E48" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="38">
         <v>10335696</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B49" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="14">
         <v>0.375</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D49" s="14">
         <v>0.75</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>145</v>
+      <c r="E49" s="40" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A11 A19:A1048576">
+  <conditionalFormatting sqref="A1:A20 A35:A41 A28 A50 A61:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A20 A61:A1048576 A28:A50">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A11 A19 A26:A33 A42:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="161">
   <si>
     <r>
       <rPr>
@@ -588,6 +588,9 @@
     <t>Toqa Badry</t>
   </si>
   <si>
+    <t>CL</t>
+  </si>
+  <si>
     <t>Sarah Alzuhairi</t>
   </si>
   <si>
@@ -756,6 +759,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -790,7 +794,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1004,7 +1007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,6 +1052,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1294,7 +1303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1398,18 +1407,9 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <bottom style="medium">
         <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1426,9 +1426,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1439,7 +1437,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1521,21 +1521,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1767,7 +1752,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1779,119 +1764,119 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1944,28 +1929,40 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1974,40 +1971,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2019,79 +2016,79 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="13" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2103,43 +2100,43 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2148,13 +2145,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2509,342 +2506,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="71"/>
+      <c r="A2" s="75"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="76" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="78">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="87" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="80">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L5" s="90">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="80">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="93">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="80">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="90" t="s">
+      <c r="K7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="93">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="80">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="89" t="s">
+      <c r="K8" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L8" s="93">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="88" t="s">
+      <c r="N8" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="89" t="s">
+      <c r="K9" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="89">
+      <c r="L9" s="93">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="M9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="88" t="s">
+      <c r="N9" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="89">
+      <c r="L10" s="93">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="87" t="s">
+      <c r="M10" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="88" t="s">
+      <c r="N10" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L11" s="93">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="87" t="s">
+      <c r="M11" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="88" t="s">
+      <c r="N11" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="80">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="89">
+      <c r="L12" s="93">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="87" t="s">
+      <c r="M12" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="88" t="s">
+      <c r="N12" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="89" t="s">
+      <c r="K13" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="89">
+      <c r="L13" s="93">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="87" t="s">
+      <c r="M13" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="88" t="s">
+      <c r="N13" s="92" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="80">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="84" t="s">
+      <c r="J14" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L14" s="93">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="M14" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="80">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="80" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="80">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="80" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2881,627 +2878,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="46" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="44">
+      <c r="A4" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="48">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="44">
+      <c r="A6" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="48">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="44">
+      <c r="A7" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="48">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="44">
+      <c r="A8" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="48">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="42">
+      <c r="A9" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="46">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="42">
+      <c r="A10" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="46">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="42">
+      <c r="A11" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="46">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="42">
+      <c r="A12" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="46">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="42">
+      <c r="A13" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="46">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="46" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="42">
+      <c r="A14" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="46">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="43">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="43">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="42">
+      <c r="A15" s="47">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="46">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="47">
+      <c r="A18" s="51">
         <v>10259455</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="49">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="48">
+      <c r="C18" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="52">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="50">
+      <c r="A19" s="54">
         <v>10318223</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="51">
+      <c r="C19" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="55">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="50">
+      <c r="A20" s="54">
         <v>10314749</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="51">
+      <c r="C20" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="55">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="50">
+      <c r="A21" s="54">
         <v>10305637</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="51">
+      <c r="C21" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="55">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="50">
+      <c r="A22" s="54">
         <v>10322035</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="51">
+      <c r="C22" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="55">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="50">
+      <c r="A23" s="54">
         <v>10323953</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="51"/>
+      <c r="C23" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="54"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="51">
+      <c r="C24" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="55">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="54"/>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="51">
+      <c r="C25" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="55">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="54"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="51">
+      <c r="C26" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="55">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="54"/>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="51">
+      <c r="C27" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="55">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="54"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="52">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="51">
+      <c r="C28" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="56">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="55">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="55"/>
-      <c r="D33" s="56" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="56" t="s">
+      <c r="H33" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="62">
         <v>45756</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="62">
         <v>45757</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="62">
         <v>45758</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G34" s="62">
         <v>45759</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="62">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="64" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="63">
+      <c r="E37" s="67">
         <v>45762</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="67">
         <v>45763</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="67">
         <v>45764</v>
       </c>
-      <c r="H37" s="63">
+      <c r="H37" s="67">
         <v>45765</v>
       </c>
-      <c r="I37" s="63">
+      <c r="I37" s="67">
         <v>45766</v>
       </c>
-      <c r="J37" s="63">
+      <c r="J37" s="67">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="64">
+      <c r="C38" s="68">
         <v>10323953</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="66">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="66">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="66">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="67" t="s">
+      <c r="E38" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="70">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="67" t="s">
+      <c r="I38" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="66">
+      <c r="J38" s="70">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="66">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="66">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="66">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="67" t="s">
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="70">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="67" t="s">
+      <c r="I39" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="66">
+      <c r="J39" s="70">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3521,7 +3518,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D20"/>
+      <selection activeCell="A29" sqref="A29:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3559,7 +3556,7 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25"/>
-    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -3603,7 +3600,7 @@
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
       <c r="A5" s="5">
         <v>10331412</v>
       </c>
@@ -3625,7 +3622,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:11">
+    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
       <c r="A6" s="5">
         <v>10322712</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A12" s="7">
         <v>10335613</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A13" s="7">
         <v>10335593</v>
       </c>
@@ -3786,7 +3783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="7">
         <v>10335553</v>
       </c>
@@ -3803,7 +3800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A15" s="7">
         <v>10335595</v>
       </c>
@@ -3820,7 +3817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A16" s="7">
         <v>10335581</v>
       </c>
@@ -3837,7 +3834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A17" s="7">
         <v>10335592</v>
       </c>
@@ -3854,7 +3851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A18" s="7">
         <v>10335591</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
+    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A19" s="7">
         <v>10335702</v>
       </c>
@@ -3888,7 +3885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
+    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A20" s="7">
         <v>10335700</v>
       </c>
@@ -4080,7 +4077,7 @@
       <c r="E27"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="15.25"/>
-    <row r="29" customFormat="1" ht="15.25" spans="1:15">
+    <row r="29" customFormat="1" spans="1:15">
       <c r="A29" s="18" t="s">
         <v>127</v>
       </c>
@@ -4093,19 +4090,19 @@
       <c r="D29" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="19" t="s">
         <v>134</v>
       </c>
@@ -4115,352 +4112,338 @@
       <c r="N29" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="O29" s="20"/>
-    </row>
-    <row r="30" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23" t="s">
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23" t="s">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="O30" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A31" s="24">
+    <row r="31" customFormat="1" spans="1:15">
+      <c r="A31" s="25">
         <v>10210885</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25" t="s">
+      <c r="G31" s="28"/>
+      <c r="H31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K31" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L31" s="25" t="s">
+      <c r="I31" s="28"/>
+      <c r="J31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="K31" s="28"/>
+      <c r="L31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="N31" s="25" t="s">
+      <c r="M31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="O31" s="25"/>
-    </row>
-    <row r="32" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A32" s="24">
+      <c r="N31" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:15">
+      <c r="A32" s="25">
         <v>10259455</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E32" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F32" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G32" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H32" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I32" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J32" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K32" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L32" s="41" t="s">
+      <c r="D32" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F32" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G32" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J32" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L32" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="41" t="s">
+      <c r="M32" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O32" s="27">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A33" s="24">
+      <c r="N32" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O32" s="29">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:15">
+      <c r="A33" s="25">
         <v>10293907</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="29">
         <v>0.416666666666667</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="29">
         <v>0.791666666666667</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" s="28"/>
+      <c r="L33" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="29">
         <v>0.416666666666667</v>
       </c>
-      <c r="G33" s="27">
+      <c r="O33" s="29">
         <v>0.791666666666667</v>
       </c>
-      <c r="H33" s="27">
+    </row>
+    <row r="34" customFormat="1" spans="1:15">
+      <c r="A34" s="25">
+        <v>10304876</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="29">
         <v>0.416666666666667</v>
       </c>
-      <c r="I33" s="27">
+      <c r="E34" s="29">
         <v>0.791666666666667</v>
       </c>
-      <c r="J33" s="27">
+      <c r="F34" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" s="28"/>
+      <c r="L34" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" s="29">
         <v>0.416666666666667</v>
       </c>
-      <c r="K33" s="27">
+      <c r="O34" s="29">
         <v>0.791666666666667</v>
       </c>
-      <c r="L33" s="41" t="s">
+    </row>
+    <row r="35" customFormat="1" spans="1:15">
+      <c r="A35" s="25">
+        <v>10310365</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E35" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G35" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H35" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I35" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J35" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K35" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L35" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="41" t="s">
+      <c r="M35" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N35" s="29">
         <v>0.416666666666667</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O35" s="29">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A34" s="24">
-        <v>10304876</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="27">
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="36">
+        <v>10238685</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="38">
         <v>0.416666666666667</v>
       </c>
-      <c r="E34" s="27">
+      <c r="D39" s="38">
         <v>0.791666666666667</v>
       </c>
-      <c r="F34" s="27">
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="36">
+        <v>10322837</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="38">
         <v>0.416666666666667</v>
       </c>
-      <c r="G34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H34" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J34" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L34" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="N34" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A35" s="24">
-        <v>10310365</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L35" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="N35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="32">
-        <v>10238685</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D39" s="34">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="32">
-        <v>10322837</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D40" s="34">
+      <c r="D40" s="38">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="41" ht="15.25"/>
     <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="41" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="38">
+      <c r="A43" s="42">
         <v>10334497</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>152</v>
+      <c r="B43" s="43" t="s">
+        <v>153</v>
       </c>
       <c r="C43" s="14">
         <v>0.375</v>
@@ -4468,16 +4451,16 @@
       <c r="D43" s="14">
         <v>0.75</v>
       </c>
-      <c r="E43" s="40" t="s">
-        <v>153</v>
+      <c r="E43" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="38">
+      <c r="A44" s="42">
         <v>10334495</v>
       </c>
-      <c r="B44" s="39" t="s">
-        <v>154</v>
+      <c r="B44" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="C44" s="14">
         <v>0.375</v>
@@ -4485,16 +4468,16 @@
       <c r="D44" s="14">
         <v>0.75</v>
       </c>
-      <c r="E44" s="40" t="s">
-        <v>153</v>
+      <c r="E44" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="38">
+      <c r="A45" s="42">
         <v>10335547</v>
       </c>
-      <c r="B45" s="39" t="s">
-        <v>155</v>
+      <c r="B45" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="C45" s="14">
         <v>0.375</v>
@@ -4502,16 +4485,16 @@
       <c r="D45" s="14">
         <v>0.75</v>
       </c>
-      <c r="E45" s="40" t="s">
-        <v>153</v>
+      <c r="E45" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="38">
+      <c r="A46" s="42">
         <v>10335550</v>
       </c>
-      <c r="B46" s="39" t="s">
-        <v>156</v>
+      <c r="B46" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="C46" s="14">
         <v>0.375</v>
@@ -4519,16 +4502,16 @@
       <c r="D46" s="14">
         <v>0.75</v>
       </c>
-      <c r="E46" s="40" t="s">
-        <v>153</v>
+      <c r="E46" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="38">
+      <c r="A47" s="42">
         <v>10335545</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>157</v>
+      <c r="B47" s="43" t="s">
+        <v>158</v>
       </c>
       <c r="C47" s="14">
         <v>0.375</v>
@@ -4536,16 +4519,16 @@
       <c r="D47" s="14">
         <v>0.75</v>
       </c>
-      <c r="E47" s="40" t="s">
-        <v>153</v>
+      <c r="E47" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="38">
+      <c r="A48" s="42">
         <v>10335548</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>158</v>
+      <c r="B48" s="43" t="s">
+        <v>159</v>
       </c>
       <c r="C48" s="14">
         <v>0.375</v>
@@ -4553,16 +4536,16 @@
       <c r="D48" s="14">
         <v>0.75</v>
       </c>
-      <c r="E48" s="40" t="s">
-        <v>153</v>
+      <c r="E48" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="38">
+      <c r="A49" s="42">
         <v>10335696</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>159</v>
+      <c r="B49" s="43" t="s">
+        <v>160</v>
       </c>
       <c r="C49" s="14">
         <v>0.375</v>
@@ -4570,12 +4553,12 @@
       <c r="D49" s="14">
         <v>0.75</v>
       </c>
-      <c r="E49" s="40" t="s">
-        <v>153</v>
+      <c r="E49" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="22">
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
@@ -4584,7 +4567,14 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
     <mergeCell ref="N31:O31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -4592,10 +4582,10 @@
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A20 A35:A41 A28 A50 A61:A1048576">
+  <conditionalFormatting sqref="A1:A20 A36:A41 A28 A50 A61:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A20 A61:A1048576 A28:A50">
+  <conditionalFormatting sqref="A1:A20 A61:A1048576 A28 A36:A50">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="162">
   <si>
     <r>
       <rPr>
@@ -546,25 +546,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Monday, July 14</t>
-  </si>
-  <si>
-    <t>Tuesday, July 15</t>
-  </si>
-  <si>
-    <t>Wednesday, July 16</t>
-  </si>
-  <si>
-    <t>Thursday, July 17</t>
-  </si>
-  <si>
-    <t>Friday, July 18</t>
-  </si>
-  <si>
-    <t>Saturday, July 19</t>
-  </si>
-  <si>
-    <t>Sunday, July 20</t>
+    <t>Monday, July 28</t>
+  </si>
+  <si>
+    <t>Tuesday, July 29</t>
+  </si>
+  <si>
+    <t>Wednesday, July 30</t>
+  </si>
+  <si>
+    <t>Thursday, July 31</t>
+  </si>
+  <si>
+    <t>Friday, August 1</t>
+  </si>
+  <si>
+    <t>Saturday, August 2</t>
+  </si>
+  <si>
+    <t>Sunday, August 3</t>
   </si>
   <si>
     <t>From</t>
@@ -588,13 +588,16 @@
     <t>Toqa Badry</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>Sarah Alzuhairi</t>
   </si>
   <si>
     <t>Fatma Hamdy</t>
+  </si>
+  <si>
+    <t>Annual Leave</t>
+  </si>
+  <si>
+    <t>Farahnaz Lotfy</t>
   </si>
   <si>
     <t>طلبات RTAs مواعيد ثابتة دائماً اجازة جمعة و سبت</t>
@@ -759,7 +762,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -794,6 +796,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1876,7 +1879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1930,17 +1933,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1953,18 +1950,21 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="179" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2004,7 +2004,7 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2022,25 +2022,25 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2506,342 +2506,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="75"/>
+      <c r="A2" s="74"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="77">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="86" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="79">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="89">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="91" t="s">
+      <c r="M5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="79">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="93" t="s">
+      <c r="K6" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="92">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="92" t="s">
+      <c r="N6" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="79">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="93">
+      <c r="L7" s="92">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="79">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="93">
+      <c r="L8" s="92">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="91" t="s">
+      <c r="M8" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="88" t="s">
+      <c r="J9" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="K9" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="93">
+      <c r="L9" s="92">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="M9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="88" t="s">
+      <c r="J10" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="93">
+      <c r="L10" s="92">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="91" t="s">
+      <c r="M10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="92" t="s">
+      <c r="N10" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="88" t="s">
+      <c r="J11" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="93" t="s">
+      <c r="K11" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="93">
+      <c r="L11" s="92">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92" t="s">
+      <c r="N11" s="91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="79">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="88" t="s">
+      <c r="J12" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="93">
+      <c r="L12" s="92">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="91" t="s">
+      <c r="M12" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="92" t="s">
+      <c r="N12" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="88" t="s">
+      <c r="J13" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="93">
+      <c r="L13" s="92">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="91" t="s">
+      <c r="M13" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="92" t="s">
+      <c r="N13" s="91" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="79">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="93" t="s">
+      <c r="K14" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="93">
+      <c r="L14" s="92">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="91" t="s">
+      <c r="M14" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="92" t="s">
+      <c r="N14" s="91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="80">
+      <c r="B15" s="79">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="79" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="80">
+      <c r="B16" s="79">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="79" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2878,627 +2878,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B4" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="48">
+      <c r="A4" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="47">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B5" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B6" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="48">
+      <c r="A6" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="47">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B7" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="A7" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="47">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="48">
+      <c r="A8" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="47">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B9" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="A9" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="45">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B10" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="46">
+      <c r="A10" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="45">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B11" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="46">
+      <c r="A11" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="45">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B12" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="46">
+      <c r="A12" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="45">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="45" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B13" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="46">
+      <c r="A13" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="45">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B14" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="46">
+      <c r="A14" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="45">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B15" s="47">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="46">
+      <c r="A15" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="45">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="51">
+      <c r="A18" s="50">
         <v>10259455</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="53">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D18" s="53">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="52">
+      <c r="C18" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="51">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="54">
+      <c r="A19" s="53">
         <v>10318223</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="55">
+      <c r="C19" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="54">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="54">
+      <c r="A20" s="53">
         <v>10314749</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="55">
+      <c r="C20" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="54">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="54">
+      <c r="A21" s="53">
         <v>10305637</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="55">
+      <c r="C21" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="54">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="54">
+      <c r="A22" s="53">
         <v>10322035</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D22" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="55">
+      <c r="C22" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="54">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="54">
+      <c r="A23" s="53">
         <v>10323953</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D23" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="55"/>
+      <c r="C23" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="55">
+      <c r="C24" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="54">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="58"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="55">
+      <c r="C25" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="54">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="58"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="55">
+      <c r="C26" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="54">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="58"/>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="55">
+      <c r="C27" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="54">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="58"/>
-      <c r="B28" s="55" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="56">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="56">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="55">
+      <c r="C28" s="55">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="55">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="54">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="59"/>
-      <c r="D33" s="60" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="60" t="s">
+      <c r="H33" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="61">
         <v>45756</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="61">
         <v>45757</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="61">
         <v>45758</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="61">
         <v>45759</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="61">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="63" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="66">
         <v>45762</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="66">
         <v>45763</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="66">
         <v>45764</v>
       </c>
-      <c r="H37" s="67">
+      <c r="H37" s="66">
         <v>45765</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="66">
         <v>45766</v>
       </c>
-      <c r="J37" s="67">
+      <c r="J37" s="66">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="68">
+      <c r="C38" s="67">
         <v>10323953</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F38" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G38" s="70">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H38" s="71" t="s">
+      <c r="E38" s="69">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F38" s="69">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G38" s="69">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H38" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="71" t="s">
+      <c r="I38" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="70">
+      <c r="J38" s="69">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="70">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="71" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="69">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="69">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="69">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="71" t="s">
+      <c r="I39" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="70">
+      <c r="J39" s="69">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3517,8 +3517,8 @@
   <sheetPr/>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:O35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3556,7 +3556,7 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25"/>
-    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:11">
+    <row r="7" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
       <c r="A7" s="5">
         <v>10331426</v>
       </c>
@@ -4069,381 +4069,443 @@
         <v>1095680472</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+    <row r="27" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15.25"/>
+    <row r="28" s="1" customFormat="1" spans="1:15">
+      <c r="A28" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="21"/>
+    </row>
     <row r="29" customFormat="1" spans="1:15">
-      <c r="A29" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="30" customFormat="1" spans="1:15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>138</v>
+      <c r="A30" s="23">
+        <v>10210885</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0.791666666666667</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="N30" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O30" s="26">
+        <v>0.791666666666667</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:15">
-      <c r="A31" s="25">
-        <v>10210885</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="O31" s="28"/>
+      <c r="A31" s="27">
+        <v>10259455</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F31" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G31" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H31" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J31" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K31" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L31" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O31" s="29">
+        <v>0.833333333333333</v>
+      </c>
     </row>
     <row r="32" customFormat="1" spans="1:15">
-      <c r="A32" s="25">
-        <v>10259455</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="23">
+        <v>10293907</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E32" s="29">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G32" s="29">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H32" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I32" s="29">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J32" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K32" s="29">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L32" s="45" t="s">
+      <c r="D32" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I32" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J32" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K32" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L32" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="45" t="s">
+      <c r="M32" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O32" s="29">
-        <v>0.833333333333333</v>
+      <c r="N32" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0.791666666666667</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:15">
-      <c r="A33" s="25">
-        <v>10293907</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="27" t="s">
+      <c r="A33" s="23">
+        <v>10304876</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K33" s="28"/>
-      <c r="L33" s="45" t="s">
+      <c r="F33" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J33" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K33" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L33" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="45" t="s">
+      <c r="M33" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="26">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:15">
-      <c r="A34" s="25">
-        <v>10304876</v>
-      </c>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="23">
+        <v>10310365</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="45" t="s">
+      <c r="F34" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="M34" s="45" t="s">
+      <c r="M34" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="N34" s="29">
+      <c r="N34" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O34" s="26">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:15">
-      <c r="A35" s="25">
-        <v>10310365</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="27" t="s">
+      <c r="A35" s="27">
+        <v>10305637</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="E35" s="29">
+      <c r="G35" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="F35" s="29">
+      <c r="H35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="G35" s="29">
+      <c r="I35" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="H35" s="29">
+      <c r="J35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="I35" s="29">
+      <c r="K35" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="J35" s="29">
+      <c r="L35" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="K35" s="29">
+      <c r="O35" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="L35" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="N35" s="29">
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="35">
+        <v>10238685</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="37">
         <v>0.416666666666667</v>
       </c>
-      <c r="O35" s="29">
+      <c r="D39" s="37">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="36">
-        <v>10238685</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="38">
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="35">
+        <v>10322837</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="37">
         <v>0.416666666666667</v>
       </c>
-      <c r="D39" s="38">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="36">
-        <v>10322837</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="38">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D40" s="38">
+      <c r="D40" s="37">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="41" ht="15.25"/>
     <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="40" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="42">
+      <c r="A43" s="41">
         <v>10334497</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>153</v>
+      <c r="B43" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="C43" s="14">
         <v>0.375</v>
@@ -4451,16 +4513,16 @@
       <c r="D43" s="14">
         <v>0.75</v>
       </c>
-      <c r="E43" s="44" t="s">
-        <v>154</v>
+      <c r="E43" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="42">
+      <c r="A44" s="41">
         <v>10334495</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>155</v>
+      <c r="B44" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="C44" s="14">
         <v>0.375</v>
@@ -4468,16 +4530,16 @@
       <c r="D44" s="14">
         <v>0.75</v>
       </c>
-      <c r="E44" s="44" t="s">
-        <v>154</v>
+      <c r="E44" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="42">
+      <c r="A45" s="41">
         <v>10335547</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>156</v>
+      <c r="B45" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="C45" s="14">
         <v>0.375</v>
@@ -4485,16 +4547,16 @@
       <c r="D45" s="14">
         <v>0.75</v>
       </c>
-      <c r="E45" s="44" t="s">
-        <v>154</v>
+      <c r="E45" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>10335550</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>157</v>
+      <c r="B46" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="C46" s="14">
         <v>0.375</v>
@@ -4502,16 +4564,16 @@
       <c r="D46" s="14">
         <v>0.75</v>
       </c>
-      <c r="E46" s="44" t="s">
-        <v>154</v>
+      <c r="E46" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="42">
+      <c r="A47" s="41">
         <v>10335545</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>158</v>
+      <c r="B47" s="42" t="s">
+        <v>159</v>
       </c>
       <c r="C47" s="14">
         <v>0.375</v>
@@ -4519,16 +4581,16 @@
       <c r="D47" s="14">
         <v>0.75</v>
       </c>
-      <c r="E47" s="44" t="s">
-        <v>154</v>
+      <c r="E47" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <v>10335548</v>
       </c>
-      <c r="B48" s="43" t="s">
-        <v>159</v>
+      <c r="B48" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="C48" s="14">
         <v>0.375</v>
@@ -4536,16 +4598,16 @@
       <c r="D48" s="14">
         <v>0.75</v>
       </c>
-      <c r="E48" s="44" t="s">
-        <v>154</v>
+      <c r="E48" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="42">
+      <c r="A49" s="41">
         <v>10335696</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>160</v>
+      <c r="B49" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="C49" s="14">
         <v>0.375</v>
@@ -4553,34 +4615,26 @@
       <c r="D49" s="14">
         <v>0.75</v>
       </c>
-      <c r="E49" s="44" t="s">
-        <v>154</v>
+      <c r="E49" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="F34:G34"/>
+  <mergeCells count="14">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A20 A36:A41 A28 A50 A61:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="169">
   <si>
     <r>
       <rPr>
@@ -600,7 +600,28 @@
     <t>Farahnaz Lotfy</t>
   </si>
   <si>
-    <t>طلبات RTAs مواعيد ثابتة دائماً اجازة جمعة و سبت</t>
+    <t>Monday, August 4</t>
+  </si>
+  <si>
+    <t>Tuesday, August 5</t>
+  </si>
+  <si>
+    <t>Wednesday, August 6</t>
+  </si>
+  <si>
+    <t>Thursday, August 7</t>
+  </si>
+  <si>
+    <t>Friday, August 8</t>
+  </si>
+  <si>
+    <t>Saturday, August 9</t>
+  </si>
+  <si>
+    <t>Sunday, August 10</t>
+  </si>
+  <si>
+    <t>Ammar Isameldin Hassan</t>
   </si>
   <si>
     <t>HRID</t>
@@ -713,7 +734,7 @@
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +784,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1749,139 +1776,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1971,19 +1999,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2001,10 +2062,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2022,13 +2086,13 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,31 +2110,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="14" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2091,34 +2155,34 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2127,31 +2191,31 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2206,7 +2270,17 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2506,342 +2580,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="74"/>
+      <c r="A2" s="87"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="90">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="92">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="89">
+      <c r="L5" s="102">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="N5" s="104" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="92">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="92">
+      <c r="L6" s="105">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="91" t="s">
+      <c r="N6" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="92">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="92">
+      <c r="L7" s="105">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="91" t="s">
+      <c r="N7" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="92">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="87" t="s">
+      <c r="J8" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="92">
+      <c r="L8" s="105">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="90" t="s">
+      <c r="M8" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="91" t="s">
+      <c r="N8" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="92" t="s">
+      <c r="K9" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="92">
+      <c r="L9" s="105">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="91" t="s">
+      <c r="N9" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="92">
+      <c r="L10" s="105">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="91" t="s">
+      <c r="N10" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="92" t="s">
+      <c r="K11" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="105">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="90" t="s">
+      <c r="M11" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="91" t="s">
+      <c r="N11" s="104" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="92">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="92">
+      <c r="L12" s="105">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="90" t="s">
+      <c r="M12" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="91" t="s">
+      <c r="N12" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="87" t="s">
+      <c r="J13" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="92" t="s">
+      <c r="K13" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="92">
+      <c r="L13" s="105">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="90" t="s">
+      <c r="M13" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="91" t="s">
+      <c r="N13" s="104" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B14" s="92">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K14" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="92">
+      <c r="L14" s="105">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="90" t="s">
+      <c r="M14" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="91" t="s">
+      <c r="N14" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="92">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="92" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="92">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="92" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2878,627 +2952,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46">
+      <c r="A4" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="60">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="58" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46">
+      <c r="A5" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="58" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46">
+      <c r="A6" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="60">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="58" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46">
+      <c r="A7" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="60">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="58" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46">
+      <c r="A8" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="60">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="58" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46">
+      <c r="A9" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="58">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46">
+      <c r="A10" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="58">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="58" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46">
+      <c r="A11" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="58">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="58" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46">
+      <c r="A12" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="58">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="58" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="46">
+      <c r="A13" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="58">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="58" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="46">
+      <c r="A14" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="58">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="58" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="46">
+      <c r="A15" s="59">
         <v>0.458333333333333</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="59">
         <v>0.833333333333333</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="58">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="58" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="62" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="50">
+      <c r="A18" s="63">
         <v>10259455</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="64">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="53">
+      <c r="A19" s="66">
         <v>10318223</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="67">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="53">
+      <c r="A20" s="66">
         <v>10314749</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="67">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="53">
+      <c r="A21" s="66">
         <v>10305637</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="67">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="53">
+      <c r="A22" s="66">
         <v>10322035</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="67">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="53">
+      <c r="A23" s="66">
         <v>10323953</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="67"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="57"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="67">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="57"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="67">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="57"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="67">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="67">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="57"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="67">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="58"/>
-      <c r="D33" s="59" t="s">
+      <c r="C33" s="71"/>
+      <c r="D33" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="72" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="74">
         <v>45756</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="74">
         <v>45757</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="74">
         <v>45758</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="74">
         <v>45759</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="74">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="76" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="79">
         <v>45762</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="79">
         <v>45763</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="79">
         <v>45764</v>
       </c>
-      <c r="H37" s="66">
+      <c r="H37" s="79">
         <v>45765</v>
       </c>
-      <c r="I37" s="66">
+      <c r="I37" s="79">
         <v>45766</v>
       </c>
-      <c r="J37" s="66">
+      <c r="J37" s="79">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="67">
+      <c r="C38" s="80">
         <v>10323953</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="82">
         <v>0.458333333333333</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F38" s="82">
         <v>0.458333333333333</v>
       </c>
-      <c r="G38" s="69">
+      <c r="G38" s="82">
         <v>0.458333333333333</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="70" t="s">
+      <c r="I38" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="69">
+      <c r="J38" s="82">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="69">
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="82">
         <v>0.833333333333333</v>
       </c>
-      <c r="F39" s="69">
+      <c r="F39" s="82">
         <v>0.833333333333333</v>
       </c>
-      <c r="G39" s="69">
+      <c r="G39" s="82">
         <v>0.833333333333333</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="70" t="s">
+      <c r="I39" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="69">
+      <c r="J39" s="82">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3515,10 +3589,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3543,33 +3617,33 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25"/>
-    <row r="3" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="G3"/>
@@ -3578,42 +3652,53 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A4" s="5">
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:12">
+      <c r="A4" s="6">
+        <v>10331412</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" s="6">
         <v>10305637</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6">
+      <c r="J4" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="D4" s="6">
+      <c r="K4" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A5" s="5">
-        <v>10331412</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="A5" s="6">
+        <v>10322712</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G5"/>
@@ -3623,19 +3708,19 @@
       <c r="K5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A6" s="5">
-        <v>10322712</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="6">
+        <v>10331426</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G6"/>
@@ -3645,19 +3730,19 @@
       <c r="K6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A7" s="5">
-        <v>10331426</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="6">
+        <v>10331422</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G7"/>
@@ -3667,19 +3752,19 @@
       <c r="K7"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A8" s="5">
-        <v>10331422</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="6">
+        <v>10273655</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G8"/>
@@ -3689,19 +3774,19 @@
       <c r="K8"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A9" s="5">
-        <v>10273655</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="A9" s="6">
+        <v>10287526</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G9"/>
@@ -3711,19 +3796,19 @@
       <c r="K9"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A10" s="5">
-        <v>10287526</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="A10" s="6">
+        <v>10334426</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G10"/>
@@ -3733,175 +3818,159 @@
       <c r="K10"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A11" s="5">
-        <v>10334426</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="A11" s="8">
+        <v>10335613</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A12" s="7">
-        <v>10335613</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="A12" s="8">
+        <v>10335593</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A13" s="7">
-        <v>10335593</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="A13" s="8">
+        <v>10335553</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="7">
-        <v>10335553</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="A14" s="8">
+        <v>10335595</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="7">
-        <v>10335595</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="A15" s="8">
+        <v>10335581</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="7">
-        <v>10335581</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="A16" s="8">
+        <v>10335592</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="7">
-        <v>10335592</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="A17" s="8">
+        <v>10335591</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="7">
-        <v>10335591</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="A18" s="8">
+        <v>10335702</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="7">
-        <v>10335702</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="A19" s="8">
+        <v>10335700</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A20" s="7">
-        <v>10335700</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="20" s="1" customFormat="1"/>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21"/>
       <c r="B21"/>
@@ -3910,162 +3979,162 @@
       <c r="E21"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>30105102</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="C23" s="15">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D23" s="16">
         <v>0.75</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="13">
         <v>30105102</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="13">
         <v>1155998440</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>29901310</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D24" s="15">
+      <c r="C24" s="15">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D24" s="16">
         <v>0.75</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="13">
         <v>29901310</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="13">
         <v>1094405645</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>28711298</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="C25" s="15">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D25" s="16">
         <v>0.75</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="13">
         <v>28711298</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="13">
         <v>1280438382</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>29408200</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D26" s="15">
+      <c r="C26" s="15">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D26" s="16">
         <v>0.75</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="13">
         <v>29408200</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="13">
         <v>1095680472</v>
       </c>
     </row>
@@ -4076,551 +4145,945 @@
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:15">
-      <c r="A28" s="18" t="s">
+    <row r="28" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A28" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21" t="s">
+      <c r="I28" s="22"/>
+      <c r="J28" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="19" t="s">
+      <c r="K28" s="22"/>
+      <c r="L28" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="22" t="s">
+      <c r="O28" s="22"/>
+    </row>
+    <row r="29" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="22" t="s">
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="O29" s="22" t="s">
+      <c r="O29" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:15">
-      <c r="A30" s="23">
+    <row r="30" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A30" s="24">
         <v>10210885</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F30" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G30" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H30" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I30" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J30" s="24" t="s">
+      <c r="D30" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H30" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J30" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="N30" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O30" s="26">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:15">
-      <c r="A31" s="27">
+      <c r="N30" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O30" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A31" s="28">
         <v>10259455</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="30">
         <v>0.458333333333333</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="30">
         <v>0.833333333333333</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="30">
         <v>0.458333333333333</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="30">
         <v>0.833333333333333</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="30">
         <v>0.458333333333333</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="30">
         <v>0.833333333333333</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="30">
         <v>0.458333333333333</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="30">
         <v>0.833333333333333</v>
       </c>
-      <c r="L31" s="44" t="s">
+      <c r="L31" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="M31" s="44" t="s">
+      <c r="M31" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="30">
         <v>0.458333333333333</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="30">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:15">
-      <c r="A32" s="23">
+    <row r="32" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A32" s="24">
         <v>10293907</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E32" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H32" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I32" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J32" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K32" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L32" s="44" t="s">
+      <c r="D32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L32" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="44" t="s">
+      <c r="M32" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O32" s="26">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:15">
-      <c r="A33" s="23">
+      <c r="N32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A33" s="24">
         <v>10304876</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G33" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H33" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I33" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J33" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K33" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L33" s="44" t="s">
+      <c r="D33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L33" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="44" t="s">
+      <c r="M33" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O33" s="26">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:15">
-      <c r="A34" s="23">
+      <c r="N33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A34" s="24">
         <v>10310365</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E34" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F34" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G34" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H34" s="30" t="s">
+      <c r="D34" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E34" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F34" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H34" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30" t="s">
+      <c r="I34" s="31"/>
+      <c r="J34" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="44" t="s">
+      <c r="K34" s="31"/>
+      <c r="L34" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="M34" s="44" t="s">
+      <c r="M34" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="N34" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O34" s="26">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:15">
-      <c r="A35" s="27">
+      <c r="N34" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O34" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A35" s="28">
         <v>10305637</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="27">
         <v>0.458333333333333</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="27">
         <v>0.833333333333333</v>
       </c>
-      <c r="F35" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G35" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H35" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I35" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J35" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K35" s="26">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L35" s="44" t="s">
+      <c r="F35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L35" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="M35" s="44" t="s">
+      <c r="M35" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="N35" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O35" s="26">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="33" t="s">
+      <c r="N35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="15.25" spans="1:4">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:15">
+      <c r="A37" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="34" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="37"/>
+      <c r="L37" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="O37" s="37"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:15">
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:15">
+      <c r="A39" s="39">
+        <v>10210885</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E39" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F39" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G39" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H39" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I39" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="N39" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O39" s="42">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:15">
+      <c r="A40" s="43">
+        <v>10259455</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E40" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F40" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G40" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H40" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I40" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J40" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K40" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L40" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="M40" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="N40" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O40" s="42">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:15">
+      <c r="A41" s="39">
+        <v>10293907</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E41" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F41" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G41" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H41" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I41" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J41" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K41" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L41" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="M41" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="N41" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O41" s="42">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:15">
+      <c r="A42" s="39">
+        <v>10304876</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E42" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F42" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G42" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H42" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I42" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J42" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K42" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L42" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="M42" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="N42" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O42" s="42">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:15">
+      <c r="A43" s="39">
+        <v>10310365</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E43" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F43" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G43" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H43" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I43" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J43" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K43" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L43" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="M43" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="N43" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O43" s="42">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:15">
+      <c r="A44" s="43">
+        <v>10305637</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E44" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F44" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G44" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H44" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I44" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J44" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K44" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L44" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="N44" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O44" s="42">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:15">
+      <c r="A45" s="43">
+        <v>10324569</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E45" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F45" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G45" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H45" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I45" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J45" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K45" s="42">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L45" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="M45" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="N45" s="42">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O45" s="42">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="15.25"/>
+    <row r="47" ht="14.75" spans="1:4">
+      <c r="A47" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="35">
+      <c r="C47" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="47">
         <v>10238685</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="37">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D39" s="37">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="35">
+      <c r="B48" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="49">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D48" s="49">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="47">
         <v>10322837</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="37">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D40" s="37">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25"/>
-    <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="38" t="s">
+      <c r="B49" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="49">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D49" s="49">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25"/>
+    <row r="51" ht="15.25" spans="1:5">
+      <c r="A51" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B51" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C51" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D51" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E51" s="52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="41">
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="53">
         <v>10334497</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="14">
+      <c r="B52" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="15">
         <v>0.375</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D52" s="15">
         <v>0.75</v>
       </c>
-      <c r="E43" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="41">
+      <c r="E52" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:5">
+      <c r="A53" s="53">
         <v>10334495</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="14">
+      <c r="B53" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="15">
         <v>0.375</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D53" s="15">
         <v>0.75</v>
       </c>
-      <c r="E44" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="41">
+      <c r="E53" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="53">
         <v>10335547</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="14">
+      <c r="B54" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="15">
         <v>0.375</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D54" s="15">
         <v>0.75</v>
       </c>
-      <c r="E45" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="41">
+      <c r="E54" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="53">
         <v>10335550</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="14">
+      <c r="B55" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="15">
         <v>0.375</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D55" s="15">
         <v>0.75</v>
       </c>
-      <c r="E46" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="41">
+      <c r="E55" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="53">
         <v>10335545</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="14">
+      <c r="B56" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="15">
         <v>0.375</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D56" s="15">
         <v>0.75</v>
       </c>
-      <c r="E47" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="41">
+      <c r="E56" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:5">
+      <c r="A57" s="53">
         <v>10335548</v>
       </c>
-      <c r="B48" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="14">
+      <c r="B57" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="15">
         <v>0.375</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D57" s="15">
         <v>0.75</v>
       </c>
-      <c r="E48" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="41">
+      <c r="E57" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:5">
+      <c r="A58" s="53">
         <v>10335696</v>
       </c>
-      <c r="B49" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="14">
+      <c r="B58" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="15">
         <v>0.375</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D58" s="15">
         <v>0.75</v>
       </c>
-      <c r="E49" s="43" t="s">
-        <v>155</v>
+      <c r="E58" s="55" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="24">
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
@@ -4629,18 +5092,31 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="J39:K39"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L37:L38"/>
     <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M37:M38"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A20 A36:A41 A28 A50 A61:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A20 A61:A1048576 A28 A36:A50">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A19 H4 A44:A45 A47:A50 A28 A59 A70:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A19 H4 A44:A45 A47:A59 A28 A70:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="171">
   <si>
     <r>
       <rPr>
@@ -546,25 +546,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Monday, July 28</t>
-  </si>
-  <si>
-    <t>Tuesday, July 29</t>
-  </si>
-  <si>
-    <t>Wednesday, July 30</t>
-  </si>
-  <si>
-    <t>Thursday, July 31</t>
-  </si>
-  <si>
-    <t>Friday, August 1</t>
-  </si>
-  <si>
-    <t>Saturday, August 2</t>
-  </si>
-  <si>
-    <t>Sunday, August 3</t>
+    <t>Monday, August 4</t>
+  </si>
+  <si>
+    <t>Tuesday, August 5</t>
+  </si>
+  <si>
+    <t>Wednesday, August 6</t>
+  </si>
+  <si>
+    <t>Thursday, August 7</t>
+  </si>
+  <si>
+    <t>Friday, August 8</t>
+  </si>
+  <si>
+    <t>Saturday, August 9</t>
+  </si>
+  <si>
+    <t>Sunday, August 10</t>
   </si>
   <si>
     <t>From</t>
@@ -594,31 +594,7 @@
     <t>Fatma Hamdy</t>
   </si>
   <si>
-    <t>Annual Leave</t>
-  </si>
-  <si>
     <t>Farahnaz Lotfy</t>
-  </si>
-  <si>
-    <t>Monday, August 4</t>
-  </si>
-  <si>
-    <t>Tuesday, August 5</t>
-  </si>
-  <si>
-    <t>Wednesday, August 6</t>
-  </si>
-  <si>
-    <t>Thursday, August 7</t>
-  </si>
-  <si>
-    <t>Friday, August 8</t>
-  </si>
-  <si>
-    <t>Saturday, August 9</t>
-  </si>
-  <si>
-    <t>Sunday, August 10</t>
   </si>
   <si>
     <t>Ammar Isameldin Hassan</t>
@@ -720,6 +696,36 @@
   <si>
     <t>Haidy Mashaly</t>
   </si>
+  <si>
+    <t>لحد اخر شهر 8</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Monday, August 4, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, August 5, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, August 6, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, August 7, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 8, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, August 9, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, August 10, 2025</t>
+  </si>
+  <si>
+    <t>Ahmed abdelghafar</t>
+  </si>
 </sst>
 </file>
 
@@ -734,7 +740,7 @@
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,7 +795,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -823,6 +829,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="-apple-system"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -833,18 +858,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1037,7 +1050,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,12 +1095,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1112,6 +1119,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1136,12 +1161,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1333,7 +1352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1556,6 +1575,19 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -1564,6 +1596,32 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1630,19 +1688,6 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1776,55 +1821,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1833,85 +1875,87 @@
     <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1954,6 +1998,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,73 +2037,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,13 +2070,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2080,19 +2118,19 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,118 +2142,118 @@
     <xf numFmtId="178" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="17" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2580,342 +2618,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="87"/>
+      <c r="A2" s="84"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="87">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="99" t="s">
+      <c r="M4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="89">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="102">
+      <c r="L5" s="99">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="103" t="s">
+      <c r="M5" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="104" t="s">
+      <c r="N5" s="101" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="89">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="102">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="103" t="s">
+      <c r="M6" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="101" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="89">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="100" t="s">
+      <c r="J7" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="102">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="101" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="89">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="100" t="s">
+      <c r="J8" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="102">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="103" t="s">
+      <c r="M8" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="101" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="102">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="104" t="s">
+      <c r="N9" s="101" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="102">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="104" t="s">
+      <c r="N10" s="101" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="105" t="s">
+      <c r="K11" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="105">
+      <c r="L11" s="102">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="101" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="89">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="105" t="s">
+      <c r="K12" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="105">
+      <c r="L12" s="102">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="103" t="s">
+      <c r="M12" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="N12" s="101" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="105" t="s">
+      <c r="K13" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="105">
+      <c r="L13" s="102">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="103" t="s">
+      <c r="M13" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="104" t="s">
+      <c r="N13" s="101" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="89">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="105" t="s">
+      <c r="K14" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="105">
+      <c r="L14" s="102">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="104" t="s">
+      <c r="N14" s="101" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="89">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="89" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="89">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="89" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2952,627 +2990,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59">
+      <c r="A4" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="57">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59">
+      <c r="A5" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59">
+      <c r="A6" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="57">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="55" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59">
+      <c r="A7" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="57">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="55" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59">
+      <c r="A8" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="57">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59">
+      <c r="A9" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="55">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59">
+      <c r="A10" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="55">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="59">
+      <c r="A11" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="55">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="59">
+      <c r="A12" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="55">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="59">
+      <c r="A13" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="55">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="59">
+      <c r="A14" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="55">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="59">
+      <c r="A15" s="56">
         <v>0.458333333333333</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="56">
         <v>0.833333333333333</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="55">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="59" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="63">
+      <c r="A18" s="60">
         <v>10259455</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="62">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="62">
         <v>0.833333333333333</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="61">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="66">
+      <c r="A19" s="63">
         <v>10318223</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="64">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="66">
+      <c r="A20" s="63">
         <v>10314749</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="64">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="66">
+      <c r="A21" s="63">
         <v>10305637</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="64">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="66">
+      <c r="A22" s="63">
         <v>10322035</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="64">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="66">
+      <c r="A23" s="63">
         <v>10323953</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="70"/>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="64">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="70"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="64">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="70"/>
-      <c r="B26" s="67" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="64">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="70"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="64">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="70"/>
-      <c r="B28" s="67" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="65">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="65">
         <v>0.833333333333333</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="64">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="71"/>
-      <c r="D33" s="72" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="71">
         <v>45756</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E34" s="71">
         <v>45757</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="71">
         <v>45758</v>
       </c>
-      <c r="G34" s="74">
+      <c r="G34" s="71">
         <v>45759</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="71">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="76" t="s">
+      <c r="F35" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="76">
         <v>45762</v>
       </c>
-      <c r="F37" s="79">
+      <c r="F37" s="76">
         <v>45763</v>
       </c>
-      <c r="G37" s="79">
+      <c r="G37" s="76">
         <v>45764</v>
       </c>
-      <c r="H37" s="79">
+      <c r="H37" s="76">
         <v>45765</v>
       </c>
-      <c r="I37" s="79">
+      <c r="I37" s="76">
         <v>45766</v>
       </c>
-      <c r="J37" s="79">
+      <c r="J37" s="76">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="80">
+      <c r="C38" s="77">
         <v>10323953</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="79">
         <v>0.458333333333333</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="79">
         <v>0.458333333333333</v>
       </c>
-      <c r="G38" s="82">
+      <c r="G38" s="79">
         <v>0.458333333333333</v>
       </c>
-      <c r="H38" s="83" t="s">
+      <c r="H38" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="83" t="s">
+      <c r="I38" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="82">
+      <c r="J38" s="79">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="84"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="82">
+      <c r="C39" s="81"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="79">
         <v>0.833333333333333</v>
       </c>
-      <c r="F39" s="82">
+      <c r="F39" s="79">
         <v>0.833333333333333</v>
       </c>
-      <c r="G39" s="82">
+      <c r="G39" s="79">
         <v>0.833333333333333</v>
       </c>
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="83" t="s">
+      <c r="I39" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="82">
+      <c r="J39" s="79">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3589,10 +3627,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A4" sqref="A4:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3620,30 +3658,30 @@
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25"/>
     <row r="3" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>99</v>
       </c>
       <c r="G3"/>
@@ -3653,52 +3691,52 @@
       <c r="K3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>10331412</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.458333333333333</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G4"/>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>10305637</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>0.458333333333333</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>10322712</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.458333333333333</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G5"/>
@@ -3708,19 +3746,19 @@
       <c r="K5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>10331426</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.458333333333333</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G6"/>
@@ -3730,19 +3768,19 @@
       <c r="K6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>10331422</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.458333333333333</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G7"/>
@@ -3752,19 +3790,19 @@
       <c r="K7"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>10273655</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.458333333333333</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G8"/>
@@ -3774,19 +3812,19 @@
       <c r="K8"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>10287526</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.458333333333333</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G9"/>
@@ -3796,19 +3834,19 @@
       <c r="K9"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>10334426</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.458333333333333</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G10"/>
@@ -3818,155 +3856,155 @@
       <c r="K10"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10335613</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>10335593</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>10335553</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>10335595</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>10335581</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>10335592</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>10335591</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>10335702</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>10335700</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3979,1144 +4017,931 @@
       <c r="E21"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>30105102</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>0.75</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>30105102</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <v>1155998440</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>29901310</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>0.75</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>29901310</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="12">
         <v>1094405645</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>28711298</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>0.75</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>28711298</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>1280438382</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>29408200</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>0.75</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>29408200</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <v>1095680472</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="15.25" spans="1:5">
+    <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A28" s="19" t="s">
+    <row r="28" customFormat="1" ht="15.25" spans="1:4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A29" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D29" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22" t="s">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22" t="s">
+      <c r="I29" s="23"/>
+      <c r="J29" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="20" t="s">
+      <c r="K29" s="23"/>
+      <c r="L29" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M29" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N29" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="O28" s="22"/>
-    </row>
-    <row r="29" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="23" t="s">
+      <c r="O29" s="23"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="23" t="s">
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O30" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A30" s="24">
+    <row r="31" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A31" s="25">
         <v>10210885</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C31" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D31" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E31" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F31" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G31" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H31" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I31" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25" t="s">
+      <c r="K31" s="26"/>
+      <c r="L31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N31" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O31" s="28">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A31" s="28">
+    <row r="32" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A32" s="29">
         <v>10259455</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B32" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E31" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F31" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G31" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H31" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J31" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K31" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L31" s="56" t="s">
+      <c r="D32" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E32" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F32" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G32" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H32" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J32" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K32" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L32" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="M31" s="56" t="s">
+      <c r="M32" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="N31" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O31" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A32" s="24">
+      <c r="N32" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O32" s="28">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A33" s="25">
         <v>10293907</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B33" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D33" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E33" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F33" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G33" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H33" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I33" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J33" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K33" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="L32" s="56" t="s">
+      <c r="L33" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="56" t="s">
+      <c r="M33" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N33" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O33" s="28">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A33" s="24">
+    <row r="34" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A34" s="25">
         <v>10304876</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C34" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D34" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E34" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F34" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G34" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H34" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I34" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J34" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K34" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="L33" s="56" t="s">
+      <c r="L34" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="56" t="s">
+      <c r="M34" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N34" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O34" s="28">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A34" s="24">
+    <row r="35" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A35" s="25">
         <v>10310365</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C35" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D35" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E35" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F35" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G35" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H35" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I35" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J35" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K35" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O35" s="28">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A36" s="32">
+        <v>10305637</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="56" t="s">
+      <c r="C36" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E36" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F36" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G36" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H36" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I36" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J36" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K36" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L36" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="M34" s="56" t="s">
+      <c r="M36" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N36" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="O34" s="27">
+      <c r="O36" s="28">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A35" s="28">
-        <v>10305637</v>
-      </c>
-      <c r="B35" s="29" t="s">
+    <row r="37" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A37" s="29">
+        <v>10324569</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E35" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F35" s="27">
+      <c r="D37" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="G35" s="27">
+      <c r="E37" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="H35" s="27">
+      <c r="F37" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="I35" s="27">
+      <c r="G37" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="J35" s="27">
+      <c r="H37" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="K35" s="27">
+      <c r="I37" s="28">
         <v>0.791666666666667</v>
       </c>
-      <c r="L35" s="56" t="s">
+      <c r="J37" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K37" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L37" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="M35" s="56" t="s">
+      <c r="M37" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N37" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="O35" s="27">
+      <c r="O37" s="28">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15.25" spans="1:4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:15">
-      <c r="A37" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="36" t="s">
+    <row r="38" ht="15.25"/>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37" t="s">
+      <c r="B39" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
+      <c r="D39" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37" t="s">
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="34">
+        <v>10238685</v>
+      </c>
+      <c r="B40" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="35" t="s">
+      <c r="C40" s="36">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D40" s="36">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="34">
+        <v>10322837</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="M37" s="35" t="s">
+      <c r="C41" s="36">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D41" s="36">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25"/>
+    <row r="43" ht="15.25" spans="1:5">
+      <c r="A43" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="40">
+        <v>10334497</v>
+      </c>
+      <c r="B44" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="N37" s="37" t="s">
+      <c r="C44" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="O37" s="37"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="O38" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:15">
-      <c r="A39" s="39">
-        <v>10210885</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="42">
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="40">
+        <v>10334495</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:5">
+      <c r="A46" s="40">
+        <v>10335547</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:5">
+      <c r="A47" s="40">
+        <v>10335550</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="40">
+        <v>10335545</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="40">
+        <v>10335548</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50" s="40">
+        <v>10335696</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:1">
+      <c r="A52" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:16">
+      <c r="A53" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P53" s="46"/>
+    </row>
+    <row r="54" ht="15.25" spans="1:16">
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="M54" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="N54" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="O54" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="P54" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" ht="14.75" spans="1:16">
+      <c r="A55" s="51">
+        <v>29608191</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="E39" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F39" s="42">
+      <c r="D55" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="G39" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H39" s="42">
+      <c r="F55" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G55" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="I39" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="M39" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="N39" s="42">
+      <c r="H55" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="I55" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="O39" s="42">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:15">
-      <c r="A40" s="43">
-        <v>10259455</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="42">
+      <c r="J55" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L55" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M55" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="N55" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="O55" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="E40" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F40" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G40" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H40" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I40" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J40" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K40" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L40" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="M40" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="N40" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O40" s="42">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:15">
-      <c r="A41" s="39">
-        <v>10293907</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E41" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F41" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G41" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H41" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I41" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J41" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K41" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L41" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="M41" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="N41" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O41" s="42">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:15">
-      <c r="A42" s="39">
-        <v>10304876</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E42" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F42" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G42" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H42" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I42" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J42" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K42" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L42" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="M42" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="N42" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O42" s="42">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:15">
-      <c r="A43" s="39">
-        <v>10310365</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E43" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F43" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G43" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H43" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I43" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J43" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K43" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L43" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="M43" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="N43" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O43" s="42">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:15">
-      <c r="A44" s="43">
-        <v>10305637</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E44" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F44" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G44" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H44" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I44" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J44" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K44" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L44" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="M44" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="N44" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O44" s="42">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:15">
-      <c r="A45" s="43">
-        <v>10324569</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E45" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F45" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G45" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H45" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I45" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J45" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K45" s="42">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L45" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="M45" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="N45" s="42">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O45" s="42">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" ht="15.25"/>
-    <row r="47" ht="14.75" spans="1:4">
-      <c r="A47" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:4">
-      <c r="A48" s="47">
-        <v>10238685</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="49">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D48" s="49">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="47">
-        <v>10322837</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="49">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D49" s="49">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25"/>
-    <row r="51" ht="15.25" spans="1:5">
-      <c r="A51" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="53">
-        <v>10334497</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D52" s="15">
+      <c r="P55" s="53">
         <v>0.75</v>
       </c>
-      <c r="E52" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="53">
-        <v>10334495</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D53" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E53" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="53">
-        <v>10335547</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D54" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="53">
-        <v>10335550</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D55" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E55" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="53">
-        <v>10335545</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D56" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E56" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:5">
-      <c r="A57" s="53">
-        <v>10335548</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D57" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:5">
-      <c r="A58" s="53">
-        <v>10335696</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D58" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E58" s="55" t="s">
-        <v>162</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M37:M38"/>
+  <mergeCells count="20">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
   </mergeCells>
   <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 H4 A44:A45 A47:A50 A28 A59 A70:A1048576">
+  <conditionalFormatting sqref="A1:A19 H4 A36:A37 A62:A1048576 A51 A39:A42">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A19 H4 A36:A37 A62:A1048576 A39:A51">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 H4 A44:A45 A47:A59 A28 A70:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A1:A53 A55:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -495,6 +495,12 @@
     <t>Salma Ahmed Taima</t>
   </si>
   <si>
+    <t>Start Shift</t>
+  </si>
+  <si>
+    <t>End Shift</t>
+  </si>
+  <si>
     <t>Temp ID</t>
   </si>
   <si>
@@ -507,12 +513,18 @@
     <t>Omnia Gamal Abdelsalam</t>
   </si>
   <si>
+    <t>Sat - Sun</t>
+  </si>
+  <si>
     <t>المريوطية</t>
   </si>
   <si>
     <t>امنية جمال عبد السلام</t>
   </si>
   <si>
+    <t>اجازة جمعة و سبت الاسبوع ده بس بعد كده هيبقى سبت و حد =&gt;</t>
+  </si>
+  <si>
     <t>Mariam Tarek</t>
   </si>
   <si>
@@ -522,7 +534,7 @@
     <t>مريم طارق</t>
   </si>
   <si>
-    <t>Rana Badr eldeen</t>
+    <t>Rana Badr elden</t>
   </si>
   <si>
     <t>البوابة 2 الجديدة</t>
@@ -537,6 +549,12 @@
     <t>منة ريحان</t>
   </si>
   <si>
+    <t>TAX1</t>
+  </si>
+  <si>
+    <t>Nashwa Mostafa</t>
+  </si>
+  <si>
     <t>Employee ID</t>
   </si>
   <si>
@@ -600,7 +618,52 @@
     <t>Ammar Isameldin Hassan</t>
   </si>
   <si>
-    <t>HRID</t>
+    <t>Momen Medhat</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelaziz</t>
+  </si>
+  <si>
+    <t>Seifeldin Magdy</t>
+  </si>
+  <si>
+    <t>Karim Elsaid Gharib Omar</t>
+  </si>
+  <si>
+    <t>Abeer Ahmed</t>
+  </si>
+  <si>
+    <t>Adham Naser</t>
+  </si>
+  <si>
+    <t>Haidy Mashaly</t>
+  </si>
+  <si>
+    <t>لحد اخر شهر 8</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Monday, August 4, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, August 5, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, August 6, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, August 7, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 8, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, August 9, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, August 10, 2025</t>
   </si>
   <si>
     <t>Shift Start</t>
@@ -609,122 +672,94 @@
     <t>Shift End</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Moha</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ed hany</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ahme</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Sobhe</t>
-    </r>
-  </si>
-  <si>
-    <t>Momen Medhat</t>
-  </si>
-  <si>
-    <t>Sat - Sun</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelaziz</t>
-  </si>
-  <si>
-    <t>Seifeldin Magdy</t>
-  </si>
-  <si>
-    <t>Karim Elsaid Gharib Omar</t>
-  </si>
-  <si>
-    <t>Abeer Ahmed</t>
-  </si>
-  <si>
-    <t>Adham Naser</t>
-  </si>
-  <si>
-    <t>Haidy Mashaly</t>
-  </si>
-  <si>
-    <t>لحد اخر شهر 8</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Monday, August 4, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, August 5, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, August 6, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, August 7, 2025</t>
-  </si>
-  <si>
-    <t>Friday, August 8, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, August 9, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, August 10, 2025</t>
-  </si>
-  <si>
     <t>Ahmed abdelghafar</t>
+  </si>
+  <si>
+    <t>Eman Adel</t>
+  </si>
+  <si>
+    <t>Marina Emad</t>
+  </si>
+  <si>
+    <t>Mohamed Sherif</t>
+  </si>
+  <si>
+    <t>Omer Abdo</t>
+  </si>
+  <si>
+    <t>Shady Mohamed</t>
+  </si>
+  <si>
+    <t>Yahia Ahmed Mohamed Teleb</t>
+  </si>
+  <si>
+    <t>Yaseen Ashraf</t>
+  </si>
+  <si>
+    <t>Ibraam Osama</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelazeem</t>
+  </si>
+  <si>
+    <t>Abeer Isamil</t>
+  </si>
+  <si>
+    <t>Omar Emad Eldeen Hassan</t>
+  </si>
+  <si>
+    <t>Youssef Mohamed Nehad</t>
+  </si>
+  <si>
+    <t>Micheal Youssef</t>
+  </si>
+  <si>
+    <t>Basant Hany El Gendy</t>
+  </si>
+  <si>
+    <t>Ahmed Mohsen</t>
+  </si>
+  <si>
+    <t>Omar Mahmoud Serag</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Abdelrahman Mohamed</t>
+  </si>
+  <si>
+    <t>Sarah Ahmed Abdelfattah</t>
+  </si>
+  <si>
+    <t>Ramez Tarek Rashad</t>
+  </si>
+  <si>
+    <t>Hagar Adel</t>
+  </si>
+  <si>
+    <t>Ghada El-Kadi</t>
+  </si>
+  <si>
+    <t>Pavly Osama</t>
+  </si>
+  <si>
+    <t>Shaden Yasser Mahmoud</t>
+  </si>
+  <si>
+    <t>Kareem Fawzy</t>
+  </si>
+  <si>
+    <t>Ahmed MohamedSobhi</t>
+  </si>
+  <si>
+    <t>Mohamed Hany</t>
+  </si>
+  <si>
+    <t>Belal Gamal</t>
+  </si>
+  <si>
+    <t>Moamen Gamal</t>
+  </si>
+  <si>
+    <t>walid mohamed</t>
   </si>
 </sst>
 </file>
@@ -740,7 +775,7 @@
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,12 +811,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -798,27 +827,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -845,6 +853,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="-apple-system"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1050,7 +1064,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,6 +1080,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5A00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,24 +1110,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5A00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,6 +1152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,7 +1360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1406,6 +1414,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1417,47 +1455,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,21 +1594,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1821,137 +1803,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1974,29 +1956,26 @@
     <xf numFmtId="179" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2004,100 +1983,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2106,154 +2073,172 @@
     <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="17" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="14" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2308,17 +2293,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2618,342 +2593,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="84"/>
+      <c r="A2" s="85"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="88">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="96" t="s">
+      <c r="M4" s="97" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="90">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="98" t="s">
+      <c r="K5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="99">
+      <c r="L5" s="100">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="102" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89">
+      <c r="B6" s="90">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="102" t="s">
+      <c r="K6" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="102">
+      <c r="L6" s="103">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="100" t="s">
+      <c r="M6" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="101" t="s">
+      <c r="N6" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="89">
+      <c r="B7" s="90">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="103">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="100" t="s">
+      <c r="M7" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="89">
+      <c r="B8" s="90">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="102" t="s">
+      <c r="K8" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="103">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="100" t="s">
+      <c r="M8" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="101" t="s">
+      <c r="N8" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="102" t="s">
+      <c r="K9" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="103">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="100" t="s">
+      <c r="M9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="101" t="s">
+      <c r="N9" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="102" t="s">
+      <c r="K10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="103">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="100" t="s">
+      <c r="M10" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="101" t="s">
+      <c r="N10" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="97" t="s">
+      <c r="J11" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="102" t="s">
+      <c r="K11" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="102">
+      <c r="L11" s="103">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="100" t="s">
+      <c r="M11" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="101" t="s">
+      <c r="N11" s="102" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="90">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="102">
+      <c r="L12" s="103">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="100" t="s">
+      <c r="M12" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="101" t="s">
+      <c r="N12" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="97" t="s">
+      <c r="J13" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="102" t="s">
+      <c r="K13" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="102">
+      <c r="L13" s="103">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="100" t="s">
+      <c r="M13" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="101" t="s">
+      <c r="N13" s="102" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="89">
+      <c r="B14" s="90">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="102" t="s">
+      <c r="K14" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="102">
+      <c r="L14" s="103">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="100" t="s">
+      <c r="M14" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="101" t="s">
+      <c r="N14" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="89">
+      <c r="B15" s="90">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="90" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="89">
+      <c r="B16" s="90">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="90" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2990,627 +2965,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="56" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="56">
+      <c r="A4" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="58">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="56" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="56">
+      <c r="A5" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="56" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="56">
+      <c r="A6" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="58">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="56">
+      <c r="A7" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="58">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="56">
+      <c r="A8" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="58">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="56">
+      <c r="A9" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="56">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="56" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="56">
+      <c r="A10" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="56">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="56">
+      <c r="A11" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="56">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="56" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="56">
+      <c r="A12" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="56">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="56" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="56">
+      <c r="A13" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="56">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="56">
+      <c r="A14" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="56">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="56" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="56">
+      <c r="A15" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="57">
         <v>0.833333333333333</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="56">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="60">
+      <c r="A18" s="61">
         <v>10259455</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="63">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="63">
         <v>0.833333333333333</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="62">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="63">
+      <c r="A19" s="64">
         <v>10318223</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="65">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="63">
+      <c r="A20" s="64">
         <v>10314749</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="65">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="63">
+      <c r="A21" s="64">
         <v>10305637</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="65">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="63">
+      <c r="A22" s="64">
         <v>10322035</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="65">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="63">
+      <c r="A23" s="64">
         <v>10323953</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E23" s="64"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="67"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="65">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="67"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="65">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="67"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="65">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="67"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="65">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="67"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="66">
         <v>0.833333333333333</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="65">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="68"/>
-      <c r="D33" s="69" t="s">
+      <c r="C33" s="69"/>
+      <c r="D33" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="G33" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="70" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="71">
+      <c r="D34" s="72">
         <v>45756</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="72">
         <v>45757</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="72">
         <v>45758</v>
       </c>
-      <c r="G34" s="71">
+      <c r="G34" s="72">
         <v>45759</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="72">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="74" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="76">
+      <c r="E37" s="77">
         <v>45762</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="77">
         <v>45763</v>
       </c>
-      <c r="G37" s="76">
+      <c r="G37" s="77">
         <v>45764</v>
       </c>
-      <c r="H37" s="76">
+      <c r="H37" s="77">
         <v>45765</v>
       </c>
-      <c r="I37" s="76">
+      <c r="I37" s="77">
         <v>45766</v>
       </c>
-      <c r="J37" s="76">
+      <c r="J37" s="77">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="77">
+      <c r="C38" s="78">
         <v>10323953</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="79">
+      <c r="E38" s="80">
         <v>0.458333333333333</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="80">
         <v>0.458333333333333</v>
       </c>
-      <c r="G38" s="79">
+      <c r="G38" s="80">
         <v>0.458333333333333</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="H38" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="79">
+      <c r="J38" s="80">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="79">
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="80">
         <v>0.833333333333333</v>
       </c>
-      <c r="F39" s="79">
+      <c r="F39" s="80">
         <v>0.833333333333333</v>
       </c>
-      <c r="G39" s="79">
+      <c r="G39" s="80">
         <v>0.833333333333333</v>
       </c>
-      <c r="H39" s="80" t="s">
+      <c r="H39" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="80" t="s">
+      <c r="I39" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="79">
+      <c r="J39" s="80">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3627,10 +3602,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4009,7 +3984,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1" spans="1:5">
+    <row r="21" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4018,893 +3993,1380 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="D22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="J22" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:14">
+      <c r="A23" s="13">
+        <v>30105102</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="16">
+        <v>30105102</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1155998440</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A24" s="13">
+        <v>29901310</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="16">
+        <v>29901310</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="16">
+        <v>1094405645</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A25" s="13">
+        <v>28711298</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="16">
+        <v>28711298</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1280438382</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.25" spans="1:10">
+      <c r="A26" s="13">
+        <v>29408200</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="16">
+        <v>29408200</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="16">
+        <v>1095680472</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="15.25" spans="1:4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A29" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A31" s="24">
+        <v>10210885</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="N31" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O31" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A32" s="28">
+        <v>10259455</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O32" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A33" s="24">
+        <v>10293907</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L33" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O33" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A34" s="24">
+        <v>10304876</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E34" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F34" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H34" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I34" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J34" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K34" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O34" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A35" s="24">
+        <v>10310365</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O35" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A36" s="31">
+        <v>10305637</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G36" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H36" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I36" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J36" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K36" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L36" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="N36" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O36" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A37" s="28">
+        <v>10324569</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E37" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F37" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G37" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H37" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I37" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J37" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K37" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="N37" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O37" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25"/>
+    <row r="40" ht="15.25" spans="1:5">
+      <c r="A40" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D40" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E40" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="10" t="s">
+    </row>
+    <row r="41" ht="15.25" spans="1:5">
+      <c r="A41" s="35">
+        <v>10334497</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:10">
+      <c r="A42" s="35">
+        <v>10334495</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:5">
+      <c r="A43" s="35">
+        <v>10335547</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="35">
+        <v>10335550</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="35">
+        <v>10335545</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:5">
+      <c r="A46" s="35">
+        <v>10335548</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:5">
+      <c r="A47" s="35">
+        <v>10335696</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D47" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:1">
+      <c r="A49" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:16">
+      <c r="A50" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="P50" s="41"/>
+    </row>
+    <row r="51" ht="15.25" spans="1:16">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="J51" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="L51" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="M51" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="N51" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="P51" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:16">
+      <c r="A52" s="46">
+        <v>29608191</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="48">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D52" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="E52" s="48">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F52" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="G52" s="48">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H52" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="I52" s="48">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J52" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="K52" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="L52" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="M52" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="N52" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="O52" s="48">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P52" s="48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25"/>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="D55" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A23" s="12">
-        <v>30105102</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="E55" s="50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="51">
+        <v>10334018</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:5">
+      <c r="A57" s="51">
+        <v>10334023</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="51">
+        <v>10333976</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:10">
+      <c r="A59" s="51">
+        <v>10333953</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="51">
+        <v>10333938</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:5">
+      <c r="A61" s="51">
+        <v>10333947</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:5">
+      <c r="A62" s="51">
+        <v>10333965</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:5">
+      <c r="A63" s="51">
+        <v>10334711</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:5">
+      <c r="A64" s="51">
+        <v>10334699</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="1:5">
+      <c r="A65" s="51">
+        <v>10334705</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:5">
+      <c r="A66" s="51">
+        <v>10334704</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" spans="1:5">
+      <c r="A67" s="51">
+        <v>10334708</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="1:5">
+      <c r="A68" s="51">
+        <v>10334726</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" spans="1:5">
+      <c r="A69" s="51">
+        <v>10334707</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E69" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" spans="1:5">
+      <c r="A70" s="51">
+        <v>10334710</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" spans="1:5">
+      <c r="A71" s="51">
+        <v>10334712</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="1:5">
+      <c r="A72" s="51">
+        <v>10334788</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" spans="1:5">
+      <c r="A73" s="51">
+        <v>10334700</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D73" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" spans="1:5">
+      <c r="A74" s="51">
+        <v>10334738</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" spans="1:5">
+      <c r="A75" s="51">
+        <v>10334701</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" spans="1:5">
+      <c r="A76" s="51">
+        <v>10334709</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E76" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" ht="15.25" spans="1:5">
+      <c r="A77" s="51">
+        <v>10334713</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D77" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E77" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" ht="15.25" spans="1:5">
+      <c r="A78" s="51">
+        <v>10334715</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E78" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" ht="15.25" spans="1:5">
+      <c r="A79" s="51">
+        <v>10334697</v>
+      </c>
+      <c r="B79" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="53">
         <v>0.416666666666667</v>
       </c>
-      <c r="D23" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="12">
-        <v>30105102</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J23" s="12">
-        <v>1155998440</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A24" s="12">
-        <v>29901310</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="D79" s="53">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E79" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="12">
-        <v>29901310</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="12">
-        <v>1094405645</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A25" s="12">
-        <v>28711298</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="12">
-        <v>28711298</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="12">
-        <v>1280438382</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A26" s="12">
-        <v>29408200</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="12">
-        <v>29408200</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="J26" s="12">
-        <v>1095680472</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" customFormat="1" ht="15.25" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A29" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="O29" s="23"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A31" s="25">
-        <v>10210885</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E31" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F31" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G31" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H31" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="N31" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O31" s="28">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A32" s="29">
-        <v>10259455</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E32" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F32" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G32" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H32" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I32" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J32" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K32" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L32" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="M32" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="N32" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O32" s="28">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A33" s="25">
-        <v>10293907</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E33" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F33" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G33" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H33" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I33" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J33" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K33" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L33" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="M33" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O33" s="28">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A34" s="25">
-        <v>10304876</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E34" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F34" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G34" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H34" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I34" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J34" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K34" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L34" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="M34" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="N34" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O34" s="28">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A35" s="25">
-        <v>10310365</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E35" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F35" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G35" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H35" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I35" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J35" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K35" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L35" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="N35" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O35" s="28">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A36" s="32">
-        <v>10305637</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E36" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F36" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G36" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H36" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I36" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J36" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K36" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L36" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="M36" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="N36" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O36" s="28">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A37" s="29">
-        <v>10324569</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E37" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F37" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G37" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H37" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I37" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J37" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K37" s="28">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L37" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="M37" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="N37" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O37" s="28">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25"/>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="34">
+    </row>
+    <row r="80" ht="15.25" spans="1:5">
+      <c r="A80" s="51">
+        <v>10322837</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E80" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" ht="15.25" spans="1:5">
+      <c r="A81" s="51">
         <v>10238685</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="36">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D40" s="36">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="34">
-        <v>10322837</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="36">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D41" s="36">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25"/>
-    <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="40">
-        <v>10334497</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D44" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="40">
-        <v>10334495</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D45" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="40">
-        <v>10335547</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D46" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="40">
-        <v>10335550</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D47" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="40">
-        <v>10335545</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D48" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="40">
-        <v>10335548</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D49" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:5">
-      <c r="A50" s="40">
-        <v>10335696</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:1">
-      <c r="A52" s="43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:16">
-      <c r="A53" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="P53" s="46"/>
-    </row>
-    <row r="54" ht="15.25" spans="1:16">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="I54" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="J54" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="K54" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="L54" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="M54" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="N54" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="O54" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="P54" s="50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" ht="14.75" spans="1:16">
-      <c r="A55" s="51">
-        <v>29608191</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D55" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E55" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F55" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="G55" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H55" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="I55" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J55" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="K55" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="L55" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="M55" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="N55" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="O55" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="P55" s="53">
-        <v>0.75</v>
+      <c r="B81" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E81" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" ht="15.25" spans="1:5">
+      <c r="A82" s="51">
+        <v>10273571</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E82" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" ht="15.25" spans="1:5">
+      <c r="A83" s="51">
+        <v>10334668</v>
+      </c>
+      <c r="B83" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E83" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" ht="15.25" spans="1:5">
+      <c r="A84" s="51">
+        <v>10298155</v>
+      </c>
+      <c r="B84" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4915,33 +5377,34 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A50:A51"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
   </mergeCells>
   <conditionalFormatting sqref="A$1:A$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 H4 A36:A37 A62:A1048576 A51 A39:A42">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  <conditionalFormatting sqref="A1:A19 H4 A36:A37 A59:A1048576 A39 A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 H4 A36:A37 A62:A1048576 A39:A51">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  <conditionalFormatting sqref="A1:A19 H4 A36:A37 A59:A1048576 A39:A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A53 A55:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="A1:A50 A52:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -3604,8 +3604,8 @@
   <sheetPr/>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3682,21 +3682,11 @@
         <v>100</v>
       </c>
       <c r="G4"/>
-      <c r="H4" s="5">
-        <v>10305637</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
       <c r="A5" s="5">
@@ -4613,7 +4603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" ht="15.25" spans="1:10">
+    <row r="42" spans="1:10">
       <c r="A42" s="35">
         <v>10334495</v>
       </c>
@@ -4629,9 +4619,7 @@
       <c r="E42" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" ht="15.25" spans="1:5">
       <c r="A43" s="35">
@@ -4907,7 +4895,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" ht="15.25" spans="1:5">
       <c r="A58" s="51">
         <v>10333976</v>
       </c>
@@ -4944,7 +4932,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" ht="15.25" spans="1:5">
       <c r="A60" s="51">
         <v>10333938</v>
       </c>
@@ -5397,14 +5385,14 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 H4 A36:A37 A59:A1048576 A39 A48">
+  <conditionalFormatting sqref="A1:A50 A52:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A19 A36:A37 A59:A1048576 A39 A48">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 H4 A36:A37 A59:A1048576 A39:A48">
+  <conditionalFormatting sqref="A1:A19 A36:A37 A59:A1048576 A39:A48">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A50 A52:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -522,9 +522,6 @@
     <t>امنية جمال عبد السلام</t>
   </si>
   <si>
-    <t>اجازة جمعة و سبت الاسبوع ده بس بعد كده هيبقى سبت و حد =&gt;</t>
-  </si>
-  <si>
     <t>Mariam Tarek</t>
   </si>
   <si>
@@ -564,25 +561,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Monday, August 4</t>
-  </si>
-  <si>
-    <t>Tuesday, August 5</t>
-  </si>
-  <si>
-    <t>Wednesday, August 6</t>
-  </si>
-  <si>
-    <t>Thursday, August 7</t>
-  </si>
-  <si>
-    <t>Friday, August 8</t>
-  </si>
-  <si>
-    <t>Saturday, August 9</t>
-  </si>
-  <si>
-    <t>Sunday, August 10</t>
+    <t>Monday, August 11</t>
+  </si>
+  <si>
+    <t>Tuesday, August 12</t>
+  </si>
+  <si>
+    <t>Wednesday, August 13</t>
+  </si>
+  <si>
+    <t>Thursday, August 14</t>
+  </si>
+  <si>
+    <t>Friday, August 15</t>
+  </si>
+  <si>
+    <t>Saturday, August 16</t>
+  </si>
+  <si>
+    <t>Sunday, August 17</t>
   </si>
   <si>
     <t>From</t>
@@ -824,12 +821,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
@@ -871,6 +862,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1933,11 +1930,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1990,9 +1987,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2010,18 +2004,6 @@
     <xf numFmtId="179" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -2037,34 +2019,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,10 +2070,10 @@
     <xf numFmtId="179" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2109,13 +2091,13 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,31 +2115,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="13" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,7 +2187,7 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2214,10 +2196,10 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2593,342 +2575,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="85"/>
+      <c r="A2" s="80"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="83">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="97" t="s">
+      <c r="M4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="85">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="100">
+      <c r="L5" s="95">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="101" t="s">
+      <c r="M5" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="97" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="85">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="98">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="101" t="s">
+      <c r="M6" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="102" t="s">
+      <c r="N6" s="97" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="85">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="98">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="102" t="s">
+      <c r="N7" s="97" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="85">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="103" t="s">
+      <c r="K8" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="98">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="101" t="s">
+      <c r="M8" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="102" t="s">
+      <c r="N8" s="97" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="103" t="s">
+      <c r="K9" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="98">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="101" t="s">
+      <c r="M9" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="102" t="s">
+      <c r="N9" s="97" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="103">
+      <c r="L10" s="98">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="101" t="s">
+      <c r="M10" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="102" t="s">
+      <c r="N10" s="97" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="103" t="s">
+      <c r="K11" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="98">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="101" t="s">
+      <c r="M11" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="97" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="85">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="103" t="s">
+      <c r="K12" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="103">
+      <c r="L12" s="98">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="101" t="s">
+      <c r="M12" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="102" t="s">
+      <c r="N12" s="97" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="J13" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="103">
+      <c r="L13" s="98">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="101" t="s">
+      <c r="M13" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="102" t="s">
+      <c r="N13" s="97" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="85">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="103">
+      <c r="L14" s="98">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="101" t="s">
+      <c r="M14" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="102" t="s">
+      <c r="N14" s="97" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="85">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="85">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="85" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2965,627 +2947,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="51" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="57">
+      <c r="A4" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="53">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="57">
+      <c r="A5" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="51" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="57">
+      <c r="A6" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="53">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57">
+      <c r="A7" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="53">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="57">
+      <c r="A8" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="53">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="57">
+      <c r="A9" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="51">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="51" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="57">
+      <c r="A10" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="51">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="57">
+      <c r="A11" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="51">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="51" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="57">
+      <c r="A12" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="51">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="57">
+      <c r="A13" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="51">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="57">
+      <c r="A14" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="51">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="57">
+      <c r="A15" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="52">
         <v>0.833333333333333</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="51">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="55" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="61">
+      <c r="A18" s="56">
         <v>10259455</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="58">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="58">
         <v>0.833333333333333</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="57">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="64">
+      <c r="A19" s="59">
         <v>10318223</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="60">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="64">
+      <c r="A20" s="59">
         <v>10314749</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="60">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="64">
+      <c r="A21" s="59">
         <v>10305637</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="60">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="64">
+      <c r="A22" s="59">
         <v>10322035</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="60">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="64">
+      <c r="A23" s="59">
         <v>10323953</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="68"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="60">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="68"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="60">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="68"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="60">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="68"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="63"/>
+      <c r="B27" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="60">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="68"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="61">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="61">
         <v>0.833333333333333</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="60">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="69"/>
-      <c r="D33" s="70" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="65" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="67">
         <v>45756</v>
       </c>
-      <c r="E34" s="72">
+      <c r="E34" s="67">
         <v>45757</v>
       </c>
-      <c r="F34" s="72">
+      <c r="F34" s="67">
         <v>45758</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="67">
         <v>45759</v>
       </c>
-      <c r="H34" s="72">
+      <c r="H34" s="67">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="74" t="s">
+      <c r="G35" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="74" t="s">
+      <c r="H35" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="77">
+      <c r="E37" s="72">
         <v>45762</v>
       </c>
-      <c r="F37" s="77">
+      <c r="F37" s="72">
         <v>45763</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="72">
         <v>45764</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="72">
         <v>45765</v>
       </c>
-      <c r="I37" s="77">
+      <c r="I37" s="72">
         <v>45766</v>
       </c>
-      <c r="J37" s="77">
+      <c r="J37" s="72">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="78">
+      <c r="C38" s="73">
         <v>10323953</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="80">
+      <c r="E38" s="75">
         <v>0.458333333333333</v>
       </c>
-      <c r="F38" s="80">
+      <c r="F38" s="75">
         <v>0.458333333333333</v>
       </c>
-      <c r="G38" s="80">
+      <c r="G38" s="75">
         <v>0.458333333333333</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="81" t="s">
+      <c r="I38" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="80">
+      <c r="J38" s="75">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="80">
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="75">
         <v>0.833333333333333</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="75">
         <v>0.833333333333333</v>
       </c>
-      <c r="G39" s="80">
+      <c r="G39" s="75">
         <v>0.833333333333333</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="81" t="s">
+      <c r="I39" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="80">
+      <c r="J39" s="75">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3630,20 +3612,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25"/>
-    <row r="3" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -4013,7 +3995,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:14">
+    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A23" s="13">
         <v>30105102</v>
       </c>
@@ -4038,14 +4020,11 @@
       <c r="H23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="49" t="s">
         <v>121</v>
       </c>
       <c r="J23" s="16">
         <v>1155998440</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.25" spans="1:10">
@@ -4053,7 +4032,7 @@
         <v>29901310</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="15">
         <v>0.5</v>
@@ -4068,13 +4047,13 @@
         <v>29901310</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="54" t="s">
-        <v>125</v>
+      <c r="I24" s="49" t="s">
+        <v>124</v>
       </c>
       <c r="J24" s="16">
         <v>1094405645</v>
@@ -4085,7 +4064,7 @@
         <v>28711298</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="15">
         <v>0.5</v>
@@ -4100,13 +4079,13 @@
         <v>28711298</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="54" t="s">
-        <v>128</v>
+      <c r="I25" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="J25" s="16">
         <v>1280438382</v>
@@ -4117,7 +4096,7 @@
         <v>29408200</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="15">
         <v>0.5</v>
@@ -4132,13 +4111,13 @@
         <v>29408200</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="54" t="s">
-        <v>130</v>
+      <c r="I26" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="J26" s="16">
         <v>1095680472</v>
@@ -4146,10 +4125,10 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A27" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="C27" s="15">
         <v>0.5</v>
@@ -4161,437 +4140,437 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="15.25" spans="1:4">
+    <row r="28" customFormat="1" ht="14" customHeight="1" spans="1:4">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15.25" spans="1:15">
+    <row r="29" customFormat="1" spans="1:15">
       <c r="A29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22" t="s">
+      <c r="G29" s="21"/>
+      <c r="H29" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22" t="s">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22" t="s">
+      <c r="K29" s="21"/>
+      <c r="L29" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="20" t="s">
+      <c r="M29" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="N29" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="N29" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="O29" s="22"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="15.25" spans="1:15">
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="I30" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>144</v>
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="O30" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="O30" s="23" t="s">
+    </row>
+    <row r="31" customFormat="1" spans="1:15">
+      <c r="A31" s="23">
+        <v>10210885</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A31" s="24">
-        <v>10210885</v>
-      </c>
-      <c r="B31" s="25" t="s">
+      <c r="C31" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
+        <v>0.875</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0.875</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26">
+        <v>0.875</v>
+      </c>
+      <c r="J31" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="27">
+      <c r="K31" s="24"/>
+      <c r="L31" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" s="26">
+        <v>0</v>
+      </c>
+      <c r="O31" s="26">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:15">
+      <c r="A32" s="23">
+        <v>10259455</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E32" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F32" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G32" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H32" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I32" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J32" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K32" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:15">
+      <c r="A33" s="23">
+        <v>10293907</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25" t="s">
+      <c r="D33" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J33" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K33" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L33" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O33" s="26">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:15">
+      <c r="A34" s="23">
+        <v>10304876</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="D34" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E34" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H34" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I34" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J34" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K34" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L34" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O34" s="26">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:15">
+      <c r="A35" s="23">
+        <v>10310365</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="N31" s="27">
+      <c r="D35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="O31" s="27">
+      <c r="E35" s="26">
         <v>0.791666666666667</v>
       </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A32" s="28">
-        <v>10259455</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="27">
+      <c r="F35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="E32" s="27">
+      <c r="G35" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="F32" s="27">
+      <c r="H35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="G32" s="27">
+      <c r="I35" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="H32" s="27">
+      <c r="J35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="I32" s="27">
+      <c r="K35" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="J32" s="27">
+      <c r="L35" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="K32" s="27">
+      <c r="O35" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="L32" s="55" t="s">
+    </row>
+    <row r="36" customFormat="1" spans="1:15">
+      <c r="A36" s="23">
+        <v>10305637</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E36" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K36" s="26">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L36" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="55" t="s">
+      <c r="M36" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N36" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O36" s="26">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A33" s="24">
-        <v>10293907</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="27">
+    <row r="37" customFormat="1" spans="1:15">
+      <c r="A37" s="23">
+        <v>10324569</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E37" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F37" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G37" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H37" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I37" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J37" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K37" s="26">
         <v>0.791666666666667</v>
       </c>
-      <c r="L33" s="55" t="s">
+      <c r="L37" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="55" t="s">
+      <c r="M37" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N37" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="O33" s="27">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A34" s="24">
-        <v>10304876</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F34" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H34" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J34" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L34" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="M34" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="N34" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O34" s="27">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A35" s="24">
-        <v>10310365</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L35" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="N35" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O35" s="27">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A36" s="31">
-        <v>10305637</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E36" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F36" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G36" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H36" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I36" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J36" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K36" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L36" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="M36" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="N36" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O36" s="27">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A37" s="28">
-        <v>10324569</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E37" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F37" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G37" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H37" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I37" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J37" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K37" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L37" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="M37" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="N37" s="27">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O37" s="27">
+      <c r="O37" s="26">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="39" ht="15.25"/>
     <row r="40" ht="15.25" spans="1:5">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="1:5">
-      <c r="A41" s="35">
+      <c r="A41" s="30">
         <v>10334497</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>154</v>
+      <c r="B41" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="C41" s="15">
         <v>0.375</v>
@@ -4599,16 +4578,16 @@
       <c r="D41" s="15">
         <v>0.75</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="35">
+    <row r="42" ht="15.25" spans="1:10">
+      <c r="A42" s="30">
         <v>10334495</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>155</v>
+      <c r="B42" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="C42" s="15">
         <v>0.375</v>
@@ -4616,17 +4595,17 @@
       <c r="D42" s="15">
         <v>0.75</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="32" t="s">
         <v>119</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="35">
+      <c r="A43" s="30">
         <v>10335547</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>156</v>
+      <c r="B43" s="31" t="s">
+        <v>155</v>
       </c>
       <c r="C43" s="15">
         <v>0.375</v>
@@ -4634,16 +4613,16 @@
       <c r="D43" s="15">
         <v>0.75</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="35">
+      <c r="A44" s="30">
         <v>10335550</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>157</v>
+      <c r="B44" s="31" t="s">
+        <v>156</v>
       </c>
       <c r="C44" s="15">
         <v>0.375</v>
@@ -4651,16 +4630,16 @@
       <c r="D44" s="15">
         <v>0.75</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="35">
+      <c r="A45" s="30">
         <v>10335545</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>158</v>
+      <c r="B45" s="31" t="s">
+        <v>157</v>
       </c>
       <c r="C45" s="15">
         <v>0.375</v>
@@ -4668,16 +4647,16 @@
       <c r="D45" s="15">
         <v>0.75</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="35">
+      <c r="A46" s="30">
         <v>10335548</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>159</v>
+      <c r="B46" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="C46" s="15">
         <v>0.375</v>
@@ -4685,16 +4664,16 @@
       <c r="D46" s="15">
         <v>0.75</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="35">
+      <c r="A47" s="30">
         <v>10335696</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>160</v>
+      <c r="B47" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="C47" s="15">
         <v>0.375</v>
@@ -4702,658 +4681,656 @@
       <c r="D47" s="15">
         <v>0.75</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="1:1">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:16">
+      <c r="A50" s="34" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:16">
-      <c r="A50" s="39" t="s">
+      <c r="B50" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="41" t="s">
+      <c r="D50" s="36"/>
+      <c r="E50" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41" t="s">
+      <c r="F50" s="36"/>
+      <c r="G50" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41" t="s">
+      <c r="H50" s="36"/>
+      <c r="I50" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41" t="s">
+      <c r="J50" s="36"/>
+      <c r="K50" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41" t="s">
+      <c r="L50" s="36"/>
+      <c r="M50" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41" t="s">
+      <c r="N50" s="36"/>
+      <c r="O50" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41" t="s">
+      <c r="P50" s="36"/>
+    </row>
+    <row r="51" ht="15.25" spans="1:16">
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="P50" s="41"/>
-    </row>
-    <row r="51" ht="15.25" spans="1:16">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44" t="s">
+      <c r="D51" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="E51" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="K51" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L51" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="N51" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P51" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:16">
+      <c r="A52" s="41">
+        <v>29608191</v>
+      </c>
+      <c r="B52" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E51" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="J51" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="L51" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="M51" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="N51" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="O51" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="P51" s="45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:16">
-      <c r="A52" s="46">
-        <v>29608191</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="48">
+      <c r="C52" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="43">
         <v>0.75</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="43">
         <v>0.75</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="43">
         <v>0.75</v>
       </c>
-      <c r="I52" s="48">
+      <c r="I52" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="J52" s="48">
+      <c r="J52" s="43">
         <v>0.75</v>
       </c>
-      <c r="K52" s="47" t="s">
+      <c r="K52" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="L52" s="47" t="s">
+      <c r="L52" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="M52" s="47" t="s">
+      <c r="M52" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="N52" s="47" t="s">
+      <c r="N52" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="O52" s="48">
+      <c r="O52" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="P52" s="48">
+      <c r="P52" s="43">
         <v>0.75</v>
       </c>
     </row>
     <row r="54" ht="15.25"/>
     <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="51">
+      <c r="A56" s="46">
         <v>10334018</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="48">
+        <v>0.875</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:5">
+      <c r="A57" s="46">
+        <v>10334023</v>
+      </c>
+      <c r="B57" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C57" s="48">
         <v>0.5</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D57" s="48">
         <v>0.875</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E57" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" ht="15.25" spans="1:5">
-      <c r="A57" s="51">
-        <v>10334023</v>
-      </c>
-      <c r="B57" s="52" t="s">
+    <row r="58" ht="15.25" spans="1:5">
+      <c r="A58" s="46">
+        <v>10333976</v>
+      </c>
+      <c r="B58" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="53">
+      <c r="C58" s="48">
         <v>0.5</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D58" s="48">
         <v>0.875</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E58" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" ht="15.25" spans="1:5">
-      <c r="A58" s="51">
-        <v>10333976</v>
-      </c>
-      <c r="B58" s="52" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" s="46">
+        <v>10333953</v>
+      </c>
+      <c r="B59" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="53">
+      <c r="C59" s="48">
         <v>0.5</v>
       </c>
-      <c r="D58" s="53">
+      <c r="D59" s="48">
         <v>0.875</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E59" s="47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:10">
-      <c r="A59" s="51">
-        <v>10333953</v>
-      </c>
-      <c r="B59" s="52" t="s">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" ht="15.25" spans="1:5">
+      <c r="A60" s="46">
+        <v>10333938</v>
+      </c>
+      <c r="B60" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C60" s="48">
         <v>0.5</v>
       </c>
-      <c r="D59" s="53">
+      <c r="D60" s="48">
         <v>0.875</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E60" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:5">
-      <c r="A60" s="51">
-        <v>10333938</v>
-      </c>
-      <c r="B60" s="52" t="s">
+    </row>
+    <row r="61" ht="15.25" spans="1:5">
+      <c r="A61" s="46">
+        <v>10333947</v>
+      </c>
+      <c r="B61" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C61" s="48">
         <v>0.5</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D61" s="48">
         <v>0.875</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E61" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" ht="15.25" spans="1:5">
-      <c r="A61" s="51">
-        <v>10333947</v>
-      </c>
-      <c r="B61" s="52" t="s">
+    <row r="62" ht="15.25" spans="1:5">
+      <c r="A62" s="46">
+        <v>10333965</v>
+      </c>
+      <c r="B62" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="53">
+      <c r="C62" s="48">
         <v>0.5</v>
       </c>
-      <c r="D61" s="53">
+      <c r="D62" s="48">
         <v>0.875</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E62" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" ht="15.25" spans="1:5">
-      <c r="A62" s="51">
-        <v>10333965</v>
-      </c>
-      <c r="B62" s="52" t="s">
+    <row r="63" ht="15.25" spans="1:5">
+      <c r="A63" s="46">
+        <v>10334711</v>
+      </c>
+      <c r="B63" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="53">
+      <c r="C63" s="48">
         <v>0.5</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D63" s="48">
         <v>0.875</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E63" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" ht="15.25" spans="1:5">
-      <c r="A63" s="51">
-        <v>10334711</v>
-      </c>
-      <c r="B63" s="52" t="s">
+    <row r="64" ht="15.25" spans="1:5">
+      <c r="A64" s="46">
+        <v>10334699</v>
+      </c>
+      <c r="B64" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="53">
+      <c r="C64" s="48">
         <v>0.5</v>
       </c>
-      <c r="D63" s="53">
+      <c r="D64" s="48">
         <v>0.875</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E64" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" ht="15.25" spans="1:5">
-      <c r="A64" s="51">
-        <v>10334699</v>
-      </c>
-      <c r="B64" s="52" t="s">
+    <row r="65" ht="15.25" spans="1:5">
+      <c r="A65" s="46">
+        <v>10334705</v>
+      </c>
+      <c r="B65" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C64" s="53">
+      <c r="C65" s="48">
         <v>0.5</v>
       </c>
-      <c r="D64" s="53">
+      <c r="D65" s="48">
         <v>0.875</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E65" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" ht="15.25" spans="1:5">
-      <c r="A65" s="51">
-        <v>10334705</v>
-      </c>
-      <c r="B65" s="52" t="s">
+    <row r="66" ht="15.25" spans="1:5">
+      <c r="A66" s="46">
+        <v>10334704</v>
+      </c>
+      <c r="B66" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="53">
+      <c r="C66" s="48">
         <v>0.5</v>
       </c>
-      <c r="D65" s="53">
+      <c r="D66" s="48">
         <v>0.875</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E66" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" ht="15.25" spans="1:5">
-      <c r="A66" s="51">
-        <v>10334704</v>
-      </c>
-      <c r="B66" s="52" t="s">
+    <row r="67" ht="15.25" spans="1:5">
+      <c r="A67" s="46">
+        <v>10334708</v>
+      </c>
+      <c r="B67" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="53">
+      <c r="C67" s="48">
         <v>0.5</v>
       </c>
-      <c r="D66" s="53">
+      <c r="D67" s="48">
         <v>0.875</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E67" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" ht="15.25" spans="1:5">
-      <c r="A67" s="51">
-        <v>10334708</v>
-      </c>
-      <c r="B67" s="52" t="s">
+    <row r="68" ht="15.25" spans="1:5">
+      <c r="A68" s="46">
+        <v>10334726</v>
+      </c>
+      <c r="B68" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="53">
+      <c r="C68" s="48">
         <v>0.5</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D68" s="48">
         <v>0.875</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E68" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" ht="15.25" spans="1:5">
-      <c r="A68" s="51">
-        <v>10334726</v>
-      </c>
-      <c r="B68" s="52" t="s">
+    <row r="69" ht="15.25" spans="1:5">
+      <c r="A69" s="46">
+        <v>10334707</v>
+      </c>
+      <c r="B69" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C68" s="53">
+      <c r="C69" s="48">
         <v>0.5</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D69" s="48">
         <v>0.875</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E69" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" ht="15.25" spans="1:5">
-      <c r="A69" s="51">
-        <v>10334707</v>
-      </c>
-      <c r="B69" s="52" t="s">
+    <row r="70" ht="15.25" spans="1:5">
+      <c r="A70" s="46">
+        <v>10334710</v>
+      </c>
+      <c r="B70" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="53">
+      <c r="C70" s="48">
         <v>0.5</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D70" s="48">
         <v>0.875</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E70" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" ht="15.25" spans="1:5">
-      <c r="A70" s="51">
-        <v>10334710</v>
-      </c>
-      <c r="B70" s="52" t="s">
+    <row r="71" ht="15.25" spans="1:5">
+      <c r="A71" s="46">
+        <v>10334712</v>
+      </c>
+      <c r="B71" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="53">
+      <c r="C71" s="48">
         <v>0.5</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D71" s="48">
         <v>0.875</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E71" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" ht="15.25" spans="1:5">
-      <c r="A71" s="51">
-        <v>10334712</v>
-      </c>
-      <c r="B71" s="52" t="s">
+    <row r="72" ht="15.25" spans="1:5">
+      <c r="A72" s="46">
+        <v>10334788</v>
+      </c>
+      <c r="B72" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="53">
+      <c r="C72" s="48">
         <v>0.5</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D72" s="48">
         <v>0.875</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E72" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" ht="15.25" spans="1:5">
-      <c r="A72" s="51">
-        <v>10334788</v>
-      </c>
-      <c r="B72" s="52" t="s">
+    <row r="73" ht="15.25" spans="1:5">
+      <c r="A73" s="46">
+        <v>10334700</v>
+      </c>
+      <c r="B73" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="53">
+      <c r="C73" s="48">
         <v>0.5</v>
       </c>
-      <c r="D72" s="53">
+      <c r="D73" s="48">
         <v>0.875</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E73" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" ht="15.25" spans="1:5">
-      <c r="A73" s="51">
-        <v>10334700</v>
-      </c>
-      <c r="B73" s="52" t="s">
+    <row r="74" ht="15.25" spans="1:5">
+      <c r="A74" s="46">
+        <v>10334738</v>
+      </c>
+      <c r="B74" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C74" s="48">
         <v>0.5</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D74" s="48">
         <v>0.875</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E74" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" ht="15.25" spans="1:5">
-      <c r="A74" s="51">
-        <v>10334738</v>
-      </c>
-      <c r="B74" s="52" t="s">
+    <row r="75" ht="15.25" spans="1:5">
+      <c r="A75" s="46">
+        <v>10334701</v>
+      </c>
+      <c r="B75" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="53">
+      <c r="C75" s="48">
         <v>0.5</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D75" s="48">
         <v>0.875</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E75" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" ht="15.25" spans="1:5">
-      <c r="A75" s="51">
-        <v>10334701</v>
-      </c>
-      <c r="B75" s="52" t="s">
+    <row r="76" ht="15.25" spans="1:5">
+      <c r="A76" s="46">
+        <v>10334709</v>
+      </c>
+      <c r="B76" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="53">
+      <c r="C76" s="48">
         <v>0.5</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D76" s="48">
         <v>0.875</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E76" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" ht="15.25" spans="1:5">
-      <c r="A76" s="51">
-        <v>10334709</v>
-      </c>
-      <c r="B76" s="52" t="s">
+    <row r="77" ht="15.25" spans="1:5">
+      <c r="A77" s="46">
+        <v>10334713</v>
+      </c>
+      <c r="B77" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="53">
+      <c r="C77" s="48">
         <v>0.5</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D77" s="48">
         <v>0.875</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E77" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" ht="15.25" spans="1:5">
-      <c r="A77" s="51">
-        <v>10334713</v>
-      </c>
-      <c r="B77" s="52" t="s">
+    <row r="78" ht="15.25" spans="1:5">
+      <c r="A78" s="46">
+        <v>10334715</v>
+      </c>
+      <c r="B78" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="53">
+      <c r="C78" s="48">
         <v>0.5</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D78" s="48">
         <v>0.875</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E78" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" ht="15.25" spans="1:5">
-      <c r="A78" s="51">
-        <v>10334715</v>
-      </c>
-      <c r="B78" s="52" t="s">
+    <row r="79" ht="15.25" spans="1:5">
+      <c r="A79" s="46">
+        <v>10334697</v>
+      </c>
+      <c r="B79" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="53">
+      <c r="C79" s="48">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D79" s="48">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" ht="15.25" spans="1:5">
+      <c r="A80" s="46">
+        <v>10322837</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="48">
         <v>0.5</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D80" s="48">
         <v>0.875</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E80" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" ht="15.25" spans="1:5">
-      <c r="A79" s="51">
-        <v>10334697</v>
-      </c>
-      <c r="B79" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="53">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D79" s="53">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="E79" s="52" t="s">
+    <row r="81" ht="15.25" spans="1:5">
+      <c r="A81" s="46">
+        <v>10238685</v>
+      </c>
+      <c r="B81" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="48">
+        <v>0.875</v>
+      </c>
+      <c r="E81" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" ht="15.25" spans="1:5">
-      <c r="A80" s="51">
-        <v>10322837</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="53">
+    <row r="82" ht="15.25" spans="1:5">
+      <c r="A82" s="46">
+        <v>10273571</v>
+      </c>
+      <c r="B82" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="48">
         <v>0.5</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D82" s="48">
         <v>0.875</v>
       </c>
-      <c r="E80" s="52" t="s">
+      <c r="E82" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" ht="15.25" spans="1:5">
-      <c r="A81" s="51">
-        <v>10238685</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C81" s="53">
+    <row r="83" ht="15.25" spans="1:5">
+      <c r="A83" s="46">
+        <v>10334668</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="48">
         <v>0.5</v>
       </c>
-      <c r="D81" s="53">
+      <c r="D83" s="48">
         <v>0.875</v>
       </c>
-      <c r="E81" s="52" t="s">
+      <c r="E83" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" ht="15.25" spans="1:5">
-      <c r="A82" s="51">
-        <v>10273571</v>
-      </c>
-      <c r="B82" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" s="53">
+    <row r="84" ht="15.25" spans="1:5">
+      <c r="A84" s="46">
+        <v>10298155</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="48">
         <v>0.5</v>
       </c>
-      <c r="D82" s="53">
+      <c r="D84" s="48">
         <v>0.875</v>
       </c>
-      <c r="E82" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" ht="15.25" spans="1:5">
-      <c r="A83" s="51">
-        <v>10334668</v>
-      </c>
-      <c r="B83" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="D83" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="E83" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" ht="15.25" spans="1:5">
-      <c r="A84" s="51">
-        <v>10298155</v>
-      </c>
-      <c r="B84" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="C84" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="D84" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="E84" s="52" t="s">
+      <c r="E84" s="47" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5380,19 +5357,19 @@
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A$1:A$1048576">
+  <conditionalFormatting sqref="A1:A19 A59:A1048576 A39:A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A19 A59:A1048576 A39 A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A28 A38:A50 A52:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A28 A38:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A50 A52:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 A36:A37 A59:A1048576 A39 A48">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 A36:A37 A59:A1048576 A39:A48">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="197">
   <si>
     <r>
       <rPr>
@@ -471,6 +471,9 @@
     <t>Salma Ahmed Taima</t>
   </si>
   <si>
+    <t>Mennatullah Ramadan</t>
+  </si>
+  <si>
     <t>Omnia Gamal Abdelsalam</t>
   </si>
   <si>
@@ -739,6 +742,9 @@
   </si>
   <si>
     <t>Doaa Essam</t>
+  </si>
+  <si>
+    <t>Nouran Noureldin</t>
   </si>
 </sst>
 </file>
@@ -755,7 +761,7 @@
     <numFmt numFmtId="180" formatCode="00000000000"/>
     <numFmt numFmtId="181" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,6 +799,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF313131"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1368,7 +1380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1401,6 +1413,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,137 +1896,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2004,19 +2046,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2025,112 +2073,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="178" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2139,151 +2187,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="12" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="13" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2638,342 +2686,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="83"/>
+      <c r="A2" s="85"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="88">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="95" t="s">
+      <c r="M4" s="97" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="90">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="K5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="100">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="99" t="s">
+      <c r="M5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="100" t="s">
+      <c r="N5" s="102" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="90">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="101">
+      <c r="L6" s="103">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="99" t="s">
+      <c r="M6" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="100" t="s">
+      <c r="N6" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="90">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="102" t="s">
+      <c r="K7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="103">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="100" t="s">
+      <c r="N7" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="90">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="101" t="s">
+      <c r="K8" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="103">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="100" t="s">
+      <c r="N8" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="103">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="99" t="s">
+      <c r="M9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="100" t="s">
+      <c r="N9" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="101" t="s">
+      <c r="K10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="101">
+      <c r="L10" s="103">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="99" t="s">
+      <c r="M10" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="100" t="s">
+      <c r="N10" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="96" t="s">
+      <c r="J11" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="103">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="99" t="s">
+      <c r="M11" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="100" t="s">
+      <c r="N11" s="102" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="90">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="101" t="s">
+      <c r="K12" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12" s="103">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="100" t="s">
+      <c r="N12" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="96" t="s">
+      <c r="J13" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="101">
+      <c r="L13" s="103">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="99" t="s">
+      <c r="M13" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="100" t="s">
+      <c r="N13" s="102" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="90">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="101" t="s">
+      <c r="K14" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="101">
+      <c r="L14" s="103">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="99" t="s">
+      <c r="M14" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="100" t="s">
+      <c r="N14" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="90">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="90" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="88">
+      <c r="B16" s="90">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="90" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3010,627 +3058,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="56" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55">
+      <c r="A4" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C4" s="56">
+      <c r="B4" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="58">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="56" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="55">
+      <c r="A5" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="56" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="55">
+      <c r="A6" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B6" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C6" s="56">
+      <c r="B6" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C6" s="58">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="55">
+      <c r="A7" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C7" s="56">
+      <c r="B7" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C7" s="58">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="55">
+      <c r="A8" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B8" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C8" s="56">
+      <c r="B8" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="58">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="55">
+      <c r="A9" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C9" s="54">
+      <c r="B9" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C9" s="56">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="56" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="55">
+      <c r="A10" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B10" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C10" s="54">
+      <c r="B10" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C10" s="56">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="55">
+      <c r="A11" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B11" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C11" s="54">
+      <c r="B11" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C11" s="56">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="56" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="55">
+      <c r="A12" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B12" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C12" s="54">
+      <c r="B12" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C12" s="56">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="56" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="55">
+      <c r="A13" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B13" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C13" s="54">
+      <c r="B13" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C13" s="56">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="55">
+      <c r="A14" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C14" s="54">
+      <c r="B14" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C14" s="56">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="56" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="55">
+      <c r="A15" s="57">
         <v>0.458333333333333</v>
       </c>
-      <c r="B15" s="55">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C15" s="54">
+      <c r="B15" s="57">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C15" s="56">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="59">
+      <c r="A18" s="61">
         <v>10259455</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="63">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="61">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E18" s="60">
+      <c r="D18" s="63">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E18" s="62">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="62">
+      <c r="A19" s="64">
         <v>10318223</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="63">
+      <c r="D19" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="65">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="62">
+      <c r="A20" s="64">
         <v>10314749</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D20" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E20" s="63">
+      <c r="D20" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="65">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="62">
+      <c r="A21" s="64">
         <v>10305637</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D21" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="63">
+      <c r="D21" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21" s="65">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="62">
+      <c r="A22" s="64">
         <v>10322035</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D22" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E22" s="63">
+      <c r="D22" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="65">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="62">
+      <c r="A23" s="64">
         <v>10323953</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D23" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="63"/>
+      <c r="D23" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="66"/>
-      <c r="B24" s="63" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D24" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="63">
+      <c r="D24" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24" s="65">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="66"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D25" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="63">
+      <c r="D25" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" s="65">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="66"/>
-      <c r="B26" s="63" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D26" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E26" s="63">
+      <c r="D26" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26" s="65">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="66"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="63">
+      <c r="D27" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="65">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="66"/>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="66">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="64">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="63">
+      <c r="D28" s="66">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E28" s="65">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="67"/>
-      <c r="D33" s="68" t="s">
+      <c r="C33" s="69"/>
+      <c r="D33" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="70" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="72">
         <v>45756</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="72">
         <v>45757</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="72">
         <v>45758</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="72">
         <v>45759</v>
       </c>
-      <c r="H34" s="70">
+      <c r="H34" s="72">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="72" t="s">
+      <c r="F35" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="72" t="s">
+      <c r="H35" s="74" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="75">
+      <c r="E37" s="77">
         <v>45762</v>
       </c>
-      <c r="F37" s="75">
+      <c r="F37" s="77">
         <v>45763</v>
       </c>
-      <c r="G37" s="75">
+      <c r="G37" s="77">
         <v>45764</v>
       </c>
-      <c r="H37" s="75">
+      <c r="H37" s="77">
         <v>45765</v>
       </c>
-      <c r="I37" s="75">
+      <c r="I37" s="77">
         <v>45766</v>
       </c>
-      <c r="J37" s="75">
+      <c r="J37" s="77">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="76">
+      <c r="C38" s="78">
         <v>10323953</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="78">
+      <c r="E38" s="80">
         <v>0.458333333333333</v>
       </c>
-      <c r="F38" s="78">
+      <c r="F38" s="80">
         <v>0.458333333333333</v>
       </c>
-      <c r="G38" s="78">
+      <c r="G38" s="80">
         <v>0.458333333333333</v>
       </c>
-      <c r="H38" s="79" t="s">
+      <c r="H38" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="79" t="s">
+      <c r="I38" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="78">
+      <c r="J38" s="80">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="78">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F39" s="78">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G39" s="78">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H39" s="79" t="s">
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="80">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F39" s="80">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G39" s="80">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H39" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="79" t="s">
+      <c r="I39" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="78">
+      <c r="J39" s="80">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3647,10 +3695,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3828,7 +3876,7 @@
       </c>
       <c r="L9"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:12">
+    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:12">
       <c r="A10" s="6">
         <v>10331422</v>
       </c>
@@ -3846,7 +3894,22 @@
       </c>
       <c r="L10"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="13:13">
+    <row r="11" s="1" customFormat="1" spans="1:13">
+      <c r="A11" s="9">
+        <v>10292112</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="M11"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
@@ -3857,19 +3920,19 @@
       <c r="E12"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>99</v>
       </c>
       <c r="F13"/>
@@ -3879,20 +3942,20 @@
       <c r="J13"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A14" s="11">
+      <c r="A14" s="13">
         <v>30105102</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="15">
         <v>0.5</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="15">
         <v>0.875</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>106</v>
+      <c r="E14" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -3901,20 +3964,20 @@
       <c r="J14"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A15" s="11">
+      <c r="A15" s="13">
         <v>29901310</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.875</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -3923,20 +3986,20 @@
       <c r="J15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A16" s="11">
+      <c r="A16" s="13">
         <v>28711298</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="15">
         <v>0.5</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="15">
         <v>0.875</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>106</v>
+      <c r="E16" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -3945,20 +4008,20 @@
       <c r="J16"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A17" s="11">
+      <c r="A17" s="13">
         <v>29408200</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="15">
         <v>0.5</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <v>0.875</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>106</v>
+      <c r="E17" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -3968,1445 +4031,1480 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25"/>
     <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="13">
+      <c r="B20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="15">
         <v>0.416666666666667</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="15">
         <v>0.75</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="14" customHeight="1" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A22" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="D22" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="17" t="s">
+      <c r="I22" s="20"/>
+      <c r="J22" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="K22" s="20"/>
+      <c r="L22" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="M22" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="O22" s="18"/>
+      <c r="N22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="E23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="G23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="19" t="s">
+      <c r="I23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O23" s="19" t="s">
+      <c r="K23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="21" t="s">
         <v>123</v>
       </c>
+      <c r="O23" s="21" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="24" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A24" s="20">
+      <c r="A24" s="22">
         <v>10210885</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="23">
+      <c r="C24" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="25">
         <v>0.5</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="25">
         <v>0.875</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="25">
         <v>0.5</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="25">
         <v>0.875</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="25">
         <v>0.5</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="25">
         <v>0.875</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="N24" s="23">
+      <c r="J24" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="25">
         <v>0.5</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="25">
         <v>0.875</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A25" s="20">
+      <c r="A25" s="22">
         <v>10259455</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="C25" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="E25" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F25" s="23">
+      <c r="E25" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F25" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="G25" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H25" s="23">
+      <c r="G25" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H25" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="I25" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J25" s="23">
+      <c r="I25" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J25" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="K25" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L25" s="50" t="s">
+      <c r="K25" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L25" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="25">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A26" s="20">
+      <c r="A26" s="22">
         <v>10293907</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="D26" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="E26" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F26" s="23">
+      <c r="E26" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F26" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="G26" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H26" s="23">
+      <c r="G26" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H26" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="I26" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J26" s="23">
+      <c r="I26" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J26" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="K26" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L26" s="50" t="s">
+      <c r="K26" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L26" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="25">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A27" s="20">
+      <c r="A27" s="22">
         <v>10304876</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="23">
+      <c r="B27" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="E27" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F27" s="23">
+      <c r="E27" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F27" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="G27" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H27" s="23">
+      <c r="G27" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H27" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="I27" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J27" s="23">
+      <c r="I27" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J27" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="K27" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L27" s="50" t="s">
+      <c r="K27" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L27" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="25">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A28" s="20">
+      <c r="A28" s="22">
         <v>10310365</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="B28" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="E28" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F28" s="23">
+      <c r="E28" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F28" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="G28" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H28" s="23">
+      <c r="G28" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H28" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="I28" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J28" s="23">
+      <c r="I28" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J28" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="K28" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L28" s="50" t="s">
+      <c r="K28" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L28" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="25">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A29" s="20">
+      <c r="A29" s="22">
         <v>10305637</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="B29" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="E29" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="E29" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F29" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="G29" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H29" s="23">
+      <c r="G29" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H29" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="I29" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J29" s="23">
+      <c r="I29" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J29" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="K29" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L29" s="50" t="s">
+      <c r="K29" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L29" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="50" t="s">
+      <c r="M29" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="25">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="15.25" spans="1:15">
-      <c r="A30" s="20">
+      <c r="A30" s="22">
         <v>10324569</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="B30" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="E30" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F30" s="23">
+      <c r="E30" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F30" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="G30" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="G30" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H30" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="I30" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J30" s="23">
+      <c r="I30" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J30" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="K30" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L30" s="50" t="s">
+      <c r="K30" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L30" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M30" s="50" t="s">
+      <c r="M30" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="25">
         <v>0.416666666666667</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O30" s="25">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:1">
-      <c r="A33" s="24" t="s">
-        <v>133</v>
+      <c r="A33" s="26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:16">
-      <c r="A34" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27" t="s">
+      <c r="C34" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27" t="s">
+      <c r="F34" s="29"/>
+      <c r="G34" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27" t="s">
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
+      <c r="J34" s="29"/>
+      <c r="K34" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27" t="s">
+      <c r="L34" s="29"/>
+      <c r="M34" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="P34" s="27"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="P34" s="29"/>
     </row>
     <row r="35" ht="15.25" spans="1:16">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="31" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="31" t="s">
+      <c r="D35" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="31" t="s">
+      <c r="F35" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="I35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="31" t="s">
+      <c r="H35" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="K35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="L35" s="31" t="s">
+      <c r="J35" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="M35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="N35" s="31" t="s">
+      <c r="L35" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="O35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="P35" s="31" t="s">
+      <c r="N35" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="32" t="s">
         <v>143</v>
       </c>
+      <c r="P35" s="33" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="36" ht="15.25" spans="1:16">
-      <c r="A36" s="32">
+      <c r="A36" s="34">
         <v>29608191</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="34">
+      <c r="B36" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="36">
         <v>0.416666666666667</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="36">
         <v>0.75</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="36">
         <v>0.416666666666667</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="36">
         <v>0.75</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="36">
         <v>0.416666666666667</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="36">
         <v>0.75</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="36">
         <v>0.416666666666667</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="36">
         <v>0.75</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="M36" s="33" t="s">
+      <c r="M36" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="N36" s="33" t="s">
+      <c r="N36" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="O36" s="34">
+      <c r="O36" s="36">
         <v>0.416666666666667</v>
       </c>
-      <c r="P36" s="34">
+      <c r="P36" s="36">
         <v>0.75</v>
       </c>
     </row>
     <row r="39" ht="15.25"/>
     <row r="40" ht="15.25" spans="1:17">
-      <c r="A40" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36" t="s">
+      <c r="A40" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36" t="s">
+      <c r="E40" s="38"/>
+      <c r="F40" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36" t="s">
+      <c r="G40" s="38"/>
+      <c r="H40" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36" t="s">
+      <c r="I40" s="38"/>
+      <c r="J40" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36" t="s">
+      <c r="K40" s="38"/>
+      <c r="L40" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36" t="s">
+      <c r="M40" s="38"/>
+      <c r="N40" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="Q40" s="36"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q40" s="38"/>
     </row>
     <row r="41" ht="15.25" spans="1:17">
-      <c r="A41" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="40" t="s">
+      <c r="C41" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="40" t="s">
+      <c r="E41" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="40" t="s">
+      <c r="G41" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="K41" s="40" t="s">
+      <c r="I41" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="L41" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="M41" s="40" t="s">
+      <c r="K41" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="L41" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="N41" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="O41" s="40" t="s">
+      <c r="M41" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="N41" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="P41" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q41" s="40" t="s">
+      <c r="O41" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="P41" s="41" t="s">
         <v>143</v>
       </c>
+      <c r="Q41" s="42" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="42" ht="15.25" spans="1:17">
-      <c r="A42" s="41">
+      <c r="A42" s="43">
         <v>10250874</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="43" t="s">
+      <c r="B42" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="44">
+      <c r="C42" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="E42" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F42" s="44">
+      <c r="E42" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F42" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="G42" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H42" s="44">
+      <c r="G42" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H42" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="I42" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J42" s="44">
+      <c r="I42" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J42" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="K42" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L42" s="44">
+      <c r="K42" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L42" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="M42" s="44">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N42" s="51" t="s">
+      <c r="M42" s="46">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N42" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51" t="s">
+      <c r="O42" s="53"/>
+      <c r="P42" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="Q42" s="51"/>
+      <c r="Q42" s="53"/>
     </row>
     <row r="43" ht="15.25"/>
     <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="48" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="47">
+      <c r="A45" s="49">
         <v>10334713</v>
       </c>
-      <c r="B45" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="49">
+      <c r="B45" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="51">
         <v>0.5</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="51">
         <v>0.875</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="47">
+      <c r="A46" s="49">
         <v>10333947</v>
       </c>
-      <c r="B46" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="49">
+      <c r="B46" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="51">
         <v>0.5</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="51">
         <v>0.875</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="47">
+      <c r="A47" s="49">
         <v>10333938</v>
       </c>
-      <c r="B47" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="49">
+      <c r="B47" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="51">
         <v>0.5</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="51">
         <v>0.875</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="47">
+      <c r="A48" s="49">
         <v>10334715</v>
       </c>
-      <c r="B48" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="49">
+      <c r="B48" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="51">
         <v>0.5</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="51">
         <v>0.875</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="47">
+      <c r="A49" s="49">
         <v>10334700</v>
       </c>
-      <c r="B49" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="49">
+      <c r="B49" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="51">
         <v>0.5</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="51">
         <v>0.875</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" ht="15.25" spans="1:5">
-      <c r="A50" s="47">
+      <c r="A50" s="49">
         <v>10334738</v>
       </c>
-      <c r="B50" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="49">
+      <c r="B50" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="51">
         <v>0.5</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="51">
         <v>0.875</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="51" ht="15.25" spans="1:5">
-      <c r="A51" s="47">
+      <c r="A51" s="49">
         <v>10334712</v>
       </c>
-      <c r="B51" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="49">
+      <c r="B51" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="51">
         <v>0.5</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="51">
         <v>0.875</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="47">
+      <c r="A52" s="49">
         <v>10334704</v>
       </c>
-      <c r="B52" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="49">
+      <c r="B52" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="51">
         <v>0.5</v>
       </c>
-      <c r="D52" s="49">
+      <c r="D52" s="51">
         <v>0.875</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="47">
+      <c r="A53" s="49">
         <v>10333976</v>
       </c>
-      <c r="B53" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="49">
+      <c r="B53" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="51">
         <v>0.5</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="51">
         <v>0.875</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="47">
+      <c r="A54" s="49">
         <v>10334023</v>
       </c>
-      <c r="B54" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="49">
+      <c r="B54" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="51">
         <v>0.5</v>
       </c>
-      <c r="D54" s="49">
+      <c r="D54" s="51">
         <v>0.875</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="47">
+      <c r="A55" s="49">
         <v>10334711</v>
       </c>
-      <c r="B55" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="49">
+      <c r="B55" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="51">
         <v>0.5</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="51">
         <v>0.875</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="47">
+      <c r="A56" s="49">
         <v>10334701</v>
       </c>
-      <c r="B56" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="49">
+      <c r="B56" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="51">
         <v>0.5</v>
       </c>
-      <c r="D56" s="49">
+      <c r="D56" s="51">
         <v>0.875</v>
       </c>
-      <c r="E56" s="48" t="s">
+      <c r="E56" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="57" ht="15.25" spans="1:5">
-      <c r="A57" s="47">
+      <c r="A57" s="49">
         <v>10334709</v>
       </c>
-      <c r="B57" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="49">
+      <c r="B57" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="51">
         <v>0.5</v>
       </c>
-      <c r="D57" s="49">
+      <c r="D57" s="51">
         <v>0.875</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="58" ht="15.25" spans="1:5">
-      <c r="A58" s="47">
+      <c r="A58" s="49">
         <v>10334018</v>
       </c>
-      <c r="B58" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="49">
+      <c r="B58" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="51">
         <v>0.5</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="51">
         <v>0.875</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="59" ht="15.25" spans="1:5">
-      <c r="A59" s="47">
+      <c r="A59" s="49">
         <v>10334707</v>
       </c>
-      <c r="B59" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="49">
+      <c r="B59" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="51">
         <v>0.5</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="51">
         <v>0.875</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" ht="15.25" spans="1:5">
-      <c r="A60" s="47">
+      <c r="A60" s="49">
         <v>10334710</v>
       </c>
-      <c r="B60" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="49">
+      <c r="B60" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="51">
         <v>0.5</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="51">
         <v>0.875</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="61" ht="15.25" spans="1:5">
-      <c r="A61" s="47">
+      <c r="A61" s="49">
         <v>10334788</v>
       </c>
-      <c r="B61" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61" s="49">
+      <c r="B61" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="51">
         <v>0.5</v>
       </c>
-      <c r="D61" s="49">
+      <c r="D61" s="51">
         <v>0.875</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="62" ht="15.25" spans="1:5">
-      <c r="A62" s="47">
+      <c r="A62" s="49">
         <v>10334699</v>
       </c>
-      <c r="B62" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="49">
+      <c r="B62" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="51">
         <v>0.5</v>
       </c>
-      <c r="D62" s="49">
+      <c r="D62" s="51">
         <v>0.875</v>
       </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="63" ht="15.25" spans="1:5">
-      <c r="A63" s="47">
+      <c r="A63" s="49">
         <v>10334705</v>
       </c>
-      <c r="B63" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="49">
+      <c r="B63" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="51">
         <v>0.5</v>
       </c>
-      <c r="D63" s="49">
+      <c r="D63" s="51">
         <v>0.875</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" ht="15.25" spans="1:5">
-      <c r="A64" s="47">
+      <c r="A64" s="49">
         <v>10273655</v>
       </c>
-      <c r="B64" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="49">
+      <c r="B64" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="51">
         <v>0.458333333333333</v>
       </c>
-      <c r="D64" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E64" s="48" t="s">
+      <c r="D64" s="51">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E64" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="65" ht="15.25" spans="1:5">
-      <c r="A65" s="47">
+      <c r="A65" s="49">
         <v>10287526</v>
       </c>
-      <c r="B65" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="49">
+      <c r="B65" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="51">
         <v>0.458333333333333</v>
       </c>
-      <c r="D65" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E65" s="48" t="s">
+      <c r="D65" s="51">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E65" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="66" ht="15.25" spans="1:5">
-      <c r="A66" s="47">
+      <c r="A66" s="49">
         <v>10334426</v>
       </c>
-      <c r="B66" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" s="49">
+      <c r="B66" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="51">
         <v>0.458333333333333</v>
       </c>
-      <c r="D66" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E66" s="48" t="s">
+      <c r="D66" s="51">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E66" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="67" ht="15.25" spans="1:5">
-      <c r="A67" s="47">
+      <c r="A67" s="49">
         <v>10335613</v>
       </c>
-      <c r="B67" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="49">
+      <c r="B67" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="51">
         <v>0.458333333333333</v>
       </c>
-      <c r="D67" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E67" s="48" t="s">
+      <c r="D67" s="51">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E67" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="68" ht="15.25" spans="1:5">
-      <c r="A68" s="47">
+      <c r="A68" s="49">
         <v>10335593</v>
       </c>
-      <c r="B68" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" s="49">
+      <c r="B68" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="51">
         <v>0.458333333333333</v>
       </c>
-      <c r="D68" s="49">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E68" s="48" t="s">
+      <c r="D68" s="51">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E68" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" ht="15.25" spans="1:5">
-      <c r="A69" s="47">
+      <c r="A69" s="49">
         <v>10216711</v>
       </c>
-      <c r="B69" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="49">
+      <c r="B69" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="51">
         <v>0.5</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="51">
         <v>0.875</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="70" ht="15.25" spans="1:5">
-      <c r="A70" s="47">
+      <c r="A70" s="49">
         <v>10322837</v>
       </c>
-      <c r="B70" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" s="49">
+      <c r="B70" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="51">
         <v>0.5</v>
       </c>
-      <c r="D70" s="49">
+      <c r="D70" s="51">
         <v>0.875</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" ht="15.25" spans="1:5">
-      <c r="A71" s="47">
+      <c r="A71" s="49">
         <v>10238685</v>
       </c>
-      <c r="B71" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" s="49">
+      <c r="B71" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="51">
         <v>0.5</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="51">
         <v>0.875</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" ht="15.25" spans="1:5">
-      <c r="A72" s="47">
+      <c r="A72" s="49">
         <v>10273571</v>
       </c>
-      <c r="B72" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="C72" s="49">
+      <c r="B72" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="51">
         <v>0.5</v>
       </c>
-      <c r="D72" s="49">
+      <c r="D72" s="51">
         <v>0.875</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="73" ht="15.25" spans="1:5">
-      <c r="A73" s="47">
+      <c r="A73" s="49">
         <v>10298155</v>
       </c>
-      <c r="B73" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="49">
+      <c r="B73" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="51">
         <v>0.5</v>
       </c>
-      <c r="D73" s="49">
+      <c r="D73" s="51">
         <v>0.875</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="74" ht="15.25" spans="1:5">
-      <c r="A74" s="47">
+      <c r="A74" s="49">
         <v>10334668</v>
       </c>
-      <c r="B74" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="49">
+      <c r="B74" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="51">
         <v>0.5</v>
       </c>
-      <c r="D74" s="49">
+      <c r="D74" s="51">
         <v>0.875</v>
       </c>
-      <c r="E74" s="48" t="s">
+      <c r="E74" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="75" ht="15.25" spans="1:5">
-      <c r="A75" s="47">
+      <c r="A75" s="49">
         <v>10334697</v>
       </c>
-      <c r="B75" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="49">
+      <c r="B75" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="51">
         <v>0.5</v>
       </c>
-      <c r="D75" s="49">
+      <c r="D75" s="51">
         <v>0.875</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="76" ht="15.25"/>
     <row r="77" ht="15.25" spans="1:5">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="78" ht="15.25" spans="1:5">
-      <c r="A78" s="47">
+      <c r="A78" s="49">
         <v>10334497</v>
       </c>
-      <c r="B78" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="49">
+      <c r="B78" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="51">
         <v>0.375</v>
       </c>
-      <c r="D78" s="49">
+      <c r="D78" s="51">
         <v>0.75</v>
       </c>
-      <c r="E78" s="48" t="s">
-        <v>106</v>
+      <c r="E78" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="79" ht="15.25" spans="1:5">
-      <c r="A79" s="47">
+      <c r="A79" s="49">
         <v>10334495</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="51">
         <v>0.375</v>
       </c>
-      <c r="D79" s="49">
+      <c r="D79" s="51">
         <v>0.75</v>
       </c>
-      <c r="E79" s="48" t="s">
-        <v>106</v>
+      <c r="E79" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="15.25" spans="1:5">
-      <c r="A80" s="47">
+      <c r="A80" s="49">
         <v>10335547</v>
       </c>
-      <c r="B80" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="49">
+      <c r="B80" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="51">
         <v>0.375</v>
       </c>
-      <c r="D80" s="49">
+      <c r="D80" s="51">
         <v>0.75</v>
       </c>
-      <c r="E80" s="48" t="s">
-        <v>106</v>
+      <c r="E80" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="81" ht="15.25" spans="1:5">
-      <c r="A81" s="47">
+      <c r="A81" s="49">
         <v>10335550</v>
       </c>
-      <c r="B81" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="C81" s="49">
+      <c r="B81" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="51">
         <v>0.375</v>
       </c>
-      <c r="D81" s="49">
+      <c r="D81" s="51">
         <v>0.75</v>
       </c>
-      <c r="E81" s="48" t="s">
-        <v>106</v>
+      <c r="E81" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="82" ht="15.25" spans="1:5">
-      <c r="A82" s="47">
+      <c r="A82" s="49">
         <v>10335545</v>
       </c>
-      <c r="B82" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="49">
+      <c r="B82" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="51">
         <v>0.375</v>
       </c>
-      <c r="D82" s="49">
+      <c r="D82" s="51">
         <v>0.75</v>
       </c>
-      <c r="E82" s="48" t="s">
-        <v>106</v>
+      <c r="E82" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="83" ht="15.25" spans="1:5">
-      <c r="A83" s="47">
+      <c r="A83" s="49">
         <v>10335548</v>
       </c>
-      <c r="B83" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="49">
+      <c r="B83" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="51">
         <v>0.375</v>
       </c>
-      <c r="D83" s="49">
+      <c r="D83" s="51">
         <v>0.75</v>
       </c>
-      <c r="E83" s="48" t="s">
-        <v>106</v>
+      <c r="E83" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="84" ht="15.25" spans="1:5">
-      <c r="A84" s="47">
+      <c r="A84" s="49">
         <v>10335696</v>
       </c>
-      <c r="B84" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="49">
+      <c r="B84" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="51">
         <v>0.375</v>
       </c>
-      <c r="D84" s="49">
+      <c r="D84" s="51">
         <v>0.75</v>
       </c>
-      <c r="E84" s="48" t="s">
-        <v>106</v>
+      <c r="E84" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="86" ht="15.25" spans="4:12">
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="L86" s="53"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="G86" s="55"/>
+      <c r="L86" s="55"/>
     </row>
     <row r="87" ht="15.25" spans="1:5">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" ht="15.25" spans="1:8">
-      <c r="A88" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B88" s="12" t="s">
+      <c r="A88" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="13">
+      <c r="B88" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="15">
         <v>0.5</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="15">
         <v>0.875</v>
       </c>
-      <c r="E88" s="48" t="s">
+      <c r="E88" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+    </row>
+    <row r="89" ht="15.25"/>
+    <row r="90" ht="15.25" spans="1:5">
+      <c r="A90" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" ht="15.25" spans="1:5">
+      <c r="A91" s="49">
+        <v>10334689</v>
+      </c>
+      <c r="B91" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="51">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D91" s="51">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E91" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -5441,35 +5539,43 @@
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
   </mergeCells>
-  <conditionalFormatting sqref="A19">
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A32 A78:A84 A89:A1048576 A86 A39:A75">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A11:A17 A78:A84 A88:A1048576 A86 A31:A75 A20:A21">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A11:A17 A78:A84 A86 A31:A34 A88:A1048576 A36:A75 A20:A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  <conditionalFormatting sqref="A1:A2 A32 A78:A84 A89:A92 A95:A1048576 A39:A75 A86">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2 A12:A17 A78:A84 A88:A92 A95:A1048576 A20:A21 A86 A31:A75">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2 A12:A17 A78:A84 A86 A31:A34 A88:A92 A95:A1048576 A20:A21 A36:A75">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -501,28 +501,25 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Monday, August 18</t>
-  </si>
-  <si>
-    <t>Tuesday, August 19</t>
-  </si>
-  <si>
-    <t>Wednesday, August 20</t>
-  </si>
-  <si>
-    <t>Thursday, August 21</t>
-  </si>
-  <si>
-    <t>Friday, August 22</t>
-  </si>
-  <si>
-    <t>Saturday, August 23</t>
-  </si>
-  <si>
-    <t>Sunday, August 24</t>
+    <t>Monday, August 25</t>
+  </si>
+  <si>
+    <t>Tuesday, August 26</t>
+  </si>
+  <si>
+    <t>Wednesday, August 27</t>
+  </si>
+  <si>
+    <t>Thursday, August 28</t>
+  </si>
+  <si>
+    <t>Friday, August 29</t>
+  </si>
+  <si>
+    <t>Saturday, August 30</t>
+  </si>
+  <si>
+    <t>Sunday, August 31</t>
   </si>
   <si>
     <t>From</t>
@@ -534,15 +531,9 @@
     <t>Ahmed Hafiz</t>
   </si>
   <si>
-    <t>Training Manager</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Trainer</t>
-  </si>
-  <si>
     <t>Toqa Badry</t>
   </si>
   <si>
@@ -592,39 +583,6 @@
   </si>
   <si>
     <t>Ahmed abdelghafar</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Monday, August 18, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, August 19, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, August 20, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, August 21, 2025</t>
-  </si>
-  <si>
-    <t>Friday, August 22, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, August 23, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, August 24, 2025</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Yara Emad</t>
-  </si>
-  <si>
-    <t>QA</t>
   </si>
   <si>
     <t>Pavly Osama</t>
@@ -751,15 +709,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="00000000000"/>
-    <numFmt numFmtId="181" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="00000000000"/>
+    <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1048,7 +1005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,12 +1050,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1117,37 +1068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,7 +1301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1583,111 +1504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1902,7 +1718,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1914,119 +1730,119 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2091,36 +1907,33 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="178" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2130,36 +1943,6 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2175,10 +1958,7 @@
     <xf numFmtId="178" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2187,28 +1967,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,58 +1997,58 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="13" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2292,31 +2072,31 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2325,13 +2105,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2686,342 +2466,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="85"/>
+      <c r="A2" s="73"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="76">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="97" t="s">
+      <c r="M4" s="85" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="78">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="100">
+      <c r="L5" s="88">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="101" t="s">
+      <c r="M5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="90" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="78">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="91">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="101" t="s">
+      <c r="M6" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="102" t="s">
+      <c r="N6" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="78">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="91">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="102" t="s">
+      <c r="N7" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="78">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="103" t="s">
+      <c r="K8" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="91">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="101" t="s">
+      <c r="M8" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="102" t="s">
+      <c r="N8" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="103" t="s">
+      <c r="K9" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="91">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="101" t="s">
+      <c r="M9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="102" t="s">
+      <c r="N9" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="103">
+      <c r="L10" s="91">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="101" t="s">
+      <c r="M10" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="102" t="s">
+      <c r="N10" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="103" t="s">
+      <c r="K11" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="91">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="101" t="s">
+      <c r="M11" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="90" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="78">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="103" t="s">
+      <c r="K12" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="103">
+      <c r="L12" s="91">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="101" t="s">
+      <c r="M12" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="102" t="s">
+      <c r="N12" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="J13" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="103">
+      <c r="L13" s="91">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="101" t="s">
+      <c r="M13" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="102" t="s">
+      <c r="N13" s="90" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="78">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="103">
+      <c r="L14" s="91">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="101" t="s">
+      <c r="M14" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="102" t="s">
+      <c r="N14" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="78">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="78" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="78">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="78" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3058,627 +2838,627 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="57">
+      <c r="A4" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="46">
         <v>1281804393</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="57">
+      <c r="A5" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="57">
+      <c r="A6" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="46">
         <v>1117776684</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57">
+      <c r="A7" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="46">
         <v>1144718566</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="57">
+      <c r="A8" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="46">
         <v>1117144455</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="57">
+      <c r="A9" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="44">
         <v>1110071185</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="44" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="57">
+      <c r="A10" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="44">
         <v>1124220159</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="57">
+      <c r="A11" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="44">
         <v>1007884992</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="57">
+      <c r="A12" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="44">
         <v>1274743370</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="57">
+      <c r="A13" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="44">
         <v>1013030118</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="57">
+      <c r="A14" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="44">
         <v>1152621423</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="57">
+      <c r="A15" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="44">
         <v>1008989363</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25"/>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="61">
+      <c r="A18" s="49">
         <v>10259455</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="51">
         <v>0.458333333333333</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="51">
         <v>0.833333333333333</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="50">
         <v>1150764124</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="64">
+      <c r="A19" s="52">
         <v>10318223</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="53">
         <v>1025930233</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="64">
+      <c r="A20" s="52">
         <v>10314749</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="53">
         <v>1021111708</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="64">
+      <c r="A21" s="52">
         <v>10305637</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="53">
         <v>1012248119</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="64">
+      <c r="A22" s="52">
         <v>10322035</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="53">
         <v>1154321625</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="64">
+      <c r="A23" s="52">
         <v>10323953</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="68"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="53">
         <v>1281804393</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="68"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="53">
         <v>1225945969</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="68"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="53">
         <v>1117776684</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="68"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="53">
         <v>1144718566</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="68"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="56"/>
+      <c r="B28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="54">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="54">
         <v>0.833333333333333</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="53">
         <v>1117144455</v>
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="69"/>
-      <c r="D33" s="70" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="60">
         <v>45756</v>
       </c>
-      <c r="E34" s="72">
+      <c r="E34" s="60">
         <v>45757</v>
       </c>
-      <c r="F34" s="72">
+      <c r="F34" s="60">
         <v>45758</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="60">
         <v>45759</v>
       </c>
-      <c r="H34" s="72">
+      <c r="H34" s="60">
         <v>45760</v>
       </c>
     </row>
     <row r="35" ht="29" spans="3:8">
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="74" t="s">
+      <c r="G35" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="74" t="s">
+      <c r="H35" s="62" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="3:10">
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="77">
+      <c r="E37" s="65">
         <v>45762</v>
       </c>
-      <c r="F37" s="77">
+      <c r="F37" s="65">
         <v>45763</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="65">
         <v>45764</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="65">
         <v>45765</v>
       </c>
-      <c r="I37" s="77">
+      <c r="I37" s="65">
         <v>45766</v>
       </c>
-      <c r="J37" s="77">
+      <c r="J37" s="65">
         <v>45767</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="3:10">
-      <c r="C38" s="78">
+      <c r="C38" s="66">
         <v>10323953</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="80">
+      <c r="E38" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="F38" s="80">
+      <c r="F38" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="G38" s="80">
+      <c r="G38" s="68">
         <v>0.458333333333333</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="81" t="s">
+      <c r="I38" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="80">
+      <c r="J38" s="68">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="3:10">
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="80">
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="G39" s="80">
+      <c r="G39" s="68">
         <v>0.833333333333333</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="81" t="s">
+      <c r="I39" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="80">
+      <c r="J39" s="68">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -3695,10 +3475,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4070,1224 +3850,1063 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" customFormat="1" ht="15.25" spans="1:15">
+    <row r="22" customFormat="1" ht="15.25" spans="1:14">
       <c r="A22" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="20"/>
+      <c r="K22" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="20"/>
       <c r="L22" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="N22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O22" s="20"/>
-    </row>
-    <row r="23" customFormat="1" ht="15.25" spans="1:15">
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" customFormat="1" ht="15.25" spans="1:14">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="C23" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="D23" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>123</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>123</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="21" t="s">
-        <v>124</v>
-      </c>
+      <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="N23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="O23" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="15.25" spans="1:15">
+    </row>
+    <row r="24" customFormat="1" ht="15.25" spans="1:14">
       <c r="A24" s="22">
         <v>10210885</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="25">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="24">
         <v>0.5</v>
       </c>
-      <c r="E24" s="25">
+      <c r="N24" s="24">
         <v>0.875</v>
       </c>
-      <c r="F24" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0.875</v>
-      </c>
-      <c r="H24" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="25">
-        <v>0.875</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="N24" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="O24" s="25">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="15.25" spans="1:15">
+    </row>
+    <row r="25" customFormat="1" ht="15.25" spans="1:14">
       <c r="A25" s="22">
         <v>10259455</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="25">
+      <c r="C25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E25" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F25" s="25">
+      <c r="D25" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G25" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H25" s="25">
+      <c r="F25" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I25" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J25" s="25">
+      <c r="H25" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K25" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L25" s="52" t="s">
+      <c r="J25" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K25" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="L25" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N25" s="25">
+      <c r="M25" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="O25" s="25">
+      <c r="N25" s="24">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="15.25" spans="1:15">
+    <row r="26" customFormat="1" ht="15.25" spans="1:14">
       <c r="A26" s="22">
         <v>10293907</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="25">
+        <v>126</v>
+      </c>
+      <c r="C26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E26" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F26" s="25">
+      <c r="D26" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G26" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H26" s="25">
+      <c r="F26" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I26" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J26" s="25">
+      <c r="H26" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K26" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L26" s="52" t="s">
+      <c r="J26" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K26" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="52" t="s">
+      <c r="L26" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N26" s="25">
+      <c r="M26" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="O26" s="25">
+      <c r="N26" s="24">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="15.25" spans="1:15">
+    <row r="27" customFormat="1" ht="15.25" spans="1:14">
       <c r="A27" s="22">
         <v>10304876</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="25">
+        <v>127</v>
+      </c>
+      <c r="C27" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E27" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F27" s="25">
+      <c r="D27" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E27" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G27" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H27" s="25">
+      <c r="F27" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G27" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I27" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J27" s="25">
+      <c r="H27" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I27" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K27" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L27" s="52" t="s">
+      <c r="J27" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K27" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M27" s="52" t="s">
+      <c r="L27" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N27" s="25">
+      <c r="M27" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="O27" s="25">
+      <c r="N27" s="24">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="15.25" spans="1:15">
+    <row r="28" customFormat="1" ht="15.25" spans="1:14">
       <c r="A28" s="22">
         <v>10310365</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="25">
+      <c r="C28" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E28" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F28" s="25">
+      <c r="D28" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E28" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G28" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H28" s="25">
+      <c r="F28" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G28" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I28" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J28" s="25">
+      <c r="H28" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I28" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K28" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L28" s="52" t="s">
+      <c r="J28" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K28" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="L28" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N28" s="25">
+      <c r="M28" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="O28" s="25">
+      <c r="N28" s="24">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="15.25" spans="1:15">
+    <row r="29" customFormat="1" ht="15.25" spans="1:14">
       <c r="A29" s="22">
         <v>10305637</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="25">
+        <v>129</v>
+      </c>
+      <c r="C29" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E29" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F29" s="25">
+      <c r="D29" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E29" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G29" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H29" s="25">
+      <c r="F29" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G29" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I29" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J29" s="25">
+      <c r="H29" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I29" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K29" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L29" s="52" t="s">
+      <c r="J29" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K29" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="L29" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="N29" s="25">
+      <c r="M29" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="O29" s="25">
+      <c r="N29" s="24">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="15.25" spans="1:15">
+    <row r="30" customFormat="1" ht="15.25" spans="1:14">
       <c r="A30" s="22">
         <v>10324569</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N30" s="24">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:1">
+      <c r="A33" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:16">
+      <c r="A34" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="25">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" s="28"/>
+    </row>
+    <row r="35" ht="15.25" spans="1:16">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="P35" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:16">
+      <c r="A36" s="33">
+        <v>29608191</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="35">
         <v>0.416666666666667</v>
       </c>
-      <c r="E30" s="25">
+      <c r="D36" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H36" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="I36" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J36" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="O36" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P36" s="35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="38">
+        <v>10334713</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:5">
+      <c r="A46" s="38">
+        <v>10333947</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:5">
+      <c r="A47" s="38">
+        <v>10333938</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="38">
+        <v>10334715</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="38">
+        <v>10334700</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50" s="38">
+        <v>10334738</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:5">
+      <c r="A51" s="38">
+        <v>10334712</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="38">
+        <v>10334704</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:5">
+      <c r="A53" s="38">
+        <v>10333976</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="38">
+        <v>10334023</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="38">
+        <v>10334711</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="38">
+        <v>10334701</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:5">
+      <c r="A57" s="38">
+        <v>10334709</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:5">
+      <c r="A58" s="38">
+        <v>10334018</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:5">
+      <c r="A59" s="38">
+        <v>10334707</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:5">
+      <c r="A60" s="38">
+        <v>10334710</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:5">
+      <c r="A61" s="38">
+        <v>10334788</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:5">
+      <c r="A62" s="38">
+        <v>10334699</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:5">
+      <c r="A63" s="38">
+        <v>10334705</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:5">
+      <c r="A64" s="38">
+        <v>10273655</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D64" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="F30" s="25">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G30" s="25">
+      <c r="E64" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="1:5">
+      <c r="A65" s="38">
+        <v>10287526</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D65" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="H30" s="25">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I30" s="25">
+      <c r="E65" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:5">
+      <c r="A66" s="38">
+        <v>10334426</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D66" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="J30" s="25">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K30" s="25">
+      <c r="E66" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" spans="1:5">
+      <c r="A67" s="38">
+        <v>10335613</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D67" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="L30" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="M30" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="N30" s="25">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="O30" s="25">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:1">
-      <c r="A33" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:16">
-      <c r="A34" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="P34" s="29"/>
-    </row>
-    <row r="35" ht="15.25" spans="1:16">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="M35" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N35" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="O35" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="P35" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:16">
-      <c r="A36" s="34">
-        <v>29608191</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="36">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D36" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="E36" s="36">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F36" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="G36" s="36">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H36" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="I36" s="36">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J36" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="L36" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="M36" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="N36" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="O36" s="36">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="P36" s="36">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25"/>
-    <row r="40" ht="15.25" spans="1:17">
-      <c r="A40" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q40" s="38"/>
-    </row>
-    <row r="41" ht="15.25" spans="1:17">
-      <c r="A41" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="K41" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="L41" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="M41" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="N41" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="O41" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="P41" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q41" s="42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:17">
-      <c r="A42" s="43">
-        <v>10250874</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="46">
+      <c r="E67" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="1:5">
+      <c r="A68" s="38">
+        <v>10335593</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="E42" s="46">
+      <c r="D68" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="F42" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G42" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H42" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I42" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J42" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K42" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L42" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="M42" s="46">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N42" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q42" s="53"/>
-    </row>
-    <row r="43" ht="15.25"/>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="49">
-        <v>10334713</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="51">
+      <c r="E68" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" spans="1:5">
+      <c r="A69" s="38">
+        <v>10216711</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="40">
         <v>0.5</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D69" s="40">
         <v>0.875</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E69" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="49">
-        <v>10333947</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="51">
+    <row r="70" ht="15.25" spans="1:5">
+      <c r="A70" s="38">
+        <v>10322837</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="40">
         <v>0.5</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D70" s="40">
         <v>0.875</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E70" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="49">
-        <v>10333938</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="51">
+    <row r="71" ht="15.25" spans="1:5">
+      <c r="A71" s="38">
+        <v>10238685</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="40">
         <v>0.5</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D71" s="40">
         <v>0.875</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E71" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="49">
-        <v>10334715</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="51">
+    <row r="72" ht="15.25" spans="1:5">
+      <c r="A72" s="38">
+        <v>10273571</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="40">
         <v>0.5</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D72" s="40">
         <v>0.875</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E72" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="49">
-        <v>10334700</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="51">
+    <row r="73" ht="15.25" spans="1:5">
+      <c r="A73" s="38">
+        <v>10298155</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="40">
         <v>0.5</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D73" s="40">
         <v>0.875</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E73" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" ht="15.25" spans="1:5">
-      <c r="A50" s="49">
-        <v>10334738</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="51">
+    <row r="74" ht="15.25" spans="1:5">
+      <c r="A74" s="38">
+        <v>10334668</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="40">
         <v>0.5</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D74" s="40">
         <v>0.875</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E74" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" ht="15.25" spans="1:5">
-      <c r="A51" s="49">
-        <v>10334712</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="51">
+    <row r="75" ht="15.25" spans="1:5">
+      <c r="A75" s="38">
+        <v>10334697</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="40">
         <v>0.5</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D75" s="40">
         <v>0.875</v>
       </c>
-      <c r="E51" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="49">
-        <v>10334704</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="49">
-        <v>10333976</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D53" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="49">
-        <v>10334023</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E54" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="49">
-        <v>10334711</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D55" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="49">
-        <v>10334701</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:5">
-      <c r="A57" s="49">
-        <v>10334709</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D57" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:5">
-      <c r="A58" s="49">
-        <v>10334018</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D58" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:5">
-      <c r="A59" s="49">
-        <v>10334707</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D59" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:5">
-      <c r="A60" s="49">
-        <v>10334710</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D60" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:5">
-      <c r="A61" s="49">
-        <v>10334788</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D61" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:5">
-      <c r="A62" s="49">
-        <v>10334699</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="1:5">
-      <c r="A63" s="49">
-        <v>10334705</v>
-      </c>
-      <c r="B63" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="C63" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D63" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E63" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:5">
-      <c r="A64" s="49">
-        <v>10273655</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" s="51">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D64" s="51">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:5">
-      <c r="A65" s="49">
-        <v>10287526</v>
-      </c>
-      <c r="B65" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="51">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D65" s="51">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E65" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:5">
-      <c r="A66" s="49">
-        <v>10334426</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="51">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D66" s="51">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E66" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" spans="1:5">
-      <c r="A67" s="49">
-        <v>10335613</v>
-      </c>
-      <c r="B67" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="51">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D67" s="51">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E67" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" spans="1:5">
-      <c r="A68" s="49">
-        <v>10335593</v>
-      </c>
-      <c r="B68" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="51">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D68" s="51">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E68" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" spans="1:5">
-      <c r="A69" s="49">
-        <v>10216711</v>
-      </c>
-      <c r="B69" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D69" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:5">
-      <c r="A70" s="49">
-        <v>10322837</v>
-      </c>
-      <c r="B70" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E70" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" spans="1:5">
-      <c r="A71" s="49">
-        <v>10238685</v>
-      </c>
-      <c r="B71" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C71" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D71" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E71" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:5">
-      <c r="A72" s="49">
-        <v>10273571</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D72" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E72" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:5">
-      <c r="A73" s="49">
-        <v>10298155</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D73" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E73" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" spans="1:5">
-      <c r="A74" s="49">
-        <v>10334668</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D74" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E74" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" spans="1:5">
-      <c r="A75" s="49">
-        <v>10334697</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C75" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="D75" s="51">
-        <v>0.875</v>
-      </c>
-      <c r="E75" s="50" t="s">
+      <c r="E75" s="39" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5310,129 +4929,129 @@
       </c>
     </row>
     <row r="78" ht="15.25" spans="1:5">
-      <c r="A78" s="49">
+      <c r="A78" s="38">
         <v>10334497</v>
       </c>
-      <c r="B78" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="51">
+      <c r="B78" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="40">
         <v>0.375</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="40">
         <v>0.75</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" ht="15.25" spans="1:5">
-      <c r="A79" s="49">
+      <c r="A79" s="38">
         <v>10334495</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="40">
         <v>0.375</v>
       </c>
-      <c r="D79" s="51">
+      <c r="D79" s="40">
         <v>0.75</v>
       </c>
-      <c r="E79" s="50" t="s">
+      <c r="E79" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="80" ht="15.25" spans="1:5">
-      <c r="A80" s="49">
+      <c r="A80" s="38">
         <v>10335547</v>
       </c>
-      <c r="B80" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="C80" s="51">
+      <c r="B80" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="40">
         <v>0.375</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="40">
         <v>0.75</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="E80" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="81" ht="15.25" spans="1:5">
-      <c r="A81" s="49">
+      <c r="A81" s="38">
         <v>10335550</v>
       </c>
-      <c r="B81" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="51">
+      <c r="B81" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="40">
         <v>0.375</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="40">
         <v>0.75</v>
       </c>
-      <c r="E81" s="50" t="s">
+      <c r="E81" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="82" ht="15.25" spans="1:5">
-      <c r="A82" s="49">
+      <c r="A82" s="38">
         <v>10335545</v>
       </c>
-      <c r="B82" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="51">
+      <c r="B82" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="40">
         <v>0.375</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="40">
         <v>0.75</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="83" ht="15.25" spans="1:5">
-      <c r="A83" s="49">
+      <c r="A83" s="38">
         <v>10335548</v>
       </c>
-      <c r="B83" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" s="51">
+      <c r="B83" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="40">
         <v>0.375</v>
       </c>
-      <c r="D83" s="51">
+      <c r="D83" s="40">
         <v>0.75</v>
       </c>
-      <c r="E83" s="50" t="s">
+      <c r="E83" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" ht="15.25" spans="1:5">
-      <c r="A84" s="49">
+      <c r="A84" s="38">
         <v>10335696</v>
       </c>
-      <c r="B84" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" s="51">
+      <c r="B84" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="40">
         <v>0.375</v>
       </c>
-      <c r="D84" s="51">
+      <c r="D84" s="40">
         <v>0.75</v>
       </c>
-      <c r="E84" s="50" t="s">
+      <c r="E84" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="86" ht="15.25" spans="4:12">
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="G86" s="55"/>
-      <c r="L86" s="55"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="G86" s="43"/>
+      <c r="L86" s="43"/>
     </row>
     <row r="87" ht="15.25" spans="1:5">
       <c r="A87" s="11" t="s">
@@ -5453,10 +5072,10 @@
     </row>
     <row r="88" ht="15.25" spans="1:8">
       <c r="A88" s="13" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C88" s="15">
         <v>0.5</v>
@@ -5464,56 +5083,56 @@
       <c r="D88" s="15">
         <v>0.875</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
     </row>
     <row r="89" ht="15.25"/>
     <row r="90" ht="15.25" spans="1:5">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="48" t="s">
+      <c r="C90" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E90" s="48" t="s">
+      <c r="E90" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" ht="15.25" spans="1:5">
-      <c r="A91" s="49">
+      <c r="A91" s="38">
         <v>10334689</v>
       </c>
-      <c r="B91" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="51">
+      <c r="B91" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="D91" s="51">
+      <c r="D91" s="40">
         <v>0.833333333333333</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="39" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J24:K24"/>
+  <mergeCells count="19">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
@@ -5521,23 +5140,12 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="K22:K23"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
   </mergeCells>
   <conditionalFormatting sqref="B11">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
@@ -5565,17 +5173,17 @@
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A32 A78:A84 A89:A92 A95:A1048576 A39:A75 A86">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  <conditionalFormatting sqref="A1:A2 A12:A17 A78:A84 A86 A31:A34 A88:A92 A95:A1048576 A20:A21 A36:A39 A43:A75">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A12:A17 A78:A84 A88:A92 A95:A1048576 A20:A21 A86 A31:A75">
+  <conditionalFormatting sqref="A1:A2 A12:A17 A78:A84 A88:A92 A95:A1048576 A20:A21 A86 A31:A39 A43:A75">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A12:A17 A78:A84 A86 A31:A34 A88:A92 A95:A1048576 A20:A21 A36:A75">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  <conditionalFormatting sqref="A1:A2 A32 A78:A84 A89:A92 A95:A1048576 A39 A43:A75 A86">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="184">
   <si>
     <r>
       <rPr>
@@ -501,25 +501,25 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Monday, August 25</t>
-  </si>
-  <si>
-    <t>Tuesday, August 26</t>
-  </si>
-  <si>
-    <t>Wednesday, August 27</t>
-  </si>
-  <si>
-    <t>Thursday, August 28</t>
-  </si>
-  <si>
-    <t>Friday, August 29</t>
-  </si>
-  <si>
-    <t>Saturday, August 30</t>
-  </si>
-  <si>
-    <t>Sunday, August 31</t>
+    <t>Monday, September 1</t>
+  </si>
+  <si>
+    <t>Tuesday, September 2</t>
+  </si>
+  <si>
+    <t>Wednesday, September 3</t>
+  </si>
+  <si>
+    <t>Thursday, September 4</t>
+  </si>
+  <si>
+    <t>Friday, September 5</t>
+  </si>
+  <si>
+    <t>Saturday, September 6</t>
+  </si>
+  <si>
+    <t>Sunday, September 7</t>
   </si>
   <si>
     <t>From</t>
@@ -549,6 +549,129 @@
     <t>Ammar Isameldin Hassan</t>
   </si>
   <si>
+    <t>Pavly Osama</t>
+  </si>
+  <si>
+    <t>Sarah Ahmed Abdelfattah</t>
+  </si>
+  <si>
+    <t>Shady Mohamed</t>
+  </si>
+  <si>
+    <t>Shaden Yasser Mahmoud</t>
+  </si>
+  <si>
+    <t>Yahia Ahmed Mohamed Teleb</t>
+  </si>
+  <si>
+    <t>Ramez Tarek Rashad</t>
+  </si>
+  <si>
+    <t>Omar Mahmoud Serag</t>
+  </si>
+  <si>
+    <t>Omar Emad Eldeen Hassan</t>
+  </si>
+  <si>
+    <t>Mohamed Sherif</t>
+  </si>
+  <si>
+    <t>Marina Emad</t>
+  </si>
+  <si>
+    <t>Ibraam Osama</t>
+  </si>
+  <si>
+    <t>Hagar Adel</t>
+  </si>
+  <si>
+    <t>Ghada El-Kadi</t>
+  </si>
+  <si>
+    <t>Eman Adel</t>
+  </si>
+  <si>
+    <t>Basant Hany El Gendy</t>
+  </si>
+  <si>
+    <t>Ahmed Mohsen</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Abdelrahman Mohamed</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelazeem</t>
+  </si>
+  <si>
+    <t>Abeer Isamil</t>
+  </si>
+  <si>
+    <t>Youssef Fouad</t>
+  </si>
+  <si>
+    <t>Noureldin ibrahim</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Abdullah</t>
+  </si>
+  <si>
+    <t>Mohamed El Habashy</t>
+  </si>
+  <si>
+    <t>Ahmed Taha</t>
+  </si>
+  <si>
+    <t>Abdallah Hesham</t>
+  </si>
+  <si>
+    <t>Ahmed MohamedSobhi</t>
+  </si>
+  <si>
+    <t>Mohamed Hany</t>
+  </si>
+  <si>
+    <t>Belal Gamal</t>
+  </si>
+  <si>
+    <t>Walid Mohamed</t>
+  </si>
+  <si>
+    <t>Moamen Gamal</t>
+  </si>
+  <si>
+    <t>Kareem Fawzy</t>
+  </si>
+  <si>
+    <t>Momen Medhat</t>
+  </si>
+  <si>
+    <t>seifelden magdy</t>
+  </si>
+  <si>
+    <t>Karim Omar</t>
+  </si>
+  <si>
+    <t>Abeer Ahmed</t>
+  </si>
+  <si>
+    <t>Adham Nasser</t>
+  </si>
+  <si>
+    <t>Haidy Mashaly</t>
+  </si>
+  <si>
+    <t>TAX2</t>
+  </si>
+  <si>
+    <t>Doaa Essam</t>
+  </si>
+  <si>
+    <t>Nouran Noureldin</t>
+  </si>
+  <si>
+    <t>Omar Seif</t>
+  </si>
+  <si>
     <t>لحد اخر شهر 8</t>
   </si>
   <si>
@@ -583,126 +706,6 @@
   </si>
   <si>
     <t>Ahmed abdelghafar</t>
-  </si>
-  <si>
-    <t>Pavly Osama</t>
-  </si>
-  <si>
-    <t>Sarah Ahmed Abdelfattah</t>
-  </si>
-  <si>
-    <t>Shady Mohamed</t>
-  </si>
-  <si>
-    <t>Shaden Yasser Mahmoud</t>
-  </si>
-  <si>
-    <t>Yahia Ahmed Mohamed Teleb</t>
-  </si>
-  <si>
-    <t>Ramez Tarek Rashad</t>
-  </si>
-  <si>
-    <t>Omar Mahmoud Serag</t>
-  </si>
-  <si>
-    <t>Omar Emad Eldeen Hassan</t>
-  </si>
-  <si>
-    <t>Mohamed Sherif</t>
-  </si>
-  <si>
-    <t>Marina Emad</t>
-  </si>
-  <si>
-    <t>Ibraam Osama</t>
-  </si>
-  <si>
-    <t>Hagar Adel</t>
-  </si>
-  <si>
-    <t>Ghada El-Kadi</t>
-  </si>
-  <si>
-    <t>Eman Adel</t>
-  </si>
-  <si>
-    <t>Basant Hany El Gendy</t>
-  </si>
-  <si>
-    <t>Ahmed Mohsen</t>
-  </si>
-  <si>
-    <t>Ahmed Mohamed Abdelrahman Mohamed</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelazeem</t>
-  </si>
-  <si>
-    <t>Abeer Isamil</t>
-  </si>
-  <si>
-    <t>Youssef Fouad</t>
-  </si>
-  <si>
-    <t>Noureldin ibrahim</t>
-  </si>
-  <si>
-    <t>Mohamed Ahmed Abdullah</t>
-  </si>
-  <si>
-    <t>Mohamed El Habashy</t>
-  </si>
-  <si>
-    <t>Ahmed Taha</t>
-  </si>
-  <si>
-    <t>Abdallah Hesham</t>
-  </si>
-  <si>
-    <t>Ahmed MohamedSobhi</t>
-  </si>
-  <si>
-    <t>Mohamed Hany</t>
-  </si>
-  <si>
-    <t>Belal Gamal</t>
-  </si>
-  <si>
-    <t>Walid Mohamed</t>
-  </si>
-  <si>
-    <t>Moamen Gamal</t>
-  </si>
-  <si>
-    <t>Kareem Fawzy</t>
-  </si>
-  <si>
-    <t>Momen Medhat</t>
-  </si>
-  <si>
-    <t>seifelden magdy</t>
-  </si>
-  <si>
-    <t>Karim Omar</t>
-  </si>
-  <si>
-    <t>Abeer Ahmed</t>
-  </si>
-  <si>
-    <t>Adham Nasser</t>
-  </si>
-  <si>
-    <t>Haidy Mashaly</t>
-  </si>
-  <si>
-    <t>TAX2</t>
-  </si>
-  <si>
-    <t>Doaa Essam</t>
-  </si>
-  <si>
-    <t>Nouran Noureldin</t>
   </si>
 </sst>
 </file>
@@ -785,6 +788,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -794,13 +804,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="-apple-system"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1050,6 +1053,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1063,12 +1072,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,31 +1913,55 @@
     <xf numFmtId="178" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,30 +1970,6 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1982,13 +1985,13 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,13 +2027,13 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,7 +2081,7 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,10 +2090,10 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3475,10 +3478,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:D91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="$A32:$XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3850,7 +3853,7 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" customFormat="1" ht="15.25" spans="1:14">
+    <row r="22" customFormat="1" spans="1:14">
       <c r="A22" s="18" t="s">
         <v>113</v>
       </c>
@@ -3884,7 +3887,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" customFormat="1" ht="15.25" spans="1:14">
+    <row r="23" customFormat="1" spans="1:14">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="21" t="s">
@@ -3920,49 +3923,45 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="15.25" spans="1:14">
+    <row r="24" customFormat="1" spans="1:14">
       <c r="A24" s="22">
         <v>10210885</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0.875</v>
-      </c>
+      <c r="C24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="23"/>
       <c r="E24" s="24">
         <v>0.5</v>
       </c>
       <c r="F24" s="24">
         <v>0.875</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24">
         <v>0.5</v>
       </c>
-      <c r="H24" s="24">
+      <c r="J24" s="24">
         <v>0.875</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" s="23"/>
       <c r="K24" s="23" t="s">
         <v>125</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="N24" s="24">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="15.25" spans="1:14">
+      <c r="M24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:14">
       <c r="A25" s="22">
         <v>10259455</v>
       </c>
@@ -3993,10 +3992,10 @@
       <c r="J25" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="30" t="s">
         <v>99</v>
       </c>
       <c r="M25" s="24">
@@ -4006,7 +4005,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="15.25" spans="1:14">
+    <row r="26" customFormat="1" spans="1:14">
       <c r="A26" s="22">
         <v>10293907</v>
       </c>
@@ -4037,10 +4036,10 @@
       <c r="J26" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="30" t="s">
         <v>99</v>
       </c>
       <c r="M26" s="24">
@@ -4050,7 +4049,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="15.25" spans="1:14">
+    <row r="27" customFormat="1" spans="1:14">
       <c r="A27" s="22">
         <v>10304876</v>
       </c>
@@ -4081,10 +4080,10 @@
       <c r="J27" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="30" t="s">
         <v>99</v>
       </c>
       <c r="M27" s="24">
@@ -4094,7 +4093,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="15.25" spans="1:14">
+    <row r="28" customFormat="1" spans="1:14">
       <c r="A28" s="22">
         <v>10310365</v>
       </c>
@@ -4125,10 +4124,10 @@
       <c r="J28" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="30" t="s">
         <v>99</v>
       </c>
       <c r="M28" s="24">
@@ -4138,7 +4137,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="15.25" spans="1:14">
+    <row r="29" customFormat="1" spans="1:14">
       <c r="A29" s="22">
         <v>10305637</v>
       </c>
@@ -4169,10 +4168,10 @@
       <c r="J29" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="30" t="s">
         <v>99</v>
       </c>
       <c r="M29" s="24">
@@ -4182,7 +4181,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="15.25" spans="1:14">
+    <row r="30" customFormat="1" spans="1:14">
       <c r="A30" s="22">
         <v>10324569</v>
       </c>
@@ -4213,10 +4212,10 @@
       <c r="J30" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="30" t="s">
         <v>99</v>
       </c>
       <c r="M30" s="24">
@@ -4226,963 +4225,1004 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="33" ht="15.25" spans="1:1">
+    <row r="31" customFormat="1"/>
+    <row r="33" spans="1:5">
       <c r="A33" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="27">
+        <v>10334713</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:16">
-      <c r="A34" s="26" t="s">
+      <c r="C34" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="27">
+        <v>10333947</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="C35" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="27">
+        <v>10333938</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="27">
+        <v>10334715</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="27">
+        <v>10334700</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="27">
+        <v>10334738</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="27">
+        <v>10334712</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="27">
+        <v>10334704</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="27">
+        <v>10333976</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="27">
+        <v>10334023</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="27">
+        <v>10334711</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="27">
+        <v>10334701</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:5">
+      <c r="A46" s="27">
+        <v>10334709</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:5">
+      <c r="A47" s="27">
+        <v>10334018</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="27">
+        <v>10334707</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="27">
+        <v>10334710</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50" s="27">
+        <v>10334788</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:5">
+      <c r="A51" s="27">
+        <v>10334699</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="27">
+        <v>10334705</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:5">
+      <c r="A53" s="27">
+        <v>10273655</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D53" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="27">
+        <v>10287526</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D54" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="27">
+        <v>10334426</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D55" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="27">
+        <v>10335613</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D56" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:5">
+      <c r="A57" s="27">
+        <v>10335593</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D57" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:5">
+      <c r="A58" s="27">
+        <v>10216711</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:5">
+      <c r="A59" s="27">
+        <v>10322837</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:5">
+      <c r="A60" s="27">
+        <v>10238685</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:5">
+      <c r="A61" s="27">
+        <v>10273571</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:5">
+      <c r="A62" s="27">
+        <v>10298155</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:5">
+      <c r="A63" s="27">
+        <v>10334668</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:5">
+      <c r="A64" s="27">
+        <v>10334697</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25"/>
+    <row r="66" ht="15.25" spans="1:5">
+      <c r="A66" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" spans="1:5">
+      <c r="A67" s="27">
+        <v>10334497</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D67" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="1:5">
+      <c r="A68" s="27">
+        <v>10334495</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D68" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" spans="1:5">
+      <c r="A69" s="27">
+        <v>10335547</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D69" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" spans="1:5">
+      <c r="A70" s="27">
+        <v>10335550</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D70" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" spans="1:5">
+      <c r="A71" s="27">
+        <v>10335545</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D71" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="1:5">
+      <c r="A72" s="27">
+        <v>10335548</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D72" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" spans="1:5">
+      <c r="A73" s="27">
+        <v>10335696</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D73" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" spans="4:12">
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="G75" s="32"/>
+      <c r="L75" s="32"/>
+    </row>
+    <row r="76" ht="15.25" spans="1:5">
+      <c r="A76" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" ht="15.25" spans="1:8">
+      <c r="A77" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+    </row>
+    <row r="78" ht="15.25"/>
+    <row r="79" ht="15.25" spans="1:5">
+      <c r="A79" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" ht="15.25" spans="1:5">
+      <c r="A80" s="27">
+        <v>10334689</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D80" s="29">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" ht="15.25"/>
+    <row r="82" ht="15.25" spans="1:5">
+      <c r="A82" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" ht="15.25" spans="1:5">
+      <c r="A83" s="13">
+        <v>10269201</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" ht="15.25" spans="1:1">
+      <c r="A90" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" ht="15.25" spans="1:16">
+      <c r="A91" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="P34" s="28"/>
-    </row>
-    <row r="35" ht="15.25" spans="1:16">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="L35" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="M35" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="N35" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="O35" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="P35" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:16">
-      <c r="A36" s="33">
+      <c r="C91" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="P91" s="36"/>
+    </row>
+    <row r="92" ht="15.25" spans="1:16">
+      <c r="A92" s="37"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="I92" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J92" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="K92" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="L92" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="M92" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="N92" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="O92" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="P92" s="40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" ht="14.75" spans="1:16">
+      <c r="A93" s="41">
         <v>29608191</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="35">
+      <c r="B93" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D93" s="43">
         <v>0.75</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E93" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F93" s="43">
         <v>0.75</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G93" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H93" s="43">
         <v>0.75</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I93" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J93" s="43">
         <v>0.75</v>
       </c>
-      <c r="K36" s="34" t="s">
+      <c r="K93" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="L36" s="34" t="s">
+      <c r="L93" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="M36" s="34" t="s">
+      <c r="M93" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="N36" s="34" t="s">
+      <c r="N93" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="O36" s="35">
+      <c r="O93" s="43">
         <v>0.416666666666667</v>
       </c>
-      <c r="P36" s="35">
+      <c r="P93" s="43">
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="38">
-        <v>10334713</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="38">
-        <v>10333947</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D46" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="38">
-        <v>10333938</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D47" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="38">
-        <v>10334715</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="38">
-        <v>10334700</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:5">
-      <c r="A50" s="38">
-        <v>10334738</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:5">
-      <c r="A51" s="38">
-        <v>10334712</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="38">
-        <v>10334704</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="38">
-        <v>10333976</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D53" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="38">
-        <v>10334023</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="38">
-        <v>10334711</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D55" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="38">
-        <v>10334701</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:5">
-      <c r="A57" s="38">
-        <v>10334709</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D57" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:5">
-      <c r="A58" s="38">
-        <v>10334018</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D58" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:5">
-      <c r="A59" s="38">
-        <v>10334707</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D59" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:5">
-      <c r="A60" s="38">
-        <v>10334710</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D60" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:5">
-      <c r="A61" s="38">
-        <v>10334788</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D61" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:5">
-      <c r="A62" s="38">
-        <v>10334699</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="1:5">
-      <c r="A63" s="38">
-        <v>10334705</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D63" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:5">
-      <c r="A64" s="38">
-        <v>10273655</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D64" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:5">
-      <c r="A65" s="38">
-        <v>10287526</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D65" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:5">
-      <c r="A66" s="38">
-        <v>10334426</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D66" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" spans="1:5">
-      <c r="A67" s="38">
-        <v>10335613</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D67" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" spans="1:5">
-      <c r="A68" s="38">
-        <v>10335593</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D68" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" spans="1:5">
-      <c r="A69" s="38">
-        <v>10216711</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C69" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D69" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:5">
-      <c r="A70" s="38">
-        <v>10322837</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" spans="1:5">
-      <c r="A71" s="38">
-        <v>10238685</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D71" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:5">
-      <c r="A72" s="38">
-        <v>10273571</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D72" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:5">
-      <c r="A73" s="38">
-        <v>10298155</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C73" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D73" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" spans="1:5">
-      <c r="A74" s="38">
-        <v>10334668</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D74" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" spans="1:5">
-      <c r="A75" s="38">
-        <v>10334697</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D75" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25"/>
-    <row r="77" ht="15.25" spans="1:5">
-      <c r="A77" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" ht="15.25" spans="1:5">
-      <c r="A78" s="38">
-        <v>10334497</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="D78" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" ht="15.25" spans="1:5">
-      <c r="A79" s="38">
-        <v>10334495</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="D79" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" ht="15.25" spans="1:5">
-      <c r="A80" s="38">
-        <v>10335547</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="D80" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E80" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" ht="15.25" spans="1:5">
-      <c r="A81" s="38">
-        <v>10335550</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C81" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="D81" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" ht="15.25" spans="1:5">
-      <c r="A82" s="38">
-        <v>10335545</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="D82" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" ht="15.25" spans="1:5">
-      <c r="A83" s="38">
-        <v>10335548</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="D83" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" ht="15.25" spans="1:5">
-      <c r="A84" s="38">
-        <v>10335696</v>
-      </c>
-      <c r="B84" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="D84" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E84" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" ht="15.25" spans="4:12">
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="G86" s="43"/>
-      <c r="L86" s="43"/>
-    </row>
-    <row r="87" ht="15.25" spans="1:5">
-      <c r="A87" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" ht="15.25" spans="1:8">
-      <c r="A88" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D88" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-    </row>
-    <row r="89" ht="15.25"/>
-    <row r="90" ht="15.25" spans="1:5">
-      <c r="A90" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" ht="15.25" spans="1:5">
-      <c r="A91" s="38">
-        <v>10334689</v>
-      </c>
-      <c r="B91" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D91" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E91" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:P91"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A91:A92"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B91:B92"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="L22:L23"/>
   </mergeCells>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A66">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A12:A17 A78:A84 A86 A31:A34 A88:A92 A95:A1048576 A20:A21 A36:A39 A43:A75">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A12:A17 A78:A84 A88:A92 A95:A1048576 A20:A21 A86 A31:A39 A43:A75">
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A32 A78:A84 A89:A92 A95:A1048576 A39 A43:A75 A86">
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2 A32:A64 A75 A94:A1048576 A84:A89 A78:A81 A67:A73">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2 A12:A17 A20:A21 A32:A64 A67:A73 A93:A1048576 A83:A91 A77:A81 A75">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2 A12:A17 A20:A21 A32:A64 A75 A67:A73 A83:A1048576 A77:A81">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/Talabat.xlsx
+++ b/Accounts-Schedules/Talabat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="203">
   <si>
     <r>
       <rPr>
@@ -501,25 +501,25 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Monday, September 1</t>
-  </si>
-  <si>
-    <t>Tuesday, September 2</t>
-  </si>
-  <si>
-    <t>Wednesday, September 3</t>
-  </si>
-  <si>
-    <t>Thursday, September 4</t>
-  </si>
-  <si>
-    <t>Friday, September 5</t>
-  </si>
-  <si>
-    <t>Saturday, September 6</t>
-  </si>
-  <si>
-    <t>Sunday, September 7</t>
+    <t>Monday, September 8</t>
+  </si>
+  <si>
+    <t>Tuesday, September 9</t>
+  </si>
+  <si>
+    <t>Wednesday, September 10</t>
+  </si>
+  <si>
+    <t>Thursday, September 11</t>
+  </si>
+  <si>
+    <t>Friday, September 12</t>
+  </si>
+  <si>
+    <t>Saturday, September 13</t>
+  </si>
+  <si>
+    <t>Sunday, September 14</t>
   </si>
   <si>
     <t>From</t>
@@ -706,6 +706,63 @@
   </si>
   <si>
     <t>Ahmed abdelghafar</t>
+  </si>
+  <si>
+    <t>HRID</t>
+  </si>
+  <si>
+    <t>Agent Module</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>10:00 PM</t>
+  </